--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\R\tu-case-1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F74B26-36C8-4CD2-AEA0-52A6C2EA1AA8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB61005-8722-4FE9-A519-2471F8812092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="22572" windowHeight="12264" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="22575" windowHeight="12270" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="332">
   <si>
     <t>institution</t>
   </si>
@@ -531,15 +530,6 @@
     <t>Aurélien Wyttenbach</t>
   </si>
   <si>
-    <t>Gabriela Calistro RiveraPostdoc / guest</t>
-  </si>
-  <si>
-    <t>Vincent KofmanPostdoc / guest</t>
-  </si>
-  <si>
-    <t>Zujia LuPhD candiate / guest</t>
-  </si>
-  <si>
     <t>PhD candidate</t>
   </si>
   <si>
@@ -579,12 +569,6 @@
     <t>Turgay Caglar</t>
   </si>
   <si>
-    <t>Dario Campisi / Marie Curie fellow</t>
-  </si>
-  <si>
-    <t>David Carton / guest</t>
-  </si>
-  <si>
     <t>Francisca Concha Ramirez</t>
   </si>
   <si>
@@ -633,9 +617,6 @@
     <t>Soumyajit Mandal</t>
   </si>
   <si>
-    <t>Junjie Mao / guest</t>
-  </si>
-  <si>
     <t>Tommaso Marchetti</t>
   </si>
   <si>
@@ -654,9 +635,6 @@
     <t>Cornelia Pabst</t>
   </si>
   <si>
-    <t>Sanjana Panchagnula / Marie Curie fellow</t>
-  </si>
-  <si>
     <t>Emiel Por</t>
   </si>
   <si>
@@ -684,27 +662,18 @@
     <t>Lýdia Stofanová</t>
   </si>
   <si>
-    <t>Yuhan Sun/guest</t>
-  </si>
-  <si>
     <t>Sierk van Terwisga</t>
   </si>
   <si>
     <t>Jeroen Terwisscha van Scheltinga</t>
   </si>
   <si>
-    <t>Santiago Torres Rodriguez / guest</t>
-  </si>
-  <si>
     <t>Leon Trapman</t>
   </si>
   <si>
     <t>Lukasz Tychoniec</t>
   </si>
   <si>
-    <t>I. Urdampilleta Aldama / guest</t>
-  </si>
-  <si>
     <t>Dieuwertje van der Vlugt</t>
   </si>
   <si>
@@ -721,12 +690,348 @@
   </si>
   <si>
     <t>Bas Zoutendijk</t>
+  </si>
+  <si>
+    <t>Dario Campisi</t>
+  </si>
+  <si>
+    <t>David Carton</t>
+  </si>
+  <si>
+    <t>Gabriela Calistro Rivera</t>
+  </si>
+  <si>
+    <t>Vincent Kofman</t>
+  </si>
+  <si>
+    <t>Zujia Lu</t>
+  </si>
+  <si>
+    <t>Junjie Mao</t>
+  </si>
+  <si>
+    <t>Sanjana Panchagnula</t>
+  </si>
+  <si>
+    <t>I. Urdampilleta Aldama</t>
+  </si>
+  <si>
+    <t>Santiago Torres Rodrigue</t>
+  </si>
+  <si>
+    <t>Yuhan Sun</t>
+  </si>
+  <si>
+    <t>PhD students</t>
+  </si>
+  <si>
+    <t>supporting staff</t>
+  </si>
+  <si>
+    <t>Project staff member</t>
+  </si>
+  <si>
+    <t>Scientific programmer</t>
+  </si>
+  <si>
+    <t>Administrative staff member</t>
+  </si>
+  <si>
+    <t>Secretary</t>
+  </si>
+  <si>
+    <t>Student affairs staff member</t>
+  </si>
+  <si>
+    <t>Communication staff member</t>
+  </si>
+  <si>
+    <t>Institute manager</t>
+  </si>
+  <si>
+    <t>Financial administrator</t>
+  </si>
+  <si>
+    <t>Education and research staff member</t>
+  </si>
+  <si>
+    <t>ICT supporter</t>
+  </si>
+  <si>
+    <t>ICT developer</t>
+  </si>
+  <si>
+    <t>Education coordinator</t>
+  </si>
+  <si>
+    <t>Management assistant</t>
+  </si>
+  <si>
+    <t>Project leader</t>
+  </si>
+  <si>
+    <t>Staff member knowledge valorization</t>
+  </si>
+  <si>
+    <t>NOVA coordinator</t>
+  </si>
+  <si>
+    <t>Project leader / study adviser</t>
+  </si>
+  <si>
+    <t>Student administration staff member</t>
+  </si>
+  <si>
+    <t>Lecturer / guest</t>
+  </si>
+  <si>
+    <t>ICT programmer</t>
+  </si>
+  <si>
+    <t>Ayala Zaidenberg</t>
+  </si>
+  <si>
+    <t>Marjan Balkestein</t>
+  </si>
+  <si>
+    <t>Stella Blok</t>
+  </si>
+  <si>
+    <t>Caroline de Bruin</t>
+  </si>
+  <si>
+    <t>Suzan Commandeur</t>
+  </si>
+  <si>
+    <t>Evelijn Gerstel</t>
+  </si>
+  <si>
+    <t>Kirsten Groen</t>
+  </si>
+  <si>
+    <t>Els Heijsman</t>
+  </si>
+  <si>
+    <t>David Jansen</t>
+  </si>
+  <si>
+    <t>Michael de Korte</t>
+  </si>
+  <si>
+    <t>E.J. van der Kraan</t>
+  </si>
+  <si>
+    <t>Monica Lamers</t>
+  </si>
+  <si>
+    <t>L. Lenoci</t>
+  </si>
+  <si>
+    <t>Hafize Olgun</t>
+  </si>
+  <si>
+    <t>Arianne Pen-Oosthoek</t>
+  </si>
+  <si>
+    <t>Jacqueline Quist</t>
+  </si>
+  <si>
+    <t>Liselotte Rambonnet</t>
+  </si>
+  <si>
+    <t>Jorge Rivero Gonzalez</t>
+  </si>
+  <si>
+    <t>Michiel Rodenhuis</t>
+  </si>
+  <si>
+    <t>Alexandra Schouten-Voskamp</t>
+  </si>
+  <si>
+    <t>Wouter Schrier</t>
+  </si>
+  <si>
+    <t>Anita van der Tang</t>
+  </si>
+  <si>
+    <t>Liesbeth van der Veld</t>
+  </si>
+  <si>
+    <t>Ingrid Versluijs</t>
+  </si>
+  <si>
+    <t>Aart Vos</t>
+  </si>
+  <si>
+    <t>gs_profile</t>
+  </si>
+  <si>
+    <t>Harrie H. Weinans</t>
+  </si>
+  <si>
+    <t>di4NUp8AAAAJ&amp;hl</t>
+  </si>
+  <si>
+    <t>Biomedical Sciences</t>
+  </si>
+  <si>
+    <t>Biomaterials &amp; Tissue Biomechanics</t>
+  </si>
+  <si>
+    <t>https://www.tudelft.nl/en/3me/departments/biomechanical-engineering</t>
+  </si>
+  <si>
+    <t>Dirk Jan Veeger</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>professors</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Amir Zadpoor</t>
+  </si>
+  <si>
+    <t>associate professors</t>
+  </si>
+  <si>
+    <t>Jie Zhou</t>
+  </si>
+  <si>
+    <t>assistant professors</t>
+  </si>
+  <si>
+    <t>Julian Apachitei</t>
+  </si>
+  <si>
+    <t>Lidy Fratila-Apachitei</t>
+  </si>
+  <si>
+    <t>parttime professors</t>
+  </si>
+  <si>
+    <t>teachers</t>
+  </si>
+  <si>
+    <t>Pleun Hermsen</t>
+  </si>
+  <si>
+    <t>Mohammad Mirzaali Mazandarani</t>
+  </si>
+  <si>
+    <t>researchers</t>
+  </si>
+  <si>
+    <t>Livia Angeloni</t>
+  </si>
+  <si>
+    <t>Nazli Tumer</t>
+  </si>
+  <si>
+    <t>PhD candidates</t>
+  </si>
+  <si>
+    <t>Francoise Bobbert</t>
+  </si>
+  <si>
+    <t>Sebastien Callens</t>
+  </si>
+  <si>
+    <t>Jiahui Dong</t>
+  </si>
+  <si>
+    <t>Mahya Ganjian</t>
+  </si>
+  <si>
+    <t>Eric Garner</t>
+  </si>
+  <si>
+    <t>Ingmar van Hengel</t>
+  </si>
+  <si>
+    <t>Pier de Jong</t>
+  </si>
+  <si>
+    <t>Eline Kolken</t>
+  </si>
+  <si>
+    <t>Yageng Li</t>
+  </si>
+  <si>
+    <t>Mahdiyeh Nouri</t>
+  </si>
+  <si>
+    <t>Deputy Director Clinical Technology</t>
+  </si>
+  <si>
+    <t>Helda Pahlavani</t>
+  </si>
+  <si>
+    <t>Niko Putra</t>
+  </si>
+  <si>
+    <t>Khashayer Modaresifar</t>
+  </si>
+  <si>
+    <t>Teunis van Manen</t>
+  </si>
+  <si>
+    <t>Mauricio Cruz Saldivar</t>
+  </si>
+  <si>
+    <t>Mirjam Bierhuizen</t>
+  </si>
+  <si>
+    <t>Manager department</t>
+  </si>
+  <si>
+    <t>Brenda Boekhoud-Deegeling</t>
+  </si>
+  <si>
+    <t>Secretariat</t>
+  </si>
+  <si>
+    <t>Sabrina Ramos Rodrigues</t>
+  </si>
+  <si>
+    <t>Sindy Rijnvis</t>
+  </si>
+  <si>
+    <t>Marjolijn Stegweg</t>
+  </si>
+  <si>
+    <t>Angelique Timmerman</t>
+  </si>
+  <si>
+    <t>Arjen Bergsman</t>
+  </si>
+  <si>
+    <t>Coordinator</t>
+  </si>
+  <si>
+    <t>Marielle Walraven</t>
+  </si>
+  <si>
+    <t>Support Biomechanical Engineering; Coordinator / O&amp;O</t>
+  </si>
+  <si>
+    <t>Reinier van Antwerpen</t>
+  </si>
+  <si>
+    <t>Technician O&amp;O</t>
+  </si>
+  <si>
+    <t>Still not finished</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -736,12 +1041,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -756,14 +1067,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{B44D37CB-1B51-46C2-AC12-092711C2C1CB}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1072,20 +1412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7A9297-2EDB-42DD-9C55-FAFE6D99F2C2}">
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:K226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1116,8 +1457,11 @@
       <c r="J1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1143,7 +1487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1166,7 +1510,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1192,7 +1536,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1218,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1241,7 +1585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1267,7 +1611,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1319,7 +1663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1345,7 +1689,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +1712,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
       <c r="E12" t="s">
         <v>86</v>
       </c>
@@ -1379,7 +1735,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
       <c r="E13" t="s">
         <v>87</v>
       </c>
@@ -1390,7 +1758,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
@@ -1401,7 +1781,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" t="s">
         <v>89</v>
       </c>
@@ -1412,7 +1804,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" t="s">
         <v>64</v>
       </c>
@@ -1423,7 +1827,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
       <c r="E17" t="s">
         <v>90</v>
       </c>
@@ -1434,7 +1850,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
       <c r="E18" t="s">
         <v>65</v>
       </c>
@@ -1448,7 +1876,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
       <c r="E19" t="s">
         <v>66</v>
       </c>
@@ -1459,7 +1899,19 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
       <c r="E20" t="s">
         <v>91</v>
       </c>
@@ -1470,7 +1922,19 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
       <c r="E21" t="s">
         <v>92</v>
       </c>
@@ -1481,7 +1945,19 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
       <c r="E22" t="s">
         <v>67</v>
       </c>
@@ -1492,7 +1968,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" t="s">
         <v>68</v>
       </c>
@@ -1503,7 +1991,19 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
       <c r="E24" t="s">
         <v>93</v>
       </c>
@@ -1514,7 +2014,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
       <c r="E25" t="s">
         <v>94</v>
       </c>
@@ -1525,7 +2037,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" t="s">
         <v>95</v>
       </c>
@@ -1536,7 +2060,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
       <c r="E27" t="s">
         <v>96</v>
       </c>
@@ -1547,7 +2083,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
       <c r="E28" t="s">
         <v>97</v>
       </c>
@@ -1558,7 +2106,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
       <c r="E29" t="s">
         <v>69</v>
       </c>
@@ -1569,7 +2129,19 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
       <c r="E30" t="s">
         <v>98</v>
       </c>
@@ -1580,7 +2152,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
       <c r="E31" t="s">
         <v>99</v>
       </c>
@@ -1591,7 +2175,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
       <c r="E32" t="s">
         <v>100</v>
       </c>
@@ -1602,7 +2198,19 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
       <c r="E33" t="s">
         <v>101</v>
       </c>
@@ -1613,7 +2221,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
       <c r="E34" t="s">
         <v>102</v>
       </c>
@@ -1624,7 +2244,19 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
       <c r="E35" t="s">
         <v>103</v>
       </c>
@@ -1635,7 +2267,19 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
       <c r="E36" t="s">
         <v>70</v>
       </c>
@@ -1649,7 +2293,19 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
       <c r="E37" t="s">
         <v>104</v>
       </c>
@@ -1663,7 +2319,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
       <c r="E38" t="s">
         <v>75</v>
       </c>
@@ -1674,7 +2342,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
       <c r="E39" t="s">
         <v>105</v>
       </c>
@@ -1685,7 +2365,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
       <c r="E40" t="s">
         <v>106</v>
       </c>
@@ -1696,7 +2388,19 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
       <c r="E41" t="s">
         <v>76</v>
       </c>
@@ -1707,7 +2411,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
       <c r="E42" t="s">
         <v>107</v>
       </c>
@@ -1718,7 +2434,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
       <c r="E43" t="s">
         <v>80</v>
       </c>
@@ -1732,7 +2460,19 @@
         <v>78</v>
       </c>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
       <c r="E44" t="s">
         <v>81</v>
       </c>
@@ -1743,7 +2483,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
       <c r="E45" t="s">
         <v>108</v>
       </c>
@@ -1754,7 +2506,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
       <c r="E46" t="s">
         <v>109</v>
       </c>
@@ -1765,7 +2529,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
       <c r="E47" t="s">
         <v>82</v>
       </c>
@@ -1776,7 +2552,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
       <c r="E48" t="s">
         <v>110</v>
       </c>
@@ -1787,7 +2575,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
       <c r="E49" t="s">
         <v>83</v>
       </c>
@@ -1798,7 +2598,19 @@
         <v>61</v>
       </c>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
       <c r="E50" t="s">
         <v>84</v>
       </c>
@@ -1809,7 +2621,19 @@
         <v>62</v>
       </c>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
       <c r="E51" t="s">
         <v>120</v>
       </c>
@@ -1820,7 +2644,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
       <c r="E52" t="s">
         <v>161</v>
       </c>
@@ -1834,7 +2670,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
       <c r="E53" t="s">
         <v>111</v>
       </c>
@@ -1845,7 +2693,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
       <c r="E54" t="s">
         <v>121</v>
       </c>
@@ -1856,7 +2716,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
       <c r="E55" t="s">
         <v>112</v>
       </c>
@@ -1867,7 +2739,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
       <c r="E56" t="s">
         <v>113</v>
       </c>
@@ -1875,7 +2759,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
       <c r="E57" t="s">
         <v>122</v>
       </c>
@@ -1886,7 +2782,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
       <c r="E58" t="s">
         <v>123</v>
       </c>
@@ -1897,7 +2805,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="59" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
       <c r="E59" t="s">
         <v>162</v>
       </c>
@@ -1911,7 +2831,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="60" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
       <c r="E60" t="s">
         <v>124</v>
       </c>
@@ -1922,7 +2854,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
       <c r="E61" t="s">
         <v>125</v>
       </c>
@@ -1933,7 +2877,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
       <c r="E62" t="s">
         <v>126</v>
       </c>
@@ -1944,7 +2900,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
       <c r="E63" t="s">
         <v>127</v>
       </c>
@@ -1955,7 +2923,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
       <c r="E64" t="s">
         <v>128</v>
       </c>
@@ -1966,7 +2946,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
       <c r="E65" t="s">
         <v>129</v>
       </c>
@@ -1977,7 +2969,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
       <c r="E66" t="s">
         <v>130</v>
       </c>
@@ -1988,7 +2992,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
       <c r="E67" t="s">
         <v>131</v>
       </c>
@@ -1999,7 +3015,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
       <c r="E68" t="s">
         <v>132</v>
       </c>
@@ -2010,7 +3038,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
       <c r="E69" t="s">
         <v>133</v>
       </c>
@@ -2021,7 +3061,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
       <c r="E70" t="s">
         <v>134</v>
       </c>
@@ -2032,7 +3084,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
       <c r="E71" t="s">
         <v>135</v>
       </c>
@@ -2043,7 +3107,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>6</v>
+      </c>
+      <c r="B72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
       <c r="E72" t="s">
         <v>136</v>
       </c>
@@ -2054,7 +3130,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
       <c r="E73" t="s">
         <v>137</v>
       </c>
@@ -2065,7 +3153,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
       <c r="E74" t="s">
         <v>138</v>
       </c>
@@ -2076,7 +3176,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" t="s">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
       <c r="E75" t="s">
         <v>139</v>
       </c>
@@ -2087,7 +3199,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>6</v>
+      </c>
+      <c r="B76" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" t="s">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
       <c r="E76" t="s">
         <v>140</v>
       </c>
@@ -2098,7 +3222,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
       <c r="E77" t="s">
         <v>141</v>
       </c>
@@ -2109,7 +3245,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
       <c r="E78" t="s">
         <v>142</v>
       </c>
@@ -2120,7 +3268,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
       <c r="E79" t="s">
         <v>143</v>
       </c>
@@ -2131,7 +3291,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
       <c r="E80" t="s">
         <v>163</v>
       </c>
@@ -2145,7 +3317,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
       <c r="E81" t="s">
         <v>144</v>
       </c>
@@ -2156,7 +3340,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
       <c r="E82" t="s">
         <v>145</v>
       </c>
@@ -2167,7 +3363,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
       <c r="E83" t="s">
         <v>146</v>
       </c>
@@ -2178,7 +3386,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
       <c r="E84" t="s">
         <v>164</v>
       </c>
@@ -2192,7 +3412,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
       <c r="E85" t="s">
         <v>147</v>
       </c>
@@ -2203,7 +3435,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
       <c r="E86" t="s">
         <v>148</v>
       </c>
@@ -2214,7 +3458,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
       <c r="E87" t="s">
         <v>149</v>
       </c>
@@ -2225,7 +3481,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
       <c r="E88" t="s">
         <v>150</v>
       </c>
@@ -2239,7 +3507,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>6</v>
+      </c>
+      <c r="B89" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
       <c r="E89" t="s">
         <v>151</v>
       </c>
@@ -2250,7 +3530,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>6</v>
+      </c>
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
       <c r="E90" t="s">
         <v>152</v>
       </c>
@@ -2261,7 +3553,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" t="s">
+        <v>35</v>
+      </c>
       <c r="E91" t="s">
         <v>153</v>
       </c>
@@ -2272,7 +3576,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" t="s">
+        <v>35</v>
+      </c>
       <c r="E92" t="s">
         <v>154</v>
       </c>
@@ -2283,7 +3599,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>35</v>
+      </c>
       <c r="E93" t="s">
         <v>155</v>
       </c>
@@ -2294,7 +3622,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" t="s">
+        <v>35</v>
+      </c>
       <c r="E94" t="s">
         <v>156</v>
       </c>
@@ -2305,7 +3645,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" t="s">
+        <v>35</v>
+      </c>
       <c r="E95" t="s">
         <v>118</v>
       </c>
@@ -2319,7 +3671,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
       <c r="E96" t="s">
         <v>157</v>
       </c>
@@ -2330,7 +3694,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
       <c r="E97" t="s">
         <v>158</v>
       </c>
@@ -2341,7 +3717,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
       <c r="E98" t="s">
         <v>159</v>
       </c>
@@ -2352,7 +3740,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" t="s">
+        <v>35</v>
+      </c>
       <c r="E99" t="s">
         <v>160</v>
       </c>
@@ -2363,7 +3763,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" t="s">
+        <v>34</v>
+      </c>
+      <c r="D100" t="s">
+        <v>35</v>
+      </c>
       <c r="E100" t="s">
         <v>165</v>
       </c>
@@ -2377,532 +3789,2449 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" t="s">
+        <v>35</v>
+      </c>
       <c r="E101" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" t="s">
+        <v>230</v>
+      </c>
+      <c r="H101" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>34</v>
+      </c>
+      <c r="D102" t="s">
+        <v>35</v>
+      </c>
+      <c r="E102" t="s">
+        <v>168</v>
+      </c>
+      <c r="G102" t="s">
+        <v>230</v>
+      </c>
+      <c r="H102" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103" t="s">
+        <v>35</v>
+      </c>
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+      <c r="G103" t="s">
+        <v>230</v>
+      </c>
+      <c r="H103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" t="s">
         <v>170</v>
       </c>
-      <c r="H101" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E102" t="s">
+      <c r="G104" t="s">
+        <v>230</v>
+      </c>
+      <c r="H104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>34</v>
+      </c>
+      <c r="D105" t="s">
+        <v>35</v>
+      </c>
+      <c r="E105" t="s">
         <v>171</v>
       </c>
-      <c r="H102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E103" t="s">
+      <c r="G105" t="s">
+        <v>230</v>
+      </c>
+      <c r="H105" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>34</v>
+      </c>
+      <c r="D106" t="s">
+        <v>35</v>
+      </c>
+      <c r="E106" t="s">
         <v>172</v>
       </c>
-      <c r="H103" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="104" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E104" t="s">
+      <c r="G106" t="s">
+        <v>230</v>
+      </c>
+      <c r="H106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>34</v>
+      </c>
+      <c r="D107" t="s">
+        <v>35</v>
+      </c>
+      <c r="E107" t="s">
         <v>173</v>
       </c>
-      <c r="H104" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="105" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E105" t="s">
+      <c r="G107" t="s">
+        <v>230</v>
+      </c>
+      <c r="H107" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>35</v>
+      </c>
+      <c r="E108" t="s">
         <v>174</v>
       </c>
-      <c r="H105" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="106" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E106" t="s">
+      <c r="G108" t="s">
+        <v>230</v>
+      </c>
+      <c r="H108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" t="s">
+        <v>34</v>
+      </c>
+      <c r="D109" t="s">
+        <v>35</v>
+      </c>
+      <c r="E109" t="s">
         <v>175</v>
-      </c>
-      <c r="H106" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E107" t="s">
-        <v>176</v>
-      </c>
-      <c r="H107" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="108" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E108" t="s">
-        <v>177</v>
-      </c>
-      <c r="H108" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E109" t="s">
-        <v>178</v>
       </c>
       <c r="F109" t="s">
         <v>117</v>
       </c>
+      <c r="G109" t="s">
+        <v>230</v>
+      </c>
       <c r="H109" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" t="s">
+        <v>34</v>
+      </c>
+      <c r="D110" t="s">
+        <v>35</v>
+      </c>
       <c r="E110" t="s">
-        <v>179</v>
+        <v>176</v>
+      </c>
+      <c r="G110" t="s">
+        <v>230</v>
       </c>
       <c r="H110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="111" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" t="s">
+        <v>34</v>
+      </c>
+      <c r="D111" t="s">
+        <v>35</v>
+      </c>
       <c r="E111" t="s">
-        <v>180</v>
+        <v>177</v>
+      </c>
+      <c r="G111" t="s">
+        <v>230</v>
       </c>
       <c r="H111" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="112" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" t="s">
+        <v>34</v>
+      </c>
+      <c r="D112" t="s">
+        <v>35</v>
+      </c>
       <c r="E112" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="G112" t="s">
+        <v>230</v>
       </c>
       <c r="H112" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="113" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" t="s">
+        <v>34</v>
+      </c>
+      <c r="D113" t="s">
+        <v>35</v>
+      </c>
       <c r="E113" t="s">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
         <v>74</v>
       </c>
+      <c r="G113" t="s">
+        <v>230</v>
+      </c>
       <c r="H113" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114" t="s">
+        <v>35</v>
+      </c>
       <c r="E114" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="F114" t="s">
         <v>117</v>
       </c>
+      <c r="G114" t="s">
+        <v>230</v>
+      </c>
       <c r="H114" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="115" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" t="s">
+        <v>34</v>
+      </c>
+      <c r="D115" t="s">
+        <v>35</v>
+      </c>
       <c r="E115" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
         <v>74</v>
       </c>
+      <c r="G115" t="s">
+        <v>230</v>
+      </c>
       <c r="H115" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="116" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" t="s">
+        <v>34</v>
+      </c>
+      <c r="D116" t="s">
+        <v>35</v>
+      </c>
       <c r="E116" t="s">
+        <v>179</v>
+      </c>
+      <c r="G116" t="s">
+        <v>230</v>
+      </c>
+      <c r="H116" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" t="s">
+        <v>34</v>
+      </c>
+      <c r="D117" t="s">
+        <v>35</v>
+      </c>
+      <c r="E117" t="s">
+        <v>180</v>
+      </c>
+      <c r="G117" t="s">
+        <v>230</v>
+      </c>
+      <c r="H117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" t="s">
+        <v>181</v>
+      </c>
+      <c r="G118" t="s">
+        <v>230</v>
+      </c>
+      <c r="H118" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" t="s">
+        <v>34</v>
+      </c>
+      <c r="D119" t="s">
+        <v>35</v>
+      </c>
+      <c r="E119" t="s">
+        <v>182</v>
+      </c>
+      <c r="G119" t="s">
+        <v>230</v>
+      </c>
+      <c r="H119" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" t="s">
+        <v>34</v>
+      </c>
+      <c r="D120" t="s">
+        <v>35</v>
+      </c>
+      <c r="E120" t="s">
+        <v>183</v>
+      </c>
+      <c r="G120" t="s">
+        <v>230</v>
+      </c>
+      <c r="H120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" t="s">
+        <v>34</v>
+      </c>
+      <c r="D121" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" t="s">
         <v>184</v>
       </c>
-      <c r="H116" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E117" t="s">
+      <c r="G121" t="s">
+        <v>230</v>
+      </c>
+      <c r="H121" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" t="s">
+        <v>34</v>
+      </c>
+      <c r="D122" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" t="s">
         <v>185</v>
       </c>
-      <c r="H117" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="118" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E118" t="s">
+      <c r="G122" t="s">
+        <v>230</v>
+      </c>
+      <c r="H122" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" t="s">
+        <v>34</v>
+      </c>
+      <c r="D123" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" t="s">
         <v>186</v>
       </c>
-      <c r="H118" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="119" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E119" t="s">
+      <c r="G123" t="s">
+        <v>230</v>
+      </c>
+      <c r="H123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" t="s">
+        <v>34</v>
+      </c>
+      <c r="D124" t="s">
+        <v>35</v>
+      </c>
+      <c r="E124" t="s">
         <v>187</v>
       </c>
-      <c r="H119" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="120" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E120" t="s">
+      <c r="G124" t="s">
+        <v>230</v>
+      </c>
+      <c r="H124" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" t="s">
+        <v>34</v>
+      </c>
+      <c r="D125" t="s">
+        <v>35</v>
+      </c>
+      <c r="E125" t="s">
         <v>188</v>
       </c>
-      <c r="H120" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="121" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E121" t="s">
+      <c r="G125" t="s">
+        <v>230</v>
+      </c>
+      <c r="H125" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" t="s">
         <v>189</v>
       </c>
-      <c r="H121" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="122" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E122" t="s">
+      <c r="G126" t="s">
+        <v>230</v>
+      </c>
+      <c r="H126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" t="s">
+        <v>34</v>
+      </c>
+      <c r="D127" t="s">
+        <v>35</v>
+      </c>
+      <c r="E127" t="s">
         <v>190</v>
       </c>
-      <c r="H122" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E123" t="s">
-        <v>191</v>
-      </c>
-      <c r="H123" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="124" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E124" t="s">
-        <v>192</v>
-      </c>
-      <c r="H124" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="125" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E125" t="s">
-        <v>193</v>
-      </c>
-      <c r="H125" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="126" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E126" t="s">
-        <v>194</v>
-      </c>
-      <c r="H126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E127" t="s">
-        <v>195</v>
+      <c r="G127" t="s">
+        <v>230</v>
       </c>
       <c r="H127" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="128" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" t="s">
+        <v>34</v>
+      </c>
+      <c r="D128" t="s">
+        <v>35</v>
+      </c>
       <c r="E128" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="F128" t="s">
         <v>74</v>
       </c>
+      <c r="G128" t="s">
+        <v>230</v>
+      </c>
       <c r="H128" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="129" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>34</v>
+      </c>
+      <c r="D129" t="s">
+        <v>35</v>
+      </c>
       <c r="E129" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="G129" t="s">
+        <v>230</v>
       </c>
       <c r="H129" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>34</v>
+      </c>
+      <c r="D130" t="s">
+        <v>35</v>
+      </c>
       <c r="E130" t="s">
-        <v>197</v>
+        <v>192</v>
+      </c>
+      <c r="G130" t="s">
+        <v>230</v>
       </c>
       <c r="H130" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="131" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" t="s">
+        <v>34</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
       <c r="E131" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="G131" t="s">
+        <v>230</v>
       </c>
       <c r="H131" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="132" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" t="s">
+        <v>34</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
       <c r="E132" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="F132" t="s">
         <v>74</v>
       </c>
+      <c r="G132" t="s">
+        <v>230</v>
+      </c>
       <c r="H132" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="133" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" t="s">
+        <v>34</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
       <c r="E133" t="s">
+        <v>194</v>
+      </c>
+      <c r="G133" t="s">
+        <v>230</v>
+      </c>
+      <c r="H133" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" t="s">
+        <v>34</v>
+      </c>
+      <c r="D134" t="s">
+        <v>35</v>
+      </c>
+      <c r="E134" t="s">
+        <v>225</v>
+      </c>
+      <c r="F134" t="s">
+        <v>74</v>
+      </c>
+      <c r="G134" t="s">
+        <v>230</v>
+      </c>
+      <c r="H134" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" t="s">
+        <v>34</v>
+      </c>
+      <c r="D135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E135" t="s">
+        <v>195</v>
+      </c>
+      <c r="G135" t="s">
+        <v>230</v>
+      </c>
+      <c r="H135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" t="s">
+        <v>34</v>
+      </c>
+      <c r="D136" t="s">
+        <v>35</v>
+      </c>
+      <c r="E136" t="s">
+        <v>196</v>
+      </c>
+      <c r="G136" t="s">
+        <v>230</v>
+      </c>
+      <c r="H136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" t="s">
+        <v>34</v>
+      </c>
+      <c r="D137" t="s">
+        <v>35</v>
+      </c>
+      <c r="E137" t="s">
+        <v>197</v>
+      </c>
+      <c r="G137" t="s">
+        <v>230</v>
+      </c>
+      <c r="H137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" t="s">
+        <v>34</v>
+      </c>
+      <c r="D138" t="s">
+        <v>35</v>
+      </c>
+      <c r="E138" t="s">
+        <v>198</v>
+      </c>
+      <c r="G138" t="s">
+        <v>230</v>
+      </c>
+      <c r="H138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" t="s">
+        <v>34</v>
+      </c>
+      <c r="D139" t="s">
+        <v>35</v>
+      </c>
+      <c r="E139" t="s">
         <v>199</v>
       </c>
-      <c r="H133" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="134" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E134" t="s">
+      <c r="G139" t="s">
+        <v>230</v>
+      </c>
+      <c r="H139" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" t="s">
+        <v>34</v>
+      </c>
+      <c r="D140" t="s">
+        <v>35</v>
+      </c>
+      <c r="E140" t="s">
         <v>200</v>
       </c>
-      <c r="H134" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="135" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E135" t="s">
-        <v>201</v>
-      </c>
-      <c r="H135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E136" t="s">
-        <v>202</v>
-      </c>
-      <c r="H136" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="137" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E137" t="s">
-        <v>203</v>
-      </c>
-      <c r="H137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E138" t="s">
-        <v>204</v>
-      </c>
-      <c r="H138" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E139" t="s">
-        <v>205</v>
-      </c>
-      <c r="H139" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="140" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E140" t="s">
-        <v>206</v>
+      <c r="G140" t="s">
+        <v>230</v>
       </c>
       <c r="H140" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+      <c r="D141" t="s">
+        <v>35</v>
+      </c>
       <c r="E141" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F141" t="s">
         <v>117</v>
       </c>
+      <c r="G141" t="s">
+        <v>230</v>
+      </c>
       <c r="H141" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" t="s">
+        <v>34</v>
+      </c>
+      <c r="D142" t="s">
+        <v>35</v>
+      </c>
       <c r="E142" t="s">
+        <v>201</v>
+      </c>
+      <c r="G142" t="s">
+        <v>230</v>
+      </c>
+      <c r="H142" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" t="s">
+        <v>34</v>
+      </c>
+      <c r="D143" t="s">
+        <v>35</v>
+      </c>
+      <c r="E143" t="s">
+        <v>202</v>
+      </c>
+      <c r="G143" t="s">
+        <v>230</v>
+      </c>
+      <c r="H143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" t="s">
+        <v>34</v>
+      </c>
+      <c r="D144" t="s">
+        <v>35</v>
+      </c>
+      <c r="E144" t="s">
+        <v>203</v>
+      </c>
+      <c r="G144" t="s">
+        <v>230</v>
+      </c>
+      <c r="H144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" t="s">
+        <v>34</v>
+      </c>
+      <c r="D145" t="s">
+        <v>35</v>
+      </c>
+      <c r="E145" t="s">
+        <v>204</v>
+      </c>
+      <c r="G145" t="s">
+        <v>230</v>
+      </c>
+      <c r="H145" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" t="s">
+        <v>34</v>
+      </c>
+      <c r="D146" t="s">
+        <v>35</v>
+      </c>
+      <c r="E146" t="s">
+        <v>205</v>
+      </c>
+      <c r="G146" t="s">
+        <v>230</v>
+      </c>
+      <c r="H146" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" t="s">
+        <v>34</v>
+      </c>
+      <c r="D147" t="s">
+        <v>35</v>
+      </c>
+      <c r="E147" t="s">
+        <v>206</v>
+      </c>
+      <c r="G147" t="s">
+        <v>230</v>
+      </c>
+      <c r="H147" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" t="s">
+        <v>34</v>
+      </c>
+      <c r="D148" t="s">
+        <v>35</v>
+      </c>
+      <c r="E148" t="s">
+        <v>207</v>
+      </c>
+      <c r="G148" t="s">
+        <v>230</v>
+      </c>
+      <c r="H148" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" t="s">
         <v>208</v>
       </c>
-      <c r="H142" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="143" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E143" t="s">
+      <c r="G149" t="s">
+        <v>230</v>
+      </c>
+      <c r="H149" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" t="s">
+        <v>34</v>
+      </c>
+      <c r="D150" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" t="s">
         <v>209</v>
       </c>
-      <c r="H143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E144" t="s">
-        <v>210</v>
-      </c>
-      <c r="H144" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="145" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E145" t="s">
-        <v>211</v>
-      </c>
-      <c r="H145" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="146" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E146" t="s">
-        <v>212</v>
-      </c>
-      <c r="H146" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E147" t="s">
-        <v>213</v>
-      </c>
-      <c r="H147" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="148" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E148" t="s">
-        <v>214</v>
-      </c>
-      <c r="H148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E149" t="s">
-        <v>215</v>
-      </c>
-      <c r="H149" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="150" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E150" t="s">
-        <v>216</v>
+      <c r="G150" t="s">
+        <v>230</v>
       </c>
       <c r="H150" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="151" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>34</v>
+      </c>
+      <c r="D151" t="s">
+        <v>35</v>
+      </c>
       <c r="E151" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="F151" t="s">
         <v>74</v>
       </c>
+      <c r="G151" t="s">
+        <v>230</v>
+      </c>
       <c r="H151" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="152" spans="5:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" t="s">
+        <v>34</v>
+      </c>
+      <c r="D152" t="s">
+        <v>35</v>
+      </c>
       <c r="E152" t="s">
+        <v>210</v>
+      </c>
+      <c r="G152" t="s">
+        <v>230</v>
+      </c>
+      <c r="H152" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" t="s">
+        <v>34</v>
+      </c>
+      <c r="D153" t="s">
+        <v>35</v>
+      </c>
+      <c r="E153" t="s">
+        <v>211</v>
+      </c>
+      <c r="G153" t="s">
+        <v>230</v>
+      </c>
+      <c r="H153" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" t="s">
+        <v>34</v>
+      </c>
+      <c r="D154" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" t="s">
+        <v>228</v>
+      </c>
+      <c r="F154" t="s">
+        <v>74</v>
+      </c>
+      <c r="G154" t="s">
+        <v>230</v>
+      </c>
+      <c r="H154" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" t="s">
+        <v>34</v>
+      </c>
+      <c r="D155" t="s">
+        <v>35</v>
+      </c>
+      <c r="E155" t="s">
+        <v>212</v>
+      </c>
+      <c r="G155" t="s">
+        <v>230</v>
+      </c>
+      <c r="H155" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" t="s">
+        <v>34</v>
+      </c>
+      <c r="D156" t="s">
+        <v>35</v>
+      </c>
+      <c r="E156" t="s">
+        <v>213</v>
+      </c>
+      <c r="G156" t="s">
+        <v>230</v>
+      </c>
+      <c r="H156" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" t="s">
+        <v>34</v>
+      </c>
+      <c r="D157" t="s">
+        <v>35</v>
+      </c>
+      <c r="E157" t="s">
+        <v>227</v>
+      </c>
+      <c r="F157" t="s">
+        <v>74</v>
+      </c>
+      <c r="G157" t="s">
+        <v>230</v>
+      </c>
+      <c r="H157" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" t="s">
+        <v>34</v>
+      </c>
+      <c r="D158" t="s">
+        <v>35</v>
+      </c>
+      <c r="E158" t="s">
+        <v>214</v>
+      </c>
+      <c r="G158" t="s">
+        <v>230</v>
+      </c>
+      <c r="H158" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" t="s">
+        <v>34</v>
+      </c>
+      <c r="D159" t="s">
+        <v>35</v>
+      </c>
+      <c r="E159" t="s">
+        <v>215</v>
+      </c>
+      <c r="G159" t="s">
+        <v>230</v>
+      </c>
+      <c r="H159" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
+      </c>
+      <c r="D160" t="s">
+        <v>35</v>
+      </c>
+      <c r="E160" t="s">
+        <v>216</v>
+      </c>
+      <c r="G160" t="s">
+        <v>230</v>
+      </c>
+      <c r="H160" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" t="s">
+        <v>34</v>
+      </c>
+      <c r="D161" t="s">
+        <v>35</v>
+      </c>
+      <c r="E161" t="s">
+        <v>217</v>
+      </c>
+      <c r="G161" t="s">
+        <v>230</v>
+      </c>
+      <c r="H161" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" t="s">
+        <v>34</v>
+      </c>
+      <c r="D162" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" t="s">
         <v>218</v>
       </c>
-      <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E153" t="s">
+      <c r="G162" t="s">
+        <v>230</v>
+      </c>
+      <c r="H162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" t="s">
+        <v>34</v>
+      </c>
+      <c r="D163" t="s">
+        <v>35</v>
+      </c>
+      <c r="E163" t="s">
         <v>219</v>
       </c>
-      <c r="H153" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="154" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E154" t="s">
-        <v>220</v>
-      </c>
-      <c r="H154" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="155" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E155" t="s">
-        <v>221</v>
-      </c>
-      <c r="H155" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="156" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E156" t="s">
-        <v>222</v>
-      </c>
-      <c r="H156" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="157" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E157" t="s">
-        <v>223</v>
-      </c>
-      <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E158" t="s">
-        <v>224</v>
-      </c>
-      <c r="H158" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E159" t="s">
-        <v>225</v>
-      </c>
-      <c r="H159" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="160" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E160" t="s">
-        <v>226</v>
-      </c>
-      <c r="H160" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="161" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E161" t="s">
-        <v>227</v>
-      </c>
-      <c r="H161" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="162" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E162" t="s">
-        <v>228</v>
-      </c>
-      <c r="H162" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="163" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E163" t="s">
-        <v>229</v>
+      <c r="G163" t="s">
+        <v>230</v>
       </c>
       <c r="H163" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" t="s">
+        <v>34</v>
+      </c>
+      <c r="D164" t="s">
+        <v>35</v>
+      </c>
+      <c r="E164" t="s">
+        <v>253</v>
+      </c>
+      <c r="F164" t="s">
+        <v>235</v>
+      </c>
+      <c r="G164" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" t="s">
+        <v>34</v>
+      </c>
+      <c r="D165" t="s">
+        <v>35</v>
+      </c>
+      <c r="E165" t="s">
+        <v>254</v>
+      </c>
+      <c r="F165" t="s">
+        <v>236</v>
+      </c>
+      <c r="G165" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" t="s">
+        <v>34</v>
+      </c>
+      <c r="D166" t="s">
+        <v>35</v>
+      </c>
+      <c r="E166" t="s">
+        <v>255</v>
+      </c>
+      <c r="F166" t="s">
+        <v>235</v>
+      </c>
+      <c r="G166" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" t="s">
+        <v>34</v>
+      </c>
+      <c r="D167" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" t="s">
+        <v>256</v>
+      </c>
+      <c r="F167" t="s">
+        <v>237</v>
+      </c>
+      <c r="G167" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" t="s">
+        <v>34</v>
+      </c>
+      <c r="D168" t="s">
+        <v>35</v>
+      </c>
+      <c r="E168" t="s">
+        <v>90</v>
+      </c>
+      <c r="F168" t="s">
+        <v>40</v>
+      </c>
+      <c r="G168" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" t="s">
+        <v>34</v>
+      </c>
+      <c r="D169" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" t="s">
+        <v>257</v>
+      </c>
+      <c r="F169" t="s">
+        <v>238</v>
+      </c>
+      <c r="G169" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" t="s">
+        <v>34</v>
+      </c>
+      <c r="D170" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" t="s">
+        <v>258</v>
+      </c>
+      <c r="F170" t="s">
+        <v>239</v>
+      </c>
+      <c r="G170" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" t="s">
+        <v>259</v>
+      </c>
+      <c r="F171" t="s">
+        <v>232</v>
+      </c>
+      <c r="G171" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" t="s">
+        <v>34</v>
+      </c>
+      <c r="D172" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" t="s">
+        <v>260</v>
+      </c>
+      <c r="F172" t="s">
+        <v>233</v>
+      </c>
+      <c r="G172" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" t="s">
+        <v>261</v>
+      </c>
+      <c r="F173" t="s">
+        <v>240</v>
+      </c>
+      <c r="G173" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" t="s">
+        <v>34</v>
+      </c>
+      <c r="D174" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" t="s">
+        <v>262</v>
+      </c>
+      <c r="F174" t="s">
+        <v>241</v>
+      </c>
+      <c r="G174" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>6</v>
+      </c>
+      <c r="B175" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" t="s">
+        <v>35</v>
+      </c>
+      <c r="E175" t="s">
+        <v>263</v>
+      </c>
+      <c r="F175" t="s">
+        <v>235</v>
+      </c>
+      <c r="G175" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" t="s">
+        <v>34</v>
+      </c>
+      <c r="D176" t="s">
+        <v>35</v>
+      </c>
+      <c r="E176" t="s">
+        <v>264</v>
+      </c>
+      <c r="F176" t="s">
+        <v>242</v>
+      </c>
+      <c r="G176" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" t="s">
+        <v>34</v>
+      </c>
+      <c r="D177" t="s">
+        <v>35</v>
+      </c>
+      <c r="E177" t="s">
+        <v>265</v>
+      </c>
+      <c r="F177" t="s">
+        <v>234</v>
+      </c>
+      <c r="G177" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" t="s">
+        <v>34</v>
+      </c>
+      <c r="D178" t="s">
+        <v>35</v>
+      </c>
+      <c r="E178" t="s">
+        <v>266</v>
+      </c>
+      <c r="F178" t="s">
+        <v>243</v>
+      </c>
+      <c r="G178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" t="s">
+        <v>34</v>
+      </c>
+      <c r="D179" t="s">
+        <v>35</v>
+      </c>
+      <c r="E179" t="s">
+        <v>267</v>
+      </c>
+      <c r="F179" t="s">
+        <v>244</v>
+      </c>
+      <c r="G179" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" t="s">
+        <v>34</v>
+      </c>
+      <c r="D180" t="s">
+        <v>35</v>
+      </c>
+      <c r="E180" t="s">
+        <v>268</v>
+      </c>
+      <c r="F180" t="s">
+        <v>245</v>
+      </c>
+      <c r="G180" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" t="s">
+        <v>34</v>
+      </c>
+      <c r="D181" t="s">
+        <v>35</v>
+      </c>
+      <c r="E181" t="s">
+        <v>269</v>
+      </c>
+      <c r="F181" t="s">
+        <v>246</v>
+      </c>
+      <c r="G181" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" t="s">
+        <v>34</v>
+      </c>
+      <c r="D182" t="s">
+        <v>35</v>
+      </c>
+      <c r="E182" t="s">
+        <v>270</v>
+      </c>
+      <c r="F182" t="s">
+        <v>247</v>
+      </c>
+      <c r="G182" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" t="s">
+        <v>34</v>
+      </c>
+      <c r="D183" t="s">
+        <v>35</v>
+      </c>
+      <c r="E183" t="s">
+        <v>271</v>
+      </c>
+      <c r="F183" t="s">
+        <v>244</v>
+      </c>
+      <c r="G183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" t="s">
+        <v>272</v>
+      </c>
+      <c r="F184" t="s">
+        <v>248</v>
+      </c>
+      <c r="G184" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" t="s">
+        <v>34</v>
+      </c>
+      <c r="D185" t="s">
+        <v>35</v>
+      </c>
+      <c r="E185" t="s">
+        <v>273</v>
+      </c>
+      <c r="F185" t="s">
+        <v>249</v>
+      </c>
+      <c r="G185" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" t="s">
+        <v>34</v>
+      </c>
+      <c r="D186" t="s">
+        <v>35</v>
+      </c>
+      <c r="E186" t="s">
+        <v>274</v>
+      </c>
+      <c r="F186" t="s">
+        <v>235</v>
+      </c>
+      <c r="G186" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" t="s">
+        <v>34</v>
+      </c>
+      <c r="D187" t="s">
+        <v>35</v>
+      </c>
+      <c r="E187" t="s">
+        <v>275</v>
+      </c>
+      <c r="F187" t="s">
+        <v>250</v>
+      </c>
+      <c r="G187" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" t="s">
+        <v>34</v>
+      </c>
+      <c r="D188" t="s">
+        <v>35</v>
+      </c>
+      <c r="E188" t="s">
+        <v>276</v>
+      </c>
+      <c r="F188" t="s">
+        <v>251</v>
+      </c>
+      <c r="G188" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" t="s">
+        <v>34</v>
+      </c>
+      <c r="D189" t="s">
+        <v>35</v>
+      </c>
+      <c r="E189" t="s">
+        <v>252</v>
+      </c>
+      <c r="F189" t="s">
+        <v>235</v>
+      </c>
+      <c r="G189" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>280</v>
+      </c>
+      <c r="B190" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" t="s">
+        <v>281</v>
+      </c>
+      <c r="D190" t="s">
+        <v>282</v>
+      </c>
+      <c r="E190" t="s">
+        <v>278</v>
+      </c>
+      <c r="G190" t="s">
+        <v>293</v>
+      </c>
+      <c r="H190" t="s">
+        <v>286</v>
+      </c>
+      <c r="I190" t="s">
+        <v>31</v>
+      </c>
+      <c r="K190" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>283</v>
+      </c>
+      <c r="F191" t="s">
+        <v>284</v>
+      </c>
+      <c r="G191" t="s">
+        <v>285</v>
+      </c>
+      <c r="H191" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E192" t="s">
+        <v>287</v>
+      </c>
+      <c r="G192" t="s">
+        <v>285</v>
+      </c>
+      <c r="H192" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E193" t="s">
+        <v>289</v>
+      </c>
+      <c r="G193" t="s">
+        <v>288</v>
+      </c>
+      <c r="H193" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="194" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E194" t="s">
+        <v>291</v>
+      </c>
+      <c r="G194" t="s">
+        <v>290</v>
+      </c>
+      <c r="H194" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E195" t="s">
+        <v>292</v>
+      </c>
+      <c r="G195" t="s">
+        <v>290</v>
+      </c>
+      <c r="H195" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="196" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>295</v>
+      </c>
+      <c r="F196" t="s">
+        <v>311</v>
+      </c>
+      <c r="G196" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="197" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>296</v>
+      </c>
+      <c r="G197" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="198" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>298</v>
+      </c>
+      <c r="G198" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>299</v>
+      </c>
+      <c r="G199" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="200" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E200" t="s">
+        <v>301</v>
+      </c>
+      <c r="G200" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="201" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
+        <v>302</v>
+      </c>
+      <c r="G201" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="202" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E202" t="s">
+        <v>303</v>
+      </c>
+      <c r="G202" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E203" t="s">
+        <v>304</v>
+      </c>
+      <c r="G203" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="204" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>305</v>
+      </c>
+      <c r="G204" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="205" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>306</v>
+      </c>
+      <c r="G205" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="206" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E206" t="s">
+        <v>307</v>
+      </c>
+      <c r="G206" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="207" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>308</v>
+      </c>
+      <c r="G207" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="208" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>309</v>
+      </c>
+      <c r="G208" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E209" t="s">
+        <v>310</v>
+      </c>
+      <c r="G209" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>312</v>
+      </c>
+      <c r="G210" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E211" t="s">
+        <v>313</v>
+      </c>
+      <c r="G211" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>314</v>
+      </c>
+      <c r="G212" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E213" t="s">
+        <v>315</v>
+      </c>
+      <c r="G213" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>316</v>
+      </c>
+      <c r="G214" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>315</v>
+      </c>
+      <c r="G215" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>316</v>
+      </c>
+      <c r="G216" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>317</v>
+      </c>
+      <c r="F217" t="s">
+        <v>318</v>
+      </c>
+      <c r="G217" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>319</v>
+      </c>
+      <c r="F218" t="s">
+        <v>320</v>
+      </c>
+      <c r="G218" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>321</v>
+      </c>
+      <c r="F219" t="s">
+        <v>320</v>
+      </c>
+      <c r="G219" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>322</v>
+      </c>
+      <c r="F220" t="s">
+        <v>320</v>
+      </c>
+      <c r="G220" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E221" t="s">
+        <v>323</v>
+      </c>
+      <c r="F221" t="s">
+        <v>320</v>
+      </c>
+      <c r="G221" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E222" t="s">
+        <v>324</v>
+      </c>
+      <c r="F222" t="s">
+        <v>320</v>
+      </c>
+      <c r="G222" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>325</v>
+      </c>
+      <c r="F223" t="s">
+        <v>326</v>
+      </c>
+      <c r="G223" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="224" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E224" t="s">
+        <v>327</v>
+      </c>
+      <c r="F224" t="s">
+        <v>328</v>
+      </c>
+      <c r="G224" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="225" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>329</v>
+      </c>
+      <c r="F225" t="s">
+        <v>330</v>
+      </c>
+      <c r="G225" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="226" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E226" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G226" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB61005-8722-4FE9-A519-2471F8812092}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331F01C4-54FA-4ED4-9E6A-DE8753068606}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="22575" windowHeight="12270" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="480">
   <si>
     <t>institution</t>
   </si>
@@ -983,49 +983,493 @@
     <t>Mauricio Cruz Saldivar</t>
   </si>
   <si>
-    <t>Mirjam Bierhuizen</t>
-  </si>
-  <si>
-    <t>Manager department</t>
-  </si>
-  <si>
-    <t>Brenda Boekhoud-Deegeling</t>
-  </si>
-  <si>
     <t>Secretariat</t>
   </si>
   <si>
-    <t>Sabrina Ramos Rodrigues</t>
-  </si>
-  <si>
-    <t>Sindy Rijnvis</t>
-  </si>
-  <si>
-    <t>Marjolijn Stegweg</t>
-  </si>
-  <si>
-    <t>Angelique Timmerman</t>
-  </si>
-  <si>
-    <t>Arjen Bergsman</t>
-  </si>
-  <si>
-    <t>Coordinator</t>
-  </si>
-  <si>
-    <t>Marielle Walraven</t>
-  </si>
-  <si>
-    <t>Support Biomechanical Engineering; Coordinator / O&amp;O</t>
-  </si>
-  <si>
-    <t>Reinier van Antwerpen</t>
-  </si>
-  <si>
-    <t>Technician O&amp;O</t>
-  </si>
-  <si>
-    <t>Still not finished</t>
+    <t>O&amp;O Technician</t>
+  </si>
+  <si>
+    <t>Sander Leeflang</t>
+  </si>
+  <si>
+    <t>Michelle Minneboo</t>
+  </si>
+  <si>
+    <t>https://www.lumc.nl/org/bds/research/samenwerking-advies/MedStat/</t>
+  </si>
+  <si>
+    <t>Medical Statistics</t>
+  </si>
+  <si>
+    <t>LUMC</t>
+  </si>
+  <si>
+    <t>Stefan Böhringer</t>
+  </si>
+  <si>
+    <t>Saskia le Cessie</t>
+  </si>
+  <si>
+    <t>Marta Fiocco</t>
+  </si>
+  <si>
+    <t>Nan van Geloven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JJ Jelle Goeman </t>
+  </si>
+  <si>
+    <t>Szymon Kielbasa</t>
+  </si>
+  <si>
+    <t>David van Klaveren  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bart Mertens </t>
+  </si>
+  <si>
+    <t>Karin van der Pal-de Bruin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hein Putter </t>
+  </si>
+  <si>
+    <t>Mar Rodriguez Girondo</t>
+  </si>
+  <si>
+    <t>Ewout Steyerberg</t>
+  </si>
+  <si>
+    <t>Roula Tsonaka</t>
+  </si>
+  <si>
+    <t>Jacco Wallinga</t>
+  </si>
+  <si>
+    <t>Liesbeth de Wreede</t>
+  </si>
+  <si>
+    <t>Erik van Zwet</t>
+  </si>
+  <si>
+    <t>Management team</t>
+  </si>
+  <si>
+    <t>Caspar Chorus</t>
+  </si>
+  <si>
+    <t>Head of Department</t>
+  </si>
+  <si>
+    <t>Jafar Razaei</t>
+  </si>
+  <si>
+    <t>Head of TLO group</t>
+  </si>
+  <si>
+    <t>Marijn Janssen</t>
+  </si>
+  <si>
+    <t>Head of ICT group</t>
+  </si>
+  <si>
+    <t>Zofia Lukszo</t>
+  </si>
+  <si>
+    <t>Head of E&amp;I Group</t>
+  </si>
+  <si>
+    <t>Jolien Ubacht</t>
+  </si>
+  <si>
+    <t>Department Manager</t>
+  </si>
+  <si>
+    <t>Full professors</t>
+  </si>
+  <si>
+    <t>Kornelis Blok</t>
+  </si>
+  <si>
+    <t>Andrea Ramirez-Ramirez</t>
+  </si>
+  <si>
+    <t>Yao-Hua Tan</t>
+  </si>
+  <si>
+    <t>Lori Tavasszy</t>
+  </si>
+  <si>
+    <t>Bert van Wee</t>
+  </si>
+  <si>
+    <t>Margot Weijnen</t>
+  </si>
+  <si>
+    <t>Associate professors</t>
+  </si>
+  <si>
+    <t>Harry Bouwman</t>
+  </si>
+  <si>
+    <t>Tina Comes</t>
+  </si>
+  <si>
+    <t>Virginia Dignum</t>
+  </si>
+  <si>
+    <t>Rudi Hakvoort</t>
+  </si>
+  <si>
+    <t>Vincent Marchau</t>
+  </si>
+  <si>
+    <t>Eric Molin</t>
+  </si>
+  <si>
+    <t>Igor Nikolic</t>
+  </si>
+  <si>
+    <t>Mark de Reuver</t>
+  </si>
+  <si>
+    <t>Laurens de Vries</t>
+  </si>
+  <si>
+    <t>Assistant professors</t>
+  </si>
+  <si>
+    <t>Emile Chappin</t>
+  </si>
+  <si>
+    <t>Sander van Cranenburgh</t>
+  </si>
+  <si>
+    <t>Aaron Yi Ding</t>
+  </si>
+  <si>
+    <t>Ron van Duin</t>
+  </si>
+  <si>
+    <t>Tobias Fiebig</t>
+  </si>
+  <si>
+    <t>Amineh Ghorbani</t>
+  </si>
+  <si>
+    <t>Helle Hansen</t>
+  </si>
+  <si>
+    <t>Petra Heijnen</t>
+  </si>
+  <si>
+    <t>Linda Kamp</t>
+  </si>
+  <si>
+    <t>Gijsbert Korevaar</t>
+  </si>
+  <si>
+    <t>Maarten Kroesen</t>
+  </si>
+  <si>
+    <t>Yousef Maknoon</t>
+  </si>
+  <si>
+    <t>Niek Mouter</t>
+  </si>
+  <si>
+    <t>Jaco Quist</t>
+  </si>
+  <si>
+    <t>Remco Verzijlbergh</t>
+  </si>
+  <si>
+    <t>Anneke Zuiderwijk - van Eijk</t>
+  </si>
+  <si>
+    <t>Professors Emeriti and Previous Staff Members</t>
+  </si>
+  <si>
+    <t>Paulien Herder</t>
+  </si>
+  <si>
+    <t>Jan van den Berg</t>
+  </si>
+  <si>
+    <t>Emeritus Professor</t>
+  </si>
+  <si>
+    <t>Anae Sobhani</t>
+  </si>
+  <si>
+    <t>Researchers</t>
+  </si>
+  <si>
+    <t>Jordi Bieger</t>
+  </si>
+  <si>
+    <t>Nicolas Cointe</t>
+  </si>
+  <si>
+    <t>Samira Farahani</t>
+  </si>
+  <si>
+    <t>Timber Haaker</t>
+  </si>
+  <si>
+    <t>Ioanna Kourounioti</t>
+  </si>
+  <si>
+    <t>Marco Kouwenhoven</t>
+  </si>
+  <si>
+    <t>Jonathan Moncada Botero</t>
+  </si>
+  <si>
+    <t>Ali Pirannejad</t>
+  </si>
+  <si>
+    <t>Albert Plugge</t>
+  </si>
+  <si>
+    <t>Boriana Rukanova</t>
+  </si>
+  <si>
+    <t>Ruth Shortall</t>
+  </si>
+  <si>
+    <t>Rob Stikkelman</t>
+  </si>
+  <si>
+    <t>George Tsalidis</t>
+  </si>
+  <si>
+    <t>Lecturers</t>
+  </si>
+  <si>
+    <t>Jan Anne Annema</t>
+  </si>
+  <si>
+    <t>John Baggen</t>
+  </si>
+  <si>
+    <t>Ivo Bouwmans</t>
+  </si>
+  <si>
+    <t>Hans van Ham</t>
+  </si>
+  <si>
+    <t>Marcel Ludema</t>
+  </si>
+  <si>
+    <t>Lydia Stougie</t>
+  </si>
+  <si>
+    <t>Visiting Researchers</t>
+  </si>
+  <si>
+    <t>Iryna Susha</t>
+  </si>
+  <si>
+    <t>Molood Ale Ebrahim Dehkordi</t>
+  </si>
+  <si>
+    <t>Ahmad Alwosheel</t>
+  </si>
+  <si>
+    <t>Amit Ashkenazy</t>
+  </si>
+  <si>
+    <t>Alexia Athanasopoulou</t>
+  </si>
+  <si>
+    <t>Deirdre Casella</t>
+  </si>
+  <si>
+    <t>Shantanu Chakraborty</t>
+  </si>
+  <si>
+    <t>Sélinde van Engelenburg</t>
+  </si>
+  <si>
+    <t>Sina Eslamizadeh</t>
+  </si>
+  <si>
+    <t>Patrick Fahim</t>
+  </si>
+  <si>
+    <t>Farzam Fanitabasi</t>
+  </si>
+  <si>
+    <t>Arthur Feinberg</t>
+  </si>
+  <si>
+    <t>Frank Feys</t>
+  </si>
+  <si>
+    <t>Javanshir Fouladvand</t>
+  </si>
+  <si>
+    <t>Joao Gorenstein Dedecca</t>
+  </si>
+  <si>
+    <t>Martijn Hartog</t>
+  </si>
+  <si>
+    <t>Maarten 't Hoen</t>
+  </si>
+  <si>
+    <t>Bing Huang</t>
+  </si>
+  <si>
+    <t>Mannat Kaur</t>
+  </si>
+  <si>
+    <t>Masoud Khakdaman</t>
+  </si>
+  <si>
+    <t>Fernando Kleiman</t>
+  </si>
+  <si>
+    <t>Allert Knapper</t>
+  </si>
+  <si>
+    <t>Lizet Krabbenborg</t>
+  </si>
+  <si>
+    <t>Kasper Lange</t>
+  </si>
+  <si>
+    <t>S. Mohammad Ali Latifi</t>
+  </si>
+  <si>
+    <t>Na Li</t>
+  </si>
+  <si>
+    <t>Fuqi Liang</t>
+  </si>
+  <si>
+    <t>Fanchao Liao</t>
+  </si>
+  <si>
+    <t>Ahmad Luthfi</t>
+  </si>
+  <si>
+    <t>Clara Maathuis</t>
+  </si>
+  <si>
+    <t>Andreia Martins Martinho</t>
+  </si>
+  <si>
+    <t>Ricardo Matheus</t>
+  </si>
+  <si>
+    <t>Rijk Mercuur</t>
+  </si>
+  <si>
+    <t>Majid Mohammadi</t>
+  </si>
+  <si>
+    <t>Jorge Andres Moncada Escudero</t>
+  </si>
+  <si>
+    <t>Graciela del Carmen Nava Guerrero</t>
+  </si>
+  <si>
+    <t>Shahrzad Nikghadam</t>
+  </si>
+  <si>
+    <t>Shiva Noori</t>
+  </si>
+  <si>
+    <t>Kartika Nurhayati</t>
+  </si>
+  <si>
+    <t>Özge Okur</t>
+  </si>
+  <si>
+    <t>Sander Onstein</t>
+  </si>
+  <si>
+    <t>Esther Park Lee</t>
+  </si>
+  <si>
+    <t>Matthew Pentecost</t>
+  </si>
+  <si>
+    <t>Longjian Piao</t>
+  </si>
+  <si>
+    <t>Klara Pigmans</t>
+  </si>
+  <si>
+    <t>Baiba Pudāne</t>
+  </si>
+  <si>
+    <t>Wenhua Qu</t>
+  </si>
+  <si>
+    <t>Brendon de Raad</t>
+  </si>
+  <si>
+    <t>Teodóra Szép</t>
+  </si>
+  <si>
+    <t>Samantha Tanzer</t>
+  </si>
+  <si>
+    <t>Ni Wang</t>
+  </si>
+  <si>
+    <t>Yuxin Wang</t>
+  </si>
+  <si>
+    <t>Tristan de Wildt</t>
+  </si>
+  <si>
+    <t>Rick Wolbertus</t>
+  </si>
+  <si>
+    <t>Yi Yin</t>
+  </si>
+  <si>
+    <t>Hanxin Zhao</t>
+  </si>
+  <si>
+    <t>Ben Zhu</t>
+  </si>
+  <si>
+    <t>Support staff</t>
+  </si>
+  <si>
+    <t>Project Secretary</t>
+  </si>
+  <si>
+    <t>Connie van Dop</t>
+  </si>
+  <si>
+    <t>Laura Bruns</t>
+  </si>
+  <si>
+    <t>Jo-Ann Karna</t>
+  </si>
+  <si>
+    <t>Betty van Koppen</t>
+  </si>
+  <si>
+    <t>Ellen van der Linden</t>
+  </si>
+  <si>
+    <t>Diones Supriana</t>
+  </si>
+  <si>
+    <t>Social Sciences and Humanities</t>
+  </si>
+  <si>
+    <t>https://www.tudelft.nl/en/tpm/about-the-faculty/departments/engineering-systems-and-services/people/</t>
+  </si>
+  <si>
+    <t>Engineering Systems and Services</t>
   </si>
 </sst>
 </file>
@@ -1041,18 +1485,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1067,9 +1505,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1412,11 +1849,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7A9297-2EDB-42DD-9C55-FAFE6D99F2C2}">
-  <dimension ref="A1:K226"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E226" sqref="E226"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A252:XFD285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5899,6 +6336,18 @@
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>280</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" t="s">
+        <v>281</v>
+      </c>
+      <c r="D191" t="s">
+        <v>282</v>
+      </c>
       <c r="E191" t="s">
         <v>283</v>
       </c>
@@ -5913,6 +6362,18 @@
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>280</v>
+      </c>
+      <c r="B192" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" t="s">
+        <v>281</v>
+      </c>
+      <c r="D192" t="s">
+        <v>282</v>
+      </c>
       <c r="E192" t="s">
         <v>287</v>
       </c>
@@ -5923,7 +6384,19 @@
         <v>286</v>
       </c>
     </row>
-    <row r="193" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>280</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" t="s">
+        <v>281</v>
+      </c>
+      <c r="D193" t="s">
+        <v>282</v>
+      </c>
       <c r="E193" t="s">
         <v>289</v>
       </c>
@@ -5934,7 +6407,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="194" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>280</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>281</v>
+      </c>
+      <c r="D194" t="s">
+        <v>282</v>
+      </c>
       <c r="E194" t="s">
         <v>291</v>
       </c>
@@ -5945,7 +6430,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="195" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>280</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>281</v>
+      </c>
+      <c r="D195" t="s">
+        <v>282</v>
+      </c>
       <c r="E195" t="s">
         <v>292</v>
       </c>
@@ -5956,7 +6453,19 @@
         <v>39</v>
       </c>
     </row>
-    <row r="196" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>280</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>281</v>
+      </c>
+      <c r="D196" t="s">
+        <v>282</v>
+      </c>
       <c r="E196" t="s">
         <v>295</v>
       </c>
@@ -5967,7 +6476,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="197" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>280</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>281</v>
+      </c>
+      <c r="D197" t="s">
+        <v>282</v>
+      </c>
       <c r="E197" t="s">
         <v>296</v>
       </c>
@@ -5975,7 +6496,19 @@
         <v>294</v>
       </c>
     </row>
-    <row r="198" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>280</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>281</v>
+      </c>
+      <c r="D198" t="s">
+        <v>282</v>
+      </c>
       <c r="E198" t="s">
         <v>298</v>
       </c>
@@ -5983,7 +6516,19 @@
         <v>297</v>
       </c>
     </row>
-    <row r="199" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>280</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>281</v>
+      </c>
+      <c r="D199" t="s">
+        <v>282</v>
+      </c>
       <c r="E199" t="s">
         <v>299</v>
       </c>
@@ -5991,7 +6536,19 @@
         <v>297</v>
       </c>
     </row>
-    <row r="200" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>280</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>281</v>
+      </c>
+      <c r="D200" t="s">
+        <v>282</v>
+      </c>
       <c r="E200" t="s">
         <v>301</v>
       </c>
@@ -5999,7 +6556,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="201" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>280</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>281</v>
+      </c>
+      <c r="D201" t="s">
+        <v>282</v>
+      </c>
       <c r="E201" t="s">
         <v>302</v>
       </c>
@@ -6007,7 +6576,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>280</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>281</v>
+      </c>
+      <c r="D202" t="s">
+        <v>282</v>
+      </c>
       <c r="E202" t="s">
         <v>303</v>
       </c>
@@ -6015,7 +6596,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="203" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>280</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>281</v>
+      </c>
+      <c r="D203" t="s">
+        <v>282</v>
+      </c>
       <c r="E203" t="s">
         <v>304</v>
       </c>
@@ -6023,7 +6616,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="204" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>280</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>281</v>
+      </c>
+      <c r="D204" t="s">
+        <v>282</v>
+      </c>
       <c r="E204" t="s">
         <v>305</v>
       </c>
@@ -6031,7 +6636,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="205" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>280</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>281</v>
+      </c>
+      <c r="D205" t="s">
+        <v>282</v>
+      </c>
       <c r="E205" t="s">
         <v>306</v>
       </c>
@@ -6039,7 +6656,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="206" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>280</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>281</v>
+      </c>
+      <c r="D206" t="s">
+        <v>282</v>
+      </c>
       <c r="E206" t="s">
         <v>307</v>
       </c>
@@ -6047,7 +6676,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="207" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>280</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>281</v>
+      </c>
+      <c r="D207" t="s">
+        <v>282</v>
+      </c>
       <c r="E207" t="s">
         <v>308</v>
       </c>
@@ -6055,7 +6696,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="208" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>280</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>281</v>
+      </c>
+      <c r="D208" t="s">
+        <v>282</v>
+      </c>
       <c r="E208" t="s">
         <v>309</v>
       </c>
@@ -6063,7 +6716,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="209" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>280</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>281</v>
+      </c>
+      <c r="D209" t="s">
+        <v>282</v>
+      </c>
       <c r="E209" t="s">
         <v>310</v>
       </c>
@@ -6071,7 +6736,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="210" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>280</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>281</v>
+      </c>
+      <c r="D210" t="s">
+        <v>282</v>
+      </c>
       <c r="E210" t="s">
         <v>312</v>
       </c>
@@ -6079,7 +6756,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="211" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>280</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>281</v>
+      </c>
+      <c r="D211" t="s">
+        <v>282</v>
+      </c>
       <c r="E211" t="s">
         <v>313</v>
       </c>
@@ -6087,7 +6776,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="212" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>280</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>281</v>
+      </c>
+      <c r="D212" t="s">
+        <v>282</v>
+      </c>
       <c r="E212" t="s">
         <v>314</v>
       </c>
@@ -6095,7 +6796,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="213" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>280</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>281</v>
+      </c>
+      <c r="D213" t="s">
+        <v>282</v>
+      </c>
       <c r="E213" t="s">
         <v>315</v>
       </c>
@@ -6103,7 +6816,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="214" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>280</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>281</v>
+      </c>
+      <c r="D214" t="s">
+        <v>282</v>
+      </c>
       <c r="E214" t="s">
         <v>316</v>
       </c>
@@ -6111,7 +6836,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="215" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>280</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>281</v>
+      </c>
+      <c r="D215" t="s">
+        <v>282</v>
+      </c>
       <c r="E215" t="s">
         <v>315</v>
       </c>
@@ -6119,7 +6856,19 @@
         <v>300</v>
       </c>
     </row>
-    <row r="216" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>280</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>281</v>
+      </c>
+      <c r="D216" t="s">
+        <v>282</v>
+      </c>
       <c r="E216" t="s">
         <v>316</v>
       </c>
@@ -6127,9 +6876,21 @@
         <v>300</v>
       </c>
     </row>
-    <row r="217" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>280</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>281</v>
+      </c>
+      <c r="D217" t="s">
+        <v>282</v>
+      </c>
       <c r="E217" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F217" t="s">
         <v>318</v>
@@ -6138,100 +6899,1078 @@
         <v>231</v>
       </c>
     </row>
-    <row r="218" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>280</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>281</v>
+      </c>
+      <c r="D218" t="s">
+        <v>282</v>
+      </c>
       <c r="E218" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F218" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G218" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="219" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>280</v>
+      </c>
+      <c r="B219" t="s">
+        <v>323</v>
+      </c>
+      <c r="C219" t="s">
+        <v>322</v>
+      </c>
+      <c r="D219" t="s">
+        <v>321</v>
+      </c>
       <c r="E219" t="s">
+        <v>324</v>
+      </c>
+      <c r="G219" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>280</v>
+      </c>
+      <c r="B220" t="s">
+        <v>323</v>
+      </c>
+      <c r="C220" t="s">
+        <v>322</v>
+      </c>
+      <c r="D220" t="s">
         <v>321</v>
       </c>
-      <c r="F219" t="s">
-        <v>320</v>
-      </c>
-      <c r="G219" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="220" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E220" t="s">
+        <v>325</v>
+      </c>
+      <c r="F220" t="s">
+        <v>286</v>
+      </c>
+      <c r="G220" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>280</v>
+      </c>
+      <c r="B221" t="s">
+        <v>323</v>
+      </c>
+      <c r="C221" t="s">
         <v>322</v>
       </c>
-      <c r="F220" t="s">
-        <v>320</v>
-      </c>
-      <c r="G220" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="221" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
+        <v>321</v>
+      </c>
       <c r="E221" t="s">
+        <v>326</v>
+      </c>
+      <c r="G221" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>280</v>
+      </c>
+      <c r="B222" t="s">
         <v>323</v>
       </c>
-      <c r="F221" t="s">
-        <v>320</v>
-      </c>
-      <c r="G221" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="222" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="C222" t="s">
+        <v>322</v>
+      </c>
+      <c r="D222" t="s">
+        <v>321</v>
+      </c>
       <c r="E222" t="s">
-        <v>324</v>
-      </c>
-      <c r="F222" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G222" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="223" spans="5:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>280</v>
+      </c>
+      <c r="B223" t="s">
+        <v>323</v>
+      </c>
+      <c r="C223" t="s">
+        <v>322</v>
+      </c>
+      <c r="D223" t="s">
+        <v>321</v>
+      </c>
       <c r="E223" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F223" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="G223" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="224" spans="5:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>280</v>
+      </c>
+      <c r="B224" t="s">
+        <v>323</v>
+      </c>
+      <c r="C224" t="s">
+        <v>322</v>
+      </c>
+      <c r="D224" t="s">
+        <v>321</v>
+      </c>
       <c r="E224" t="s">
-        <v>327</v>
-      </c>
-      <c r="F224" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G224" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="225" spans="5:7" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>280</v>
+      </c>
+      <c r="B225" t="s">
+        <v>323</v>
+      </c>
+      <c r="C225" t="s">
+        <v>322</v>
+      </c>
+      <c r="D225" t="s">
+        <v>321</v>
+      </c>
       <c r="E225" t="s">
-        <v>329</v>
-      </c>
-      <c r="F225" t="s">
         <v>330</v>
       </c>
       <c r="G225" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="226" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E226" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>280</v>
+      </c>
+      <c r="B226" t="s">
+        <v>323</v>
+      </c>
+      <c r="C226" t="s">
+        <v>322</v>
+      </c>
+      <c r="D226" t="s">
+        <v>321</v>
+      </c>
+      <c r="E226" t="s">
         <v>331</v>
       </c>
       <c r="G226" t="s">
-        <v>231</v>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>280</v>
+      </c>
+      <c r="B227" t="s">
+        <v>323</v>
+      </c>
+      <c r="C227" t="s">
+        <v>322</v>
+      </c>
+      <c r="D227" t="s">
+        <v>321</v>
+      </c>
+      <c r="E227" t="s">
+        <v>332</v>
+      </c>
+      <c r="G227" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>280</v>
+      </c>
+      <c r="B228" t="s">
+        <v>323</v>
+      </c>
+      <c r="C228" t="s">
+        <v>322</v>
+      </c>
+      <c r="D228" t="s">
+        <v>321</v>
+      </c>
+      <c r="E228" t="s">
+        <v>333</v>
+      </c>
+      <c r="F228" t="s">
+        <v>286</v>
+      </c>
+      <c r="G228" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>280</v>
+      </c>
+      <c r="B229" t="s">
+        <v>323</v>
+      </c>
+      <c r="C229" t="s">
+        <v>322</v>
+      </c>
+      <c r="D229" t="s">
+        <v>321</v>
+      </c>
+      <c r="E229" t="s">
+        <v>334</v>
+      </c>
+      <c r="G229" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>280</v>
+      </c>
+      <c r="B230" t="s">
+        <v>323</v>
+      </c>
+      <c r="C230" t="s">
+        <v>322</v>
+      </c>
+      <c r="D230" t="s">
+        <v>321</v>
+      </c>
+      <c r="E230" t="s">
+        <v>335</v>
+      </c>
+      <c r="F230" t="s">
+        <v>286</v>
+      </c>
+      <c r="G230" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>280</v>
+      </c>
+      <c r="B231" t="s">
+        <v>323</v>
+      </c>
+      <c r="C231" t="s">
+        <v>322</v>
+      </c>
+      <c r="D231" t="s">
+        <v>321</v>
+      </c>
+      <c r="E231" t="s">
+        <v>336</v>
+      </c>
+      <c r="G231" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>280</v>
+      </c>
+      <c r="B232" t="s">
+        <v>323</v>
+      </c>
+      <c r="C232" t="s">
+        <v>322</v>
+      </c>
+      <c r="D232" t="s">
+        <v>321</v>
+      </c>
+      <c r="E232" t="s">
+        <v>337</v>
+      </c>
+      <c r="F232" t="s">
+        <v>286</v>
+      </c>
+      <c r="G232" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>280</v>
+      </c>
+      <c r="B233" t="s">
+        <v>323</v>
+      </c>
+      <c r="C233" t="s">
+        <v>322</v>
+      </c>
+      <c r="D233" t="s">
+        <v>321</v>
+      </c>
+      <c r="E233" t="s">
+        <v>338</v>
+      </c>
+      <c r="G233" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>280</v>
+      </c>
+      <c r="B234" t="s">
+        <v>323</v>
+      </c>
+      <c r="C234" t="s">
+        <v>322</v>
+      </c>
+      <c r="D234" t="s">
+        <v>321</v>
+      </c>
+      <c r="E234" t="s">
+        <v>339</v>
+      </c>
+      <c r="G234" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>477</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>479</v>
+      </c>
+      <c r="D235" t="s">
+        <v>478</v>
+      </c>
+      <c r="E235" t="s">
+        <v>341</v>
+      </c>
+      <c r="F235" t="s">
+        <v>342</v>
+      </c>
+      <c r="G235" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>343</v>
+      </c>
+      <c r="F236" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>345</v>
+      </c>
+      <c r="F237" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>347</v>
+      </c>
+      <c r="F238" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>349</v>
+      </c>
+      <c r="F239" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E240" t="s">
+        <v>352</v>
+      </c>
+      <c r="G240" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="241" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="242" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E242" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="243" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="244" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="245" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="246" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="247" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="248" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="249" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E249" t="s">
+        <v>359</v>
+      </c>
+      <c r="G249" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="250" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E250" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="251" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E251" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="252" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E252" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="254" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E254" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="256" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E256" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="276" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E276" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E278" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E280" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E282" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="284" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E284" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="286" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E286" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="288" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E288" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="290" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E290" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="292" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E292" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="294" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E294" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="296" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E296" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="298" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E298" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="300" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E300" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="302" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E302" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="304" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="308" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="310" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="312" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="313" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E313" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="315" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E315" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="319" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E319" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="321" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E321" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="323" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E323" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="325" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E325" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="327" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E327" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="329" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E329" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="331" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E331" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="333" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E333" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="335" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E335" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="337" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E337" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="339" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E339" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="341" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E341" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="343" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E343" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="345" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E345" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="349" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E349" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="351" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E351" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="353" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E353" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="355" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E355" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="357" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E357" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="359" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E359" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="361" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E361" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="365" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E365" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="367" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E367" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="371" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E371" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="373" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E373" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="375" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E375" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="377" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E377" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="379" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E379" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="381" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E381" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="383" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E383" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E385" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E387" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E389" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E391" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E395" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E397" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E399" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E401" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E403" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E405" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E407" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E409" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E411" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E413" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E415" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E417" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E419" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="421" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E421" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="423" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E423" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="425" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E425" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="427" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E427" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="429" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="431" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E431" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="433" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E433" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="439" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E439" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="441" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E441" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="443" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E443" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="445" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E445" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="447" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E447" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="449" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E449" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="451" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E451" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="453" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E453" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="455" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E455" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="457" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E457" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E459" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="461" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E461" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="463" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E463" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="465" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E465" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="467" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E467" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="469" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E469" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="471" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E471" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="473" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E473" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="475" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E475" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="477" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E477" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="479" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E479" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="481" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E481" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="483" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E483" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="487" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E487" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="489" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E489" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="491" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E491" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="493" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E493" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="495" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E495" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="497" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E497" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="499" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E499" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="501" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E501" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451D6E0F-1E37-4AA1-A21E-B817B3D4F3A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCB17CF-D412-4C96-9200-23022E910CFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="22575" windowHeight="12270" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="540">
   <si>
     <t>institution</t>
   </si>
@@ -1593,22 +1593,71 @@
   </si>
   <si>
     <t>Timothy Shimwell</t>
+  </si>
+  <si>
+    <t>12488279;11497323;17317841;17317843</t>
+  </si>
+  <si>
+    <t>47237962;47237964;47237966;47237965;47237963</t>
+  </si>
+  <si>
+    <t>41180895;41180894;41180893;41180892;41180891;41180890;41180889;41180888;41180887;41180886</t>
+  </si>
+  <si>
+    <t>36579043;36579065;36579083</t>
+  </si>
+  <si>
+    <t>20998494;20998492;20998491;20998496;20998495;20998493</t>
+  </si>
+  <si>
+    <t>20811717;20811730;20811734;20811749;20811750;20811752</t>
+  </si>
+  <si>
+    <t>14624361;14624360;14624359;14624358;14624357</t>
+  </si>
+  <si>
+    <t>46537245;46537248;46537250;46537257;46537262;46537266;46537270</t>
+  </si>
+  <si>
+    <t>13926291;13926290;13926289</t>
+  </si>
+  <si>
+    <t>4512419;4512420</t>
+  </si>
+  <si>
+    <t>24635618;24635973</t>
+  </si>
+  <si>
+    <t>8634446;8636593;8637313</t>
+  </si>
+  <si>
+    <t>13712719;13712718</t>
+  </si>
+  <si>
+    <t>13948010;13948009</t>
+  </si>
+  <si>
+    <t>40046625;40046628</t>
+  </si>
+  <si>
+    <t>19043192;19043194</t>
+  </si>
+  <si>
+    <t>45717564;45717623;45717662</t>
+  </si>
+  <si>
+    <t>8216129;8216131</t>
+  </si>
+  <si>
+    <t>12587609;12587611;12587606</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1638,7 +1687,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,9 +2032,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7A9297-2EDB-42DD-9C55-FAFE6D99F2C2}">
   <dimension ref="A1:N388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4624,6 +4673,9 @@
       <c r="D100" t="s">
         <v>35</v>
       </c>
+      <c r="E100">
+        <v>2726935</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>162</v>
       </c>
@@ -6730,6 +6782,9 @@
       <c r="D190" t="s">
         <v>279</v>
       </c>
+      <c r="E190">
+        <v>43204348</v>
+      </c>
       <c r="F190" t="s">
         <v>275</v>
       </c>
@@ -6759,6 +6814,9 @@
       <c r="D191" t="s">
         <v>279</v>
       </c>
+      <c r="E191" t="s">
+        <v>521</v>
+      </c>
       <c r="F191" t="s">
         <v>280</v>
       </c>
@@ -6785,6 +6843,9 @@
       <c r="D192" t="s">
         <v>279</v>
       </c>
+      <c r="E192">
+        <v>49804602</v>
+      </c>
       <c r="F192" t="s">
         <v>284</v>
       </c>
@@ -6808,6 +6869,9 @@
       <c r="D193" t="s">
         <v>279</v>
       </c>
+      <c r="E193">
+        <v>38390427</v>
+      </c>
       <c r="F193" t="s">
         <v>286</v>
       </c>
@@ -6831,6 +6895,9 @@
       <c r="D194" t="s">
         <v>279</v>
       </c>
+      <c r="E194">
+        <v>12391891</v>
+      </c>
       <c r="F194" t="s">
         <v>288</v>
       </c>
@@ -6854,6 +6921,9 @@
       <c r="D195" t="s">
         <v>279</v>
       </c>
+      <c r="E195">
+        <v>1051796</v>
+      </c>
       <c r="F195" t="s">
         <v>289</v>
       </c>
@@ -6877,6 +6947,9 @@
       <c r="D196" t="s">
         <v>279</v>
       </c>
+      <c r="E196">
+        <v>16111937</v>
+      </c>
       <c r="F196" t="s">
         <v>292</v>
       </c>
@@ -6900,6 +6973,9 @@
       <c r="D197" t="s">
         <v>279</v>
       </c>
+      <c r="E197">
+        <v>17889022</v>
+      </c>
       <c r="F197" t="s">
         <v>293</v>
       </c>
@@ -6920,6 +6996,9 @@
       <c r="D198" t="s">
         <v>279</v>
       </c>
+      <c r="E198">
+        <v>41776038</v>
+      </c>
       <c r="F198" t="s">
         <v>295</v>
       </c>
@@ -6940,6 +7019,9 @@
       <c r="D199" t="s">
         <v>279</v>
       </c>
+      <c r="E199">
+        <v>28628410</v>
+      </c>
       <c r="F199" t="s">
         <v>296</v>
       </c>
@@ -6960,6 +7042,9 @@
       <c r="D200" t="s">
         <v>279</v>
       </c>
+      <c r="E200">
+        <v>4429074</v>
+      </c>
       <c r="F200" t="s">
         <v>298</v>
       </c>
@@ -7300,6 +7385,9 @@
       <c r="D217" t="s">
         <v>279</v>
       </c>
+      <c r="E217">
+        <v>8707163</v>
+      </c>
       <c r="F217" t="s">
         <v>316</v>
       </c>
@@ -7323,6 +7411,9 @@
       <c r="D218" t="s">
         <v>279</v>
       </c>
+      <c r="E218">
+        <v>28985127</v>
+      </c>
       <c r="F218" t="s">
         <v>317</v>
       </c>
@@ -7346,6 +7437,9 @@
       <c r="D219" t="s">
         <v>318</v>
       </c>
+      <c r="E219">
+        <v>14858425</v>
+      </c>
       <c r="F219" t="s">
         <v>321</v>
       </c>
@@ -7366,6 +7460,9 @@
       <c r="D220" t="s">
         <v>318</v>
       </c>
+      <c r="E220" t="s">
+        <v>522</v>
+      </c>
       <c r="F220" t="s">
         <v>322</v>
       </c>
@@ -7389,6 +7486,9 @@
       <c r="D221" t="s">
         <v>318</v>
       </c>
+      <c r="E221">
+        <v>2763827</v>
+      </c>
       <c r="F221" t="s">
         <v>323</v>
       </c>
@@ -7409,6 +7509,9 @@
       <c r="D222" t="s">
         <v>318</v>
       </c>
+      <c r="E222" t="s">
+        <v>523</v>
+      </c>
       <c r="F222" t="s">
         <v>324</v>
       </c>
@@ -7429,6 +7532,9 @@
       <c r="D223" t="s">
         <v>318</v>
       </c>
+      <c r="E223">
+        <v>7819122</v>
+      </c>
       <c r="F223" t="s">
         <v>325</v>
       </c>
@@ -7452,6 +7558,9 @@
       <c r="D224" t="s">
         <v>318</v>
       </c>
+      <c r="E224">
+        <v>24690368</v>
+      </c>
       <c r="F224" t="s">
         <v>326</v>
       </c>
@@ -7472,6 +7581,9 @@
       <c r="D225" t="s">
         <v>318</v>
       </c>
+      <c r="E225">
+        <v>3951356</v>
+      </c>
       <c r="F225" t="s">
         <v>327</v>
       </c>
@@ -7492,6 +7604,9 @@
       <c r="D226" t="s">
         <v>318</v>
       </c>
+      <c r="E226" t="s">
+        <v>524</v>
+      </c>
       <c r="F226" t="s">
         <v>328</v>
       </c>
@@ -7512,6 +7627,9 @@
       <c r="D227" t="s">
         <v>318</v>
       </c>
+      <c r="E227" t="s">
+        <v>525</v>
+      </c>
       <c r="F227" t="s">
         <v>329</v>
       </c>
@@ -7532,6 +7650,9 @@
       <c r="D228" t="s">
         <v>318</v>
       </c>
+      <c r="E228" t="s">
+        <v>526</v>
+      </c>
       <c r="F228" t="s">
         <v>330</v>
       </c>
@@ -7555,6 +7676,9 @@
       <c r="D229" t="s">
         <v>318</v>
       </c>
+      <c r="E229" t="s">
+        <v>527</v>
+      </c>
       <c r="F229" t="s">
         <v>331</v>
       </c>
@@ -7575,6 +7699,9 @@
       <c r="D230" t="s">
         <v>318</v>
       </c>
+      <c r="E230" t="s">
+        <v>528</v>
+      </c>
       <c r="F230" t="s">
         <v>332</v>
       </c>
@@ -7598,6 +7725,9 @@
       <c r="D231" t="s">
         <v>318</v>
       </c>
+      <c r="E231" t="s">
+        <v>529</v>
+      </c>
       <c r="F231" t="s">
         <v>333</v>
       </c>
@@ -7618,6 +7748,9 @@
       <c r="D232" t="s">
         <v>318</v>
       </c>
+      <c r="E232">
+        <v>18075355</v>
+      </c>
       <c r="F232" t="s">
         <v>334</v>
       </c>
@@ -7641,6 +7774,9 @@
       <c r="D233" t="s">
         <v>318</v>
       </c>
+      <c r="E233">
+        <v>37106092</v>
+      </c>
       <c r="F233" t="s">
         <v>335</v>
       </c>
@@ -7661,6 +7797,9 @@
       <c r="D234" t="s">
         <v>318</v>
       </c>
+      <c r="E234" t="s">
+        <v>530</v>
+      </c>
       <c r="F234" t="s">
         <v>336</v>
       </c>
@@ -7681,6 +7820,9 @@
       <c r="D235" t="s">
         <v>475</v>
       </c>
+      <c r="E235">
+        <v>13692131</v>
+      </c>
       <c r="F235" t="s">
         <v>338</v>
       </c>
@@ -7727,6 +7869,9 @@
       <c r="D237" t="s">
         <v>475</v>
       </c>
+      <c r="E237" t="s">
+        <v>531</v>
+      </c>
       <c r="F237" t="s">
         <v>342</v>
       </c>
@@ -7750,6 +7895,9 @@
       <c r="D238" t="s">
         <v>475</v>
       </c>
+      <c r="E238">
+        <v>6318608</v>
+      </c>
       <c r="F238" t="s">
         <v>344</v>
       </c>
@@ -7773,6 +7921,9 @@
       <c r="D239" t="s">
         <v>475</v>
       </c>
+      <c r="E239">
+        <v>16624485</v>
+      </c>
       <c r="F239" t="s">
         <v>346</v>
       </c>
@@ -7796,6 +7947,9 @@
       <c r="D240" t="s">
         <v>475</v>
       </c>
+      <c r="E240">
+        <v>7443016</v>
+      </c>
       <c r="F240" t="s">
         <v>349</v>
       </c>
@@ -7816,6 +7970,9 @@
       <c r="D241" t="s">
         <v>475</v>
       </c>
+      <c r="E241">
+        <v>13692131</v>
+      </c>
       <c r="F241" t="s">
         <v>338</v>
       </c>
@@ -7836,6 +7993,9 @@
       <c r="D242" t="s">
         <v>475</v>
       </c>
+      <c r="E242" t="s">
+        <v>531</v>
+      </c>
       <c r="F242" t="s">
         <v>342</v>
       </c>
@@ -7856,6 +8016,9 @@
       <c r="D243" t="s">
         <v>475</v>
       </c>
+      <c r="E243">
+        <v>6318608</v>
+      </c>
       <c r="F243" t="s">
         <v>344</v>
       </c>
@@ -7876,6 +8039,9 @@
       <c r="D244" t="s">
         <v>475</v>
       </c>
+      <c r="E244">
+        <v>3838893</v>
+      </c>
       <c r="F244" t="s">
         <v>350</v>
       </c>
@@ -7896,6 +8062,9 @@
       <c r="D245" t="s">
         <v>475</v>
       </c>
+      <c r="E245" t="s">
+        <v>532</v>
+      </c>
       <c r="F245" t="s">
         <v>351</v>
       </c>
@@ -7916,6 +8085,9 @@
       <c r="D246" t="s">
         <v>475</v>
       </c>
+      <c r="E246" t="s">
+        <v>533</v>
+      </c>
       <c r="F246" t="s">
         <v>352</v>
       </c>
@@ -7956,6 +8128,9 @@
       <c r="D248" t="s">
         <v>475</v>
       </c>
+      <c r="E248" t="s">
+        <v>534</v>
+      </c>
       <c r="F248" t="s">
         <v>354</v>
       </c>
@@ -7976,6 +8151,9 @@
       <c r="D249" t="s">
         <v>475</v>
       </c>
+      <c r="E249" t="s">
+        <v>535</v>
+      </c>
       <c r="F249" t="s">
         <v>356</v>
       </c>
@@ -7996,6 +8174,9 @@
       <c r="D250" t="s">
         <v>475</v>
       </c>
+      <c r="E250" t="s">
+        <v>536</v>
+      </c>
       <c r="F250" t="s">
         <v>357</v>
       </c>
@@ -8016,6 +8197,9 @@
       <c r="D251" t="s">
         <v>475</v>
       </c>
+      <c r="E251">
+        <v>23921773</v>
+      </c>
       <c r="F251" t="s">
         <v>358</v>
       </c>
@@ -8036,6 +8220,9 @@
       <c r="D252" t="s">
         <v>475</v>
       </c>
+      <c r="E252">
+        <v>11437613</v>
+      </c>
       <c r="F252" t="s">
         <v>359</v>
       </c>
@@ -8056,6 +8243,9 @@
       <c r="D253" t="s">
         <v>475</v>
       </c>
+      <c r="E253">
+        <v>33449014</v>
+      </c>
       <c r="F253" t="s">
         <v>360</v>
       </c>
@@ -8076,6 +8266,9 @@
       <c r="D254" t="s">
         <v>475</v>
       </c>
+      <c r="E254">
+        <v>33916285</v>
+      </c>
       <c r="F254" t="s">
         <v>361</v>
       </c>
@@ -8096,6 +8289,9 @@
       <c r="D255" t="s">
         <v>475</v>
       </c>
+      <c r="E255">
+        <v>24681715</v>
+      </c>
       <c r="F255" t="s">
         <v>362</v>
       </c>
@@ -8136,6 +8332,9 @@
       <c r="D257" t="s">
         <v>475</v>
       </c>
+      <c r="E257">
+        <v>29003178</v>
+      </c>
       <c r="F257" t="s">
         <v>363</v>
       </c>
@@ -8156,6 +8355,9 @@
       <c r="D258" t="s">
         <v>475</v>
       </c>
+      <c r="E258" t="s">
+        <v>537</v>
+      </c>
       <c r="F258" t="s">
         <v>364</v>
       </c>
@@ -8176,6 +8378,9 @@
       <c r="D259" t="s">
         <v>475</v>
       </c>
+      <c r="E259">
+        <v>41201274</v>
+      </c>
       <c r="F259" t="s">
         <v>366</v>
       </c>
@@ -8196,6 +8401,9 @@
       <c r="D260" t="s">
         <v>475</v>
       </c>
+      <c r="E260">
+        <v>2901</v>
+      </c>
       <c r="F260" t="s">
         <v>367</v>
       </c>
@@ -8216,6 +8424,9 @@
       <c r="D261" t="s">
         <v>475</v>
       </c>
+      <c r="E261">
+        <v>19866764</v>
+      </c>
       <c r="F261" t="s">
         <v>368</v>
       </c>
@@ -8236,6 +8447,9 @@
       <c r="D262" t="s">
         <v>475</v>
       </c>
+      <c r="E262" t="s">
+        <v>538</v>
+      </c>
       <c r="F262" t="s">
         <v>369</v>
       </c>
@@ -8276,6 +8490,9 @@
       <c r="D264" t="s">
         <v>475</v>
       </c>
+      <c r="E264">
+        <v>50373155</v>
+      </c>
       <c r="F264" t="s">
         <v>371</v>
       </c>
@@ -8296,6 +8513,9 @@
       <c r="D265" t="s">
         <v>475</v>
       </c>
+      <c r="E265">
+        <v>14500378</v>
+      </c>
       <c r="F265" t="s">
         <v>372</v>
       </c>
@@ -8316,6 +8536,9 @@
       <c r="D266" t="s">
         <v>475</v>
       </c>
+      <c r="E266">
+        <v>18234320</v>
+      </c>
       <c r="F266" t="s">
         <v>373</v>
       </c>
@@ -8336,6 +8559,9 @@
       <c r="D267" t="s">
         <v>475</v>
       </c>
+      <c r="E267">
+        <v>36789409</v>
+      </c>
       <c r="F267" t="s">
         <v>374</v>
       </c>
@@ -8356,6 +8582,9 @@
       <c r="D268" t="s">
         <v>475</v>
       </c>
+      <c r="E268">
+        <v>32966855</v>
+      </c>
       <c r="F268" t="s">
         <v>375</v>
       </c>
@@ -8376,6 +8605,9 @@
       <c r="D269" t="s">
         <v>475</v>
       </c>
+      <c r="E269" t="s">
+        <v>539</v>
+      </c>
       <c r="F269" t="s">
         <v>376</v>
       </c>
@@ -8396,6 +8628,9 @@
       <c r="D270" t="s">
         <v>475</v>
       </c>
+      <c r="E270">
+        <v>5521084</v>
+      </c>
       <c r="F270" t="s">
         <v>377</v>
       </c>
@@ -8416,6 +8651,9 @@
       <c r="D271" t="s">
         <v>475</v>
       </c>
+      <c r="E271">
+        <v>20130196</v>
+      </c>
       <c r="F271" t="s">
         <v>378</v>
       </c>
@@ -8436,6 +8674,9 @@
       <c r="D272" t="s">
         <v>475</v>
       </c>
+      <c r="E272">
+        <v>8458971</v>
+      </c>
       <c r="F272" t="s">
         <v>379</v>
       </c>
@@ -8456,6 +8697,9 @@
       <c r="D273" t="s">
         <v>475</v>
       </c>
+      <c r="E273">
+        <v>16624485</v>
+      </c>
       <c r="F273" t="s">
         <v>346</v>
       </c>
@@ -8476,6 +8720,9 @@
       <c r="D274" t="s">
         <v>475</v>
       </c>
+      <c r="E274">
+        <v>41017620</v>
+      </c>
       <c r="F274" t="s">
         <v>380</v>
       </c>
@@ -8495,6 +8742,9 @@
       </c>
       <c r="D275" t="s">
         <v>475</v>
+      </c>
+      <c r="E275">
+        <v>19325628</v>
       </c>
       <c r="F275" t="s">
         <v>381</v>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9EB459-71AF-49C6-BC15-378044C6774B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E164497C-1860-4549-A2BF-879C46FBFDA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="22575" windowHeight="12270" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="942">
   <si>
     <t>institution</t>
   </si>
@@ -2836,6 +2836,27 @@
   </si>
   <si>
     <t>40973442;40973443</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>h.w.zandbergen@tudelft.nl</t>
+  </si>
+  <si>
+    <t>rottgering@strw.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>H.E.J.Veeger@tudelft.nl</t>
+  </si>
+  <si>
+    <t>statistics@lumc.nl</t>
+  </si>
+  <si>
+    <t>C.G.Chorus@tudelft.nl</t>
+  </si>
+  <si>
+    <t>j.mesman@luc.leidenuniv.nl</t>
   </si>
 </sst>
 </file>
@@ -3233,21 +3254,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7A9297-2EDB-42DD-9C55-FAFE6D99F2C2}">
-  <dimension ref="A1:O388"/>
+  <dimension ref="A1:P388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F297" sqref="F297"/>
+      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>544</v>
       </c>
@@ -3270,31 +3292,34 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>935</v>
+      </c>
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>272</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>506</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>559</v>
       </c>
@@ -3317,19 +3342,22 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
+        <v>936</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>560</v>
       </c>
@@ -3348,14 +3376,14 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>561</v>
       </c>
@@ -3374,14 +3402,14 @@
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>562</v>
       </c>
@@ -3403,14 +3431,14 @@
       <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>563</v>
       </c>
@@ -3432,14 +3460,14 @@
       <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>564</v>
       </c>
@@ -3461,14 +3489,14 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>565</v>
       </c>
@@ -3487,14 +3515,14 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -3516,17 +3544,17 @@
       <c r="G9" t="s">
         <v>26</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>567</v>
       </c>
@@ -3548,14 +3576,14 @@
       <c r="G10" t="s">
         <v>30</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -3577,14 +3605,14 @@
       <c r="G11" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>568</v>
       </c>
@@ -3603,14 +3631,14 @@
       <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>570</v>
       </c>
@@ -3632,14 +3660,14 @@
       <c r="G13" t="s">
         <v>85</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>571</v>
       </c>
@@ -3661,14 +3689,14 @@
       <c r="G14" t="s">
         <v>86</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -3690,14 +3718,14 @@
       <c r="G15" t="s">
         <v>87</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>573</v>
       </c>
@@ -3719,14 +3747,14 @@
       <c r="G16" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>574</v>
       </c>
@@ -3748,14 +3776,14 @@
       <c r="G17" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>575</v>
       </c>
@@ -3777,20 +3805,20 @@
       <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>41</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>35</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>576</v>
       </c>
@@ -3812,14 +3840,14 @@
       <c r="G19" t="s">
         <v>64</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>577</v>
       </c>
@@ -3841,17 +3869,17 @@
       <c r="G20" t="s">
         <v>89</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>43</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>578</v>
       </c>
@@ -3873,14 +3901,14 @@
       <c r="G21" t="s">
         <v>90</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="J21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>579</v>
       </c>
@@ -3902,17 +3930,17 @@
       <c r="G22" t="s">
         <v>65</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>45</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>580</v>
       </c>
@@ -3934,14 +3962,14 @@
       <c r="G23" t="s">
         <v>66</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>581</v>
       </c>
@@ -3963,14 +3991,14 @@
       <c r="G24" t="s">
         <v>91</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>582</v>
       </c>
@@ -3992,14 +4020,14 @@
       <c r="G25" t="s">
         <v>92</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="J25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>583</v>
       </c>
@@ -4021,14 +4049,14 @@
       <c r="G26" t="s">
         <v>93</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>584</v>
       </c>
@@ -4050,14 +4078,14 @@
       <c r="G27" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="J27" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>585</v>
       </c>
@@ -4079,14 +4107,14 @@
       <c r="G28" t="s">
         <v>95</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="J28" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>586</v>
       </c>
@@ -4108,14 +4136,14 @@
       <c r="G29" t="s">
         <v>67</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>587</v>
       </c>
@@ -4137,14 +4165,14 @@
       <c r="G30" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>588</v>
       </c>
@@ -4166,14 +4194,14 @@
       <c r="G31" t="s">
         <v>97</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="J31" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>589</v>
       </c>
@@ -4195,14 +4223,14 @@
       <c r="G32" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>590</v>
       </c>
@@ -4224,14 +4252,14 @@
       <c r="G33" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="J33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>591</v>
       </c>
@@ -4253,14 +4281,14 @@
       <c r="G34" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="J34" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>592</v>
       </c>
@@ -4282,14 +4310,14 @@
       <c r="G35" t="s">
         <v>101</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="J35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>593</v>
       </c>
@@ -4311,17 +4339,17 @@
       <c r="G36" t="s">
         <v>68</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>70</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -4343,17 +4371,17 @@
       <c r="G37" t="s">
         <v>102</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="J37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -4375,14 +4403,14 @@
       <c r="G38" t="s">
         <v>73</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="J38" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>596</v>
       </c>
@@ -4404,17 +4432,17 @@
       <c r="G39" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="J39" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>37</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>597</v>
       </c>
@@ -4436,14 +4464,14 @@
       <c r="G40" t="s">
         <v>104</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="J40" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>598</v>
       </c>
@@ -4465,14 +4493,14 @@
       <c r="G41" t="s">
         <v>74</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="J41" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>599</v>
       </c>
@@ -4494,14 +4522,14 @@
       <c r="G42" t="s">
         <v>105</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="J42" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>600</v>
       </c>
@@ -4524,19 +4552,22 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
+        <v>937</v>
+      </c>
+      <c r="I43" t="s">
         <v>77</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="J43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>76</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>601</v>
       </c>
@@ -4558,14 +4589,14 @@
       <c r="G44" t="s">
         <v>79</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="J44" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>602</v>
       </c>
@@ -4587,14 +4618,14 @@
       <c r="G45" t="s">
         <v>106</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="J45" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>603</v>
       </c>
@@ -4616,14 +4647,14 @@
       <c r="G46" t="s">
         <v>107</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="J46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>604</v>
       </c>
@@ -4645,14 +4676,14 @@
       <c r="G47" t="s">
         <v>80</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="J47" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>605</v>
       </c>
@@ -4674,14 +4705,14 @@
       <c r="G48" t="s">
         <v>108</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="J48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>606</v>
       </c>
@@ -4703,14 +4734,14 @@
       <c r="G49" t="s">
         <v>81</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>607</v>
       </c>
@@ -4732,14 +4763,14 @@
       <c r="G50" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="3" t="s">
+      <c r="J50" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>608</v>
       </c>
@@ -4761,14 +4792,14 @@
       <c r="G51" t="s">
         <v>116</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="J51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>609</v>
       </c>
@@ -4790,17 +4821,17 @@
       <c r="G52" t="s">
         <v>156</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>72</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="J52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>610</v>
       </c>
@@ -4822,14 +4853,14 @@
       <c r="G53" t="s">
         <v>514</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="J53" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>611</v>
       </c>
@@ -4851,14 +4882,14 @@
       <c r="G54" t="s">
         <v>117</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="J54" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>612</v>
       </c>
@@ -4880,14 +4911,14 @@
       <c r="G55" t="s">
         <v>515</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>112</v>
       </c>
-      <c r="I55" s="3" t="s">
+      <c r="J55" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>613</v>
       </c>
@@ -4909,11 +4940,11 @@
       <c r="G56" t="s">
         <v>109</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="J56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>614</v>
       </c>
@@ -4935,14 +4966,14 @@
       <c r="G57" t="s">
         <v>118</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="J57" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>615</v>
       </c>
@@ -4961,14 +4992,14 @@
       <c r="G58" t="s">
         <v>119</v>
       </c>
-      <c r="I58" s="3" t="s">
+      <c r="J58" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>616</v>
       </c>
@@ -4987,17 +5018,17 @@
       <c r="G59" t="s">
         <v>157</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>72</v>
       </c>
-      <c r="I59" s="3" t="s">
+      <c r="J59" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>617</v>
       </c>
@@ -5016,14 +5047,14 @@
       <c r="G60" t="s">
         <v>120</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="J60" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>618</v>
       </c>
@@ -5045,14 +5076,14 @@
       <c r="G61" t="s">
         <v>121</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="J61" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>619</v>
       </c>
@@ -5074,14 +5105,14 @@
       <c r="G62" t="s">
         <v>122</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="J62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>620</v>
       </c>
@@ -5103,14 +5134,14 @@
       <c r="G63" t="s">
         <v>123</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="J63" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>621</v>
       </c>
@@ -5132,14 +5163,14 @@
       <c r="G64" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="J64" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>622</v>
       </c>
@@ -5161,14 +5192,14 @@
       <c r="G65" t="s">
         <v>125</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="J65" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>623</v>
       </c>
@@ -5190,14 +5221,14 @@
       <c r="G66" t="s">
         <v>126</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="J66" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>624</v>
       </c>
@@ -5219,14 +5250,14 @@
       <c r="G67" t="s">
         <v>127</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="J67" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>625</v>
       </c>
@@ -5248,17 +5279,17 @@
       <c r="G68" t="s">
         <v>128</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="J68" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>110</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>626</v>
       </c>
@@ -5280,14 +5311,14 @@
       <c r="G69" t="s">
         <v>129</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="J69" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>627</v>
       </c>
@@ -5309,14 +5340,14 @@
       <c r="G70" t="s">
         <v>130</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="J70" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>628</v>
       </c>
@@ -5335,14 +5366,14 @@
       <c r="G71" t="s">
         <v>131</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="J71" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>629</v>
       </c>
@@ -5364,14 +5395,14 @@
       <c r="G72" t="s">
         <v>132</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="J72" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>630</v>
       </c>
@@ -5393,14 +5424,14 @@
       <c r="G73" t="s">
         <v>133</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="J73" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>631</v>
       </c>
@@ -5422,14 +5453,14 @@
       <c r="G74" t="s">
         <v>134</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="J74" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>632</v>
       </c>
@@ -5451,14 +5482,14 @@
       <c r="G75" t="s">
         <v>135</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="J75" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>633</v>
       </c>
@@ -5477,14 +5508,14 @@
       <c r="G76" t="s">
         <v>136</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="J76" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>634</v>
       </c>
@@ -5503,14 +5534,14 @@
       <c r="G77" t="s">
         <v>137</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="J77" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>635</v>
       </c>
@@ -5532,14 +5563,14 @@
       <c r="G78" t="s">
         <v>138</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="J78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>636</v>
       </c>
@@ -5561,14 +5592,14 @@
       <c r="G79" t="s">
         <v>139</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="J79" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>637</v>
       </c>
@@ -5587,17 +5618,17 @@
       <c r="G80" t="s">
         <v>158</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>72</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="J80" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>638</v>
       </c>
@@ -5616,14 +5647,14 @@
       <c r="G81" t="s">
         <v>140</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="J81" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>639</v>
       </c>
@@ -5645,14 +5676,14 @@
       <c r="G82" t="s">
         <v>141</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="J82" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>640</v>
       </c>
@@ -5674,14 +5705,14 @@
       <c r="G83" t="s">
         <v>142</v>
       </c>
-      <c r="I83" s="3" t="s">
+      <c r="J83" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>641</v>
       </c>
@@ -5703,17 +5734,17 @@
       <c r="G84" t="s">
         <v>159</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>72</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="J84" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>642</v>
       </c>
@@ -5735,14 +5766,14 @@
       <c r="G85" t="s">
         <v>143</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="J85" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>643</v>
       </c>
@@ -5764,14 +5795,14 @@
       <c r="G86" t="s">
         <v>144</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="J86" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>644</v>
       </c>
@@ -5793,14 +5824,14 @@
       <c r="G87" t="s">
         <v>145</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="J87" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>645</v>
       </c>
@@ -5822,17 +5853,17 @@
       <c r="G88" t="s">
         <v>517</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>72</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="J88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>646</v>
       </c>
@@ -5854,14 +5885,14 @@
       <c r="G89" t="s">
         <v>146</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="J89" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>647</v>
       </c>
@@ -5880,14 +5911,14 @@
       <c r="G90" t="s">
         <v>147</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="J90" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>648</v>
       </c>
@@ -5909,14 +5940,14 @@
       <c r="G91" t="s">
         <v>148</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="J91" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>649</v>
       </c>
@@ -5938,14 +5969,14 @@
       <c r="G92" t="s">
         <v>149</v>
       </c>
-      <c r="I92" s="3" t="s">
+      <c r="J92" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>650</v>
       </c>
@@ -5967,14 +5998,14 @@
       <c r="G93" t="s">
         <v>150</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="J93" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>651</v>
       </c>
@@ -5996,14 +6027,14 @@
       <c r="G94" t="s">
         <v>151</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="J94" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>652</v>
       </c>
@@ -6025,17 +6056,17 @@
       <c r="G95" t="s">
         <v>114</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>115</v>
       </c>
-      <c r="I95" s="3" t="s">
+      <c r="J95" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>653</v>
       </c>
@@ -6054,14 +6085,14 @@
       <c r="G96" t="s">
         <v>152</v>
       </c>
-      <c r="I96" s="3" t="s">
+      <c r="J96" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>654</v>
       </c>
@@ -6083,14 +6114,14 @@
       <c r="G97" t="s">
         <v>153</v>
       </c>
-      <c r="I97" s="3" t="s">
+      <c r="J97" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>655</v>
       </c>
@@ -6112,14 +6143,14 @@
       <c r="G98" t="s">
         <v>154</v>
       </c>
-      <c r="I98" s="3" t="s">
+      <c r="J98" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>656</v>
       </c>
@@ -6141,14 +6172,14 @@
       <c r="G99" t="s">
         <v>155</v>
       </c>
-      <c r="I99" s="3" t="s">
+      <c r="J99" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>657</v>
       </c>
@@ -6170,17 +6201,18 @@
       <c r="G100" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="1"/>
+      <c r="I100" t="s">
         <v>72</v>
       </c>
-      <c r="I100" s="3" t="s">
+      <c r="J100" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>658</v>
       </c>
@@ -6199,14 +6231,14 @@
       <c r="G101" t="s">
         <v>162</v>
       </c>
-      <c r="I101" s="3" t="s">
+      <c r="J101" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>659</v>
       </c>
@@ -6225,14 +6257,14 @@
       <c r="G102" t="s">
         <v>163</v>
       </c>
-      <c r="I102" s="3" t="s">
+      <c r="J102" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>660</v>
       </c>
@@ -6251,14 +6283,14 @@
       <c r="G103" t="s">
         <v>164</v>
       </c>
-      <c r="I103" s="3" t="s">
+      <c r="J103" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>661</v>
       </c>
@@ -6277,14 +6309,14 @@
       <c r="G104" t="s">
         <v>165</v>
       </c>
-      <c r="I104" s="3" t="s">
+      <c r="J104" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>662</v>
       </c>
@@ -6303,14 +6335,14 @@
       <c r="G105" t="s">
         <v>166</v>
       </c>
-      <c r="I105" s="3" t="s">
+      <c r="J105" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>663</v>
       </c>
@@ -6329,14 +6361,14 @@
       <c r="G106" t="s">
         <v>167</v>
       </c>
-      <c r="I106" s="3" t="s">
+      <c r="J106" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>664</v>
       </c>
@@ -6355,14 +6387,14 @@
       <c r="G107" t="s">
         <v>168</v>
       </c>
-      <c r="I107" s="3" t="s">
+      <c r="J107" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>665</v>
       </c>
@@ -6381,14 +6413,14 @@
       <c r="G108" t="s">
         <v>169</v>
       </c>
-      <c r="I108" s="3" t="s">
+      <c r="J108" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>666</v>
       </c>
@@ -6407,17 +6439,17 @@
       <c r="G109" t="s">
         <v>170</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>113</v>
       </c>
-      <c r="I109" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J109" t="s">
+      <c r="K109" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>545</v>
       </c>
@@ -6436,14 +6468,14 @@
       <c r="G110" t="s">
         <v>171</v>
       </c>
-      <c r="I110" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J110" t="s">
+      <c r="K110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>546</v>
       </c>
@@ -6462,14 +6494,14 @@
       <c r="G111" t="s">
         <v>172</v>
       </c>
-      <c r="I111" s="3" t="s">
+      <c r="J111" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J111" t="s">
+      <c r="K111" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>547</v>
       </c>
@@ -6488,14 +6520,14 @@
       <c r="G112" t="s">
         <v>173</v>
       </c>
-      <c r="I112" s="3" t="s">
+      <c r="J112" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J112" t="s">
+      <c r="K112" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>548</v>
       </c>
@@ -6514,17 +6546,17 @@
       <c r="G113" t="s">
         <v>217</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>72</v>
       </c>
-      <c r="I113" s="3" t="s">
+      <c r="J113" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J113" t="s">
+      <c r="K113" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>549</v>
       </c>
@@ -6543,17 +6575,17 @@
       <c r="G114" t="s">
         <v>215</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>113</v>
       </c>
-      <c r="I114" s="3" t="s">
+      <c r="J114" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J114" t="s">
+      <c r="K114" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>550</v>
       </c>
@@ -6572,17 +6604,17 @@
       <c r="G115" t="s">
         <v>216</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>72</v>
       </c>
-      <c r="I115" s="3" t="s">
+      <c r="J115" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J115" t="s">
+      <c r="K115" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>551</v>
       </c>
@@ -6601,14 +6633,14 @@
       <c r="G116" t="s">
         <v>174</v>
       </c>
-      <c r="I116" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J116" t="s">
+      <c r="K116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>552</v>
       </c>
@@ -6627,14 +6659,14 @@
       <c r="G117" t="s">
         <v>175</v>
       </c>
-      <c r="I117" s="3" t="s">
+      <c r="J117" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J117" t="s">
+      <c r="K117" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>553</v>
       </c>
@@ -6653,14 +6685,14 @@
       <c r="G118" t="s">
         <v>176</v>
       </c>
-      <c r="I118" s="3" t="s">
+      <c r="J118" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J118" t="s">
+      <c r="K118" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>554</v>
       </c>
@@ -6679,14 +6711,14 @@
       <c r="G119" t="s">
         <v>177</v>
       </c>
-      <c r="I119" s="3" t="s">
+      <c r="J119" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J119" t="s">
+      <c r="K119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>555</v>
       </c>
@@ -6705,14 +6737,14 @@
       <c r="G120" t="s">
         <v>178</v>
       </c>
-      <c r="I120" s="3" t="s">
+      <c r="J120" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J120" t="s">
+      <c r="K120" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>556</v>
       </c>
@@ -6731,14 +6763,14 @@
       <c r="G121" t="s">
         <v>179</v>
       </c>
-      <c r="I121" s="3" t="s">
+      <c r="J121" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J121" t="s">
+      <c r="K121" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>557</v>
       </c>
@@ -6757,14 +6789,14 @@
       <c r="G122" t="s">
         <v>180</v>
       </c>
-      <c r="I122" s="3" t="s">
+      <c r="J122" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>558</v>
       </c>
@@ -6783,14 +6815,14 @@
       <c r="G123" t="s">
         <v>181</v>
       </c>
-      <c r="I123" s="3" t="s">
+      <c r="J123" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>667</v>
       </c>
@@ -6809,14 +6841,14 @@
       <c r="G124" t="s">
         <v>182</v>
       </c>
-      <c r="I124" s="3" t="s">
+      <c r="J124" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>668</v>
       </c>
@@ -6835,14 +6867,14 @@
       <c r="G125" t="s">
         <v>183</v>
       </c>
-      <c r="I125" s="3" t="s">
+      <c r="J125" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>669</v>
       </c>
@@ -6861,14 +6893,14 @@
       <c r="G126" t="s">
         <v>184</v>
       </c>
-      <c r="I126" s="3" t="s">
+      <c r="J126" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>670</v>
       </c>
@@ -6887,14 +6919,14 @@
       <c r="G127" t="s">
         <v>185</v>
       </c>
-      <c r="I127" s="3" t="s">
+      <c r="J127" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J127" t="s">
+      <c r="K127" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>671</v>
       </c>
@@ -6913,17 +6945,17 @@
       <c r="G128" t="s">
         <v>218</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>72</v>
       </c>
-      <c r="I128" s="3" t="s">
+      <c r="J128" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J128" t="s">
+      <c r="K128" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>672</v>
       </c>
@@ -6942,14 +6974,14 @@
       <c r="G129" t="s">
         <v>186</v>
       </c>
-      <c r="I129" s="3" t="s">
+      <c r="J129" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J129" t="s">
+      <c r="K129" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>673</v>
       </c>
@@ -6968,14 +7000,14 @@
       <c r="G130" t="s">
         <v>187</v>
       </c>
-      <c r="I130" s="3" t="s">
+      <c r="J130" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>674</v>
       </c>
@@ -6994,14 +7026,14 @@
       <c r="G131" t="s">
         <v>188</v>
       </c>
-      <c r="I131" s="3" t="s">
+      <c r="J131" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>675</v>
       </c>
@@ -7020,17 +7052,17 @@
       <c r="G132" t="s">
         <v>219</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>72</v>
       </c>
-      <c r="I132" s="3" t="s">
+      <c r="J132" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>676</v>
       </c>
@@ -7049,14 +7081,14 @@
       <c r="G133" t="s">
         <v>189</v>
       </c>
-      <c r="I133" s="3" t="s">
+      <c r="J133" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J133" t="s">
+      <c r="K133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>677</v>
       </c>
@@ -7075,17 +7107,17 @@
       <c r="G134" t="s">
         <v>220</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>72</v>
       </c>
-      <c r="I134" s="3" t="s">
+      <c r="J134" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J134" t="s">
+      <c r="K134" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>678</v>
       </c>
@@ -7104,14 +7136,14 @@
       <c r="G135" t="s">
         <v>190</v>
       </c>
-      <c r="I135" s="3" t="s">
+      <c r="J135" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J135" t="s">
+      <c r="K135" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>679</v>
       </c>
@@ -7130,14 +7162,14 @@
       <c r="G136" t="s">
         <v>191</v>
       </c>
-      <c r="I136" s="3" t="s">
+      <c r="J136" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J136" t="s">
+      <c r="K136" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>680</v>
       </c>
@@ -7156,14 +7188,14 @@
       <c r="G137" t="s">
         <v>192</v>
       </c>
-      <c r="I137" s="3" t="s">
+      <c r="J137" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>681</v>
       </c>
@@ -7182,14 +7214,14 @@
       <c r="G138" t="s">
         <v>193</v>
       </c>
-      <c r="I138" s="3" t="s">
+      <c r="J138" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>682</v>
       </c>
@@ -7208,14 +7240,14 @@
       <c r="G139" t="s">
         <v>194</v>
       </c>
-      <c r="I139" s="3" t="s">
+      <c r="J139" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J139" t="s">
+      <c r="K139" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>683</v>
       </c>
@@ -7234,14 +7266,14 @@
       <c r="G140" t="s">
         <v>195</v>
       </c>
-      <c r="I140" s="3" t="s">
+      <c r="J140" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J140" t="s">
+      <c r="K140" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>684</v>
       </c>
@@ -7260,17 +7292,17 @@
       <c r="G141" t="s">
         <v>221</v>
       </c>
-      <c r="H141" t="s">
+      <c r="I141" t="s">
         <v>113</v>
       </c>
-      <c r="I141" s="3" t="s">
+      <c r="J141" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>685</v>
       </c>
@@ -7289,14 +7321,14 @@
       <c r="G142" t="s">
         <v>196</v>
       </c>
-      <c r="I142" s="3" t="s">
+      <c r="J142" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J142" t="s">
+      <c r="K142" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>686</v>
       </c>
@@ -7315,14 +7347,14 @@
       <c r="G143" t="s">
         <v>197</v>
       </c>
-      <c r="I143" s="3" t="s">
+      <c r="J143" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J143" t="s">
+      <c r="K143" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>687</v>
       </c>
@@ -7341,14 +7373,14 @@
       <c r="G144" t="s">
         <v>198</v>
       </c>
-      <c r="I144" s="3" t="s">
+      <c r="J144" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J144" t="s">
+      <c r="K144" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>688</v>
       </c>
@@ -7367,14 +7399,14 @@
       <c r="G145" t="s">
         <v>199</v>
       </c>
-      <c r="I145" s="3" t="s">
+      <c r="J145" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J145" t="s">
+      <c r="K145" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>689</v>
       </c>
@@ -7393,14 +7425,14 @@
       <c r="G146" t="s">
         <v>200</v>
       </c>
-      <c r="I146" s="3" t="s">
+      <c r="J146" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J146" t="s">
+      <c r="K146" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>690</v>
       </c>
@@ -7419,14 +7451,14 @@
       <c r="G147" t="s">
         <v>201</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="J147" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J147" t="s">
+      <c r="K147" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>691</v>
       </c>
@@ -7445,14 +7477,14 @@
       <c r="G148" t="s">
         <v>202</v>
       </c>
-      <c r="I148" s="3" t="s">
+      <c r="J148" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J148" t="s">
+      <c r="K148" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>692</v>
       </c>
@@ -7471,14 +7503,14 @@
       <c r="G149" t="s">
         <v>203</v>
       </c>
-      <c r="I149" s="3" t="s">
+      <c r="J149" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J149" t="s">
+      <c r="K149" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>693</v>
       </c>
@@ -7497,14 +7529,14 @@
       <c r="G150" t="s">
         <v>204</v>
       </c>
-      <c r="I150" s="3" t="s">
+      <c r="J150" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J150" t="s">
+      <c r="K150" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>694</v>
       </c>
@@ -7523,17 +7555,17 @@
       <c r="G151" t="s">
         <v>224</v>
       </c>
-      <c r="H151" t="s">
+      <c r="I151" t="s">
         <v>72</v>
       </c>
-      <c r="I151" s="3" t="s">
+      <c r="J151" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J151" t="s">
+      <c r="K151" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>695</v>
       </c>
@@ -7552,14 +7584,14 @@
       <c r="G152" t="s">
         <v>205</v>
       </c>
-      <c r="I152" s="3" t="s">
+      <c r="J152" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J152" t="s">
+      <c r="K152" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>696</v>
       </c>
@@ -7578,14 +7610,14 @@
       <c r="G153" t="s">
         <v>206</v>
       </c>
-      <c r="I153" s="3" t="s">
+      <c r="J153" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J153" t="s">
+      <c r="K153" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>697</v>
       </c>
@@ -7604,17 +7636,17 @@
       <c r="G154" t="s">
         <v>223</v>
       </c>
-      <c r="H154" t="s">
+      <c r="I154" t="s">
         <v>72</v>
       </c>
-      <c r="I154" s="3" t="s">
+      <c r="J154" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J154" t="s">
+      <c r="K154" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>698</v>
       </c>
@@ -7633,14 +7665,14 @@
       <c r="G155" t="s">
         <v>207</v>
       </c>
-      <c r="I155" s="3" t="s">
+      <c r="J155" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J155" t="s">
+      <c r="K155" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>699</v>
       </c>
@@ -7659,14 +7691,14 @@
       <c r="G156" t="s">
         <v>208</v>
       </c>
-      <c r="I156" s="3" t="s">
+      <c r="J156" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J156" t="s">
+      <c r="K156" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>700</v>
       </c>
@@ -7685,17 +7717,17 @@
       <c r="G157" t="s">
         <v>222</v>
       </c>
-      <c r="H157" t="s">
+      <c r="I157" t="s">
         <v>72</v>
       </c>
-      <c r="I157" s="3" t="s">
+      <c r="J157" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J157" t="s">
+      <c r="K157" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>701</v>
       </c>
@@ -7714,14 +7746,14 @@
       <c r="G158" t="s">
         <v>209</v>
       </c>
-      <c r="I158" s="3" t="s">
+      <c r="J158" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J158" t="s">
+      <c r="K158" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>702</v>
       </c>
@@ -7740,14 +7772,14 @@
       <c r="G159" t="s">
         <v>210</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="J159" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J159" t="s">
+      <c r="K159" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>703</v>
       </c>
@@ -7766,14 +7798,14 @@
       <c r="G160" t="s">
         <v>211</v>
       </c>
-      <c r="I160" s="3" t="s">
+      <c r="J160" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J160" t="s">
+      <c r="K160" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>704</v>
       </c>
@@ -7792,14 +7824,14 @@
       <c r="G161" t="s">
         <v>212</v>
       </c>
-      <c r="I161" s="3" t="s">
+      <c r="J161" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J161" t="s">
+      <c r="K161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>705</v>
       </c>
@@ -7818,14 +7850,14 @@
       <c r="G162" t="s">
         <v>213</v>
       </c>
-      <c r="I162" s="3" t="s">
+      <c r="J162" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J162" t="s">
+      <c r="K162" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>706</v>
       </c>
@@ -7844,14 +7876,14 @@
       <c r="G163" t="s">
         <v>214</v>
       </c>
-      <c r="I163" s="3" t="s">
+      <c r="J163" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J163" t="s">
+      <c r="K163" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>707</v>
       </c>
@@ -7870,14 +7902,14 @@
       <c r="G164" t="s">
         <v>248</v>
       </c>
-      <c r="H164" t="s">
+      <c r="I164" t="s">
         <v>230</v>
       </c>
-      <c r="I164" s="3" t="s">
+      <c r="J164" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>708</v>
       </c>
@@ -7896,14 +7928,14 @@
       <c r="G165" t="s">
         <v>249</v>
       </c>
-      <c r="H165" t="s">
+      <c r="I165" t="s">
         <v>231</v>
       </c>
-      <c r="I165" s="3" t="s">
+      <c r="J165" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>709</v>
       </c>
@@ -7922,14 +7954,14 @@
       <c r="G166" t="s">
         <v>250</v>
       </c>
-      <c r="H166" t="s">
+      <c r="I166" t="s">
         <v>230</v>
       </c>
-      <c r="I166" s="3" t="s">
+      <c r="J166" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>710</v>
       </c>
@@ -7948,14 +7980,14 @@
       <c r="G167" t="s">
         <v>251</v>
       </c>
-      <c r="H167" t="s">
+      <c r="I167" t="s">
         <v>232</v>
       </c>
-      <c r="I167" s="3" t="s">
+      <c r="J167" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>711</v>
       </c>
@@ -7974,14 +8006,14 @@
       <c r="G168" t="s">
         <v>88</v>
       </c>
-      <c r="H168" t="s">
+      <c r="I168" t="s">
         <v>38</v>
       </c>
-      <c r="I168" s="3" t="s">
+      <c r="J168" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>712</v>
       </c>
@@ -8000,14 +8032,14 @@
       <c r="G169" t="s">
         <v>252</v>
       </c>
-      <c r="H169" t="s">
+      <c r="I169" t="s">
         <v>233</v>
       </c>
-      <c r="I169" s="3" t="s">
+      <c r="J169" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>713</v>
       </c>
@@ -8026,14 +8058,14 @@
       <c r="G170" t="s">
         <v>253</v>
       </c>
-      <c r="H170" t="s">
+      <c r="I170" t="s">
         <v>234</v>
       </c>
-      <c r="I170" s="3" t="s">
+      <c r="J170" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>714</v>
       </c>
@@ -8052,14 +8084,14 @@
       <c r="G171" t="s">
         <v>254</v>
       </c>
-      <c r="H171" t="s">
+      <c r="I171" t="s">
         <v>227</v>
       </c>
-      <c r="I171" s="3" t="s">
+      <c r="J171" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>715</v>
       </c>
@@ -8078,14 +8110,14 @@
       <c r="G172" t="s">
         <v>255</v>
       </c>
-      <c r="H172" t="s">
+      <c r="I172" t="s">
         <v>228</v>
       </c>
-      <c r="I172" s="3" t="s">
+      <c r="J172" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>716</v>
       </c>
@@ -8104,14 +8136,14 @@
       <c r="G173" t="s">
         <v>256</v>
       </c>
-      <c r="H173" t="s">
+      <c r="I173" t="s">
         <v>235</v>
       </c>
-      <c r="I173" s="3" t="s">
+      <c r="J173" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>717</v>
       </c>
@@ -8130,14 +8162,14 @@
       <c r="G174" t="s">
         <v>257</v>
       </c>
-      <c r="H174" t="s">
+      <c r="I174" t="s">
         <v>236</v>
       </c>
-      <c r="I174" s="3" t="s">
+      <c r="J174" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>718</v>
       </c>
@@ -8156,14 +8188,14 @@
       <c r="G175" t="s">
         <v>258</v>
       </c>
-      <c r="H175" t="s">
+      <c r="I175" t="s">
         <v>230</v>
       </c>
-      <c r="I175" s="3" t="s">
+      <c r="J175" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>719</v>
       </c>
@@ -8182,14 +8214,14 @@
       <c r="G176" t="s">
         <v>259</v>
       </c>
-      <c r="H176" t="s">
+      <c r="I176" t="s">
         <v>237</v>
       </c>
-      <c r="I176" s="3" t="s">
+      <c r="J176" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>720</v>
       </c>
@@ -8208,14 +8240,14 @@
       <c r="G177" t="s">
         <v>260</v>
       </c>
-      <c r="H177" t="s">
+      <c r="I177" t="s">
         <v>229</v>
       </c>
-      <c r="I177" s="3" t="s">
+      <c r="J177" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>721</v>
       </c>
@@ -8234,14 +8266,14 @@
       <c r="G178" t="s">
         <v>261</v>
       </c>
-      <c r="H178" t="s">
+      <c r="I178" t="s">
         <v>238</v>
       </c>
-      <c r="I178" s="3" t="s">
+      <c r="J178" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>722</v>
       </c>
@@ -8260,14 +8292,14 @@
       <c r="G179" t="s">
         <v>262</v>
       </c>
-      <c r="H179" t="s">
+      <c r="I179" t="s">
         <v>239</v>
       </c>
-      <c r="I179" s="3" t="s">
+      <c r="J179" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>723</v>
       </c>
@@ -8286,14 +8318,14 @@
       <c r="G180" t="s">
         <v>263</v>
       </c>
-      <c r="H180" t="s">
+      <c r="I180" t="s">
         <v>240</v>
       </c>
-      <c r="I180" s="3" t="s">
+      <c r="J180" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>724</v>
       </c>
@@ -8312,14 +8344,14 @@
       <c r="G181" t="s">
         <v>264</v>
       </c>
-      <c r="H181" t="s">
+      <c r="I181" t="s">
         <v>241</v>
       </c>
-      <c r="I181" s="3" t="s">
+      <c r="J181" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>725</v>
       </c>
@@ -8338,14 +8370,14 @@
       <c r="G182" t="s">
         <v>265</v>
       </c>
-      <c r="H182" t="s">
+      <c r="I182" t="s">
         <v>242</v>
       </c>
-      <c r="I182" s="3" t="s">
+      <c r="J182" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>726</v>
       </c>
@@ -8364,14 +8396,14 @@
       <c r="G183" t="s">
         <v>266</v>
       </c>
-      <c r="H183" t="s">
+      <c r="I183" t="s">
         <v>239</v>
       </c>
-      <c r="I183" s="3" t="s">
+      <c r="J183" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>727</v>
       </c>
@@ -8390,14 +8422,14 @@
       <c r="G184" t="s">
         <v>267</v>
       </c>
-      <c r="H184" t="s">
+      <c r="I184" t="s">
         <v>243</v>
       </c>
-      <c r="I184" s="3" t="s">
+      <c r="J184" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>728</v>
       </c>
@@ -8416,14 +8448,14 @@
       <c r="G185" t="s">
         <v>268</v>
       </c>
-      <c r="H185" t="s">
+      <c r="I185" t="s">
         <v>244</v>
       </c>
-      <c r="I185" s="3" t="s">
+      <c r="J185" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>729</v>
       </c>
@@ -8442,14 +8474,14 @@
       <c r="G186" t="s">
         <v>269</v>
       </c>
-      <c r="H186" t="s">
+      <c r="I186" t="s">
         <v>230</v>
       </c>
-      <c r="I186" s="3" t="s">
+      <c r="J186" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>730</v>
       </c>
@@ -8468,14 +8500,14 @@
       <c r="G187" t="s">
         <v>270</v>
       </c>
-      <c r="H187" t="s">
+      <c r="I187" t="s">
         <v>245</v>
       </c>
-      <c r="I187" s="3" t="s">
+      <c r="J187" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>731</v>
       </c>
@@ -8494,14 +8526,14 @@
       <c r="G188" t="s">
         <v>271</v>
       </c>
-      <c r="H188" t="s">
+      <c r="I188" t="s">
         <v>246</v>
       </c>
-      <c r="I188" s="3" t="s">
+      <c r="J188" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>732</v>
       </c>
@@ -8520,14 +8552,14 @@
       <c r="G189" t="s">
         <v>247</v>
       </c>
-      <c r="H189" t="s">
+      <c r="I189" t="s">
         <v>230</v>
       </c>
-      <c r="I189" s="3" t="s">
+      <c r="J189" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>733</v>
       </c>
@@ -8549,20 +8581,20 @@
       <c r="G190" t="s">
         <v>273</v>
       </c>
-      <c r="I190" s="3" t="s">
+      <c r="J190" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="J190" t="s">
+      <c r="K190" t="s">
         <v>281</v>
       </c>
-      <c r="K190" t="s">
+      <c r="L190" t="s">
         <v>29</v>
       </c>
-      <c r="M190" t="s">
+      <c r="N190" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>734</v>
       </c>
@@ -8585,16 +8617,19 @@
         <v>278</v>
       </c>
       <c r="H191" t="s">
+        <v>938</v>
+      </c>
+      <c r="I191" t="s">
         <v>279</v>
       </c>
-      <c r="I191" s="3" t="s">
+      <c r="J191" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J191" t="s">
+      <c r="K191" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>735</v>
       </c>
@@ -8616,14 +8651,14 @@
       <c r="G192" t="s">
         <v>282</v>
       </c>
-      <c r="I192" s="3" t="s">
+      <c r="J192" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J192" t="s">
+      <c r="K192" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>736</v>
       </c>
@@ -8645,14 +8680,14 @@
       <c r="G193" t="s">
         <v>284</v>
       </c>
-      <c r="I193" s="3" t="s">
+      <c r="J193" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="J193" t="s">
+      <c r="K193" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>737</v>
       </c>
@@ -8674,14 +8709,14 @@
       <c r="G194" t="s">
         <v>286</v>
       </c>
-      <c r="I194" s="3" t="s">
+      <c r="J194" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J194" t="s">
+      <c r="K194" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>738</v>
       </c>
@@ -8703,14 +8738,14 @@
       <c r="G195" t="s">
         <v>287</v>
       </c>
-      <c r="I195" s="3" t="s">
+      <c r="J195" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="J195" t="s">
+      <c r="K195" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>739</v>
       </c>
@@ -8732,14 +8767,14 @@
       <c r="G196" t="s">
         <v>290</v>
       </c>
-      <c r="H196" t="s">
+      <c r="I196" t="s">
         <v>306</v>
       </c>
-      <c r="I196" s="3" t="s">
+      <c r="J196" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>740</v>
       </c>
@@ -8761,11 +8796,11 @@
       <c r="G197" t="s">
         <v>291</v>
       </c>
-      <c r="I197" s="3" t="s">
+      <c r="J197" s="3" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>741</v>
       </c>
@@ -8787,11 +8822,11 @@
       <c r="G198" t="s">
         <v>293</v>
       </c>
-      <c r="I198" s="3" t="s">
+      <c r="J198" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>742</v>
       </c>
@@ -8813,11 +8848,11 @@
       <c r="G199" t="s">
         <v>294</v>
       </c>
-      <c r="I199" s="3" t="s">
+      <c r="J199" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>743</v>
       </c>
@@ -8839,11 +8874,11 @@
       <c r="G200" t="s">
         <v>296</v>
       </c>
-      <c r="I200" s="3" t="s">
+      <c r="J200" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>744</v>
       </c>
@@ -8862,11 +8897,11 @@
       <c r="G201" t="s">
         <v>297</v>
       </c>
-      <c r="I201" s="3" t="s">
+      <c r="J201" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>745</v>
       </c>
@@ -8885,11 +8920,11 @@
       <c r="G202" t="s">
         <v>298</v>
       </c>
-      <c r="I202" s="3" t="s">
+      <c r="J202" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>746</v>
       </c>
@@ -8908,11 +8943,11 @@
       <c r="G203" t="s">
         <v>299</v>
       </c>
-      <c r="I203" s="3" t="s">
+      <c r="J203" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>747</v>
       </c>
@@ -8931,11 +8966,11 @@
       <c r="G204" t="s">
         <v>300</v>
       </c>
-      <c r="I204" s="3" t="s">
+      <c r="J204" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>748</v>
       </c>
@@ -8954,11 +8989,11 @@
       <c r="G205" t="s">
         <v>301</v>
       </c>
-      <c r="I205" s="3" t="s">
+      <c r="J205" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>749</v>
       </c>
@@ -8977,11 +9012,11 @@
       <c r="G206" t="s">
         <v>302</v>
       </c>
-      <c r="I206" s="3" t="s">
+      <c r="J206" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>750</v>
       </c>
@@ -9000,11 +9035,11 @@
       <c r="G207" t="s">
         <v>303</v>
       </c>
-      <c r="I207" s="3" t="s">
+      <c r="J207" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>751</v>
       </c>
@@ -9023,11 +9058,11 @@
       <c r="G208" t="s">
         <v>304</v>
       </c>
-      <c r="I208" s="3" t="s">
+      <c r="J208" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>752</v>
       </c>
@@ -9046,11 +9081,11 @@
       <c r="G209" t="s">
         <v>305</v>
       </c>
-      <c r="I209" s="3" t="s">
+      <c r="J209" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>753</v>
       </c>
@@ -9069,11 +9104,11 @@
       <c r="G210" t="s">
         <v>307</v>
       </c>
-      <c r="I210" s="3" t="s">
+      <c r="J210" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>754</v>
       </c>
@@ -9092,11 +9127,11 @@
       <c r="G211" t="s">
         <v>308</v>
       </c>
-      <c r="I211" s="3" t="s">
+      <c r="J211" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>755</v>
       </c>
@@ -9115,11 +9150,11 @@
       <c r="G212" t="s">
         <v>309</v>
       </c>
-      <c r="I212" s="3" t="s">
+      <c r="J212" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>756</v>
       </c>
@@ -9138,11 +9173,11 @@
       <c r="G213" t="s">
         <v>310</v>
       </c>
-      <c r="I213" s="3" t="s">
+      <c r="J213" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>757</v>
       </c>
@@ -9161,11 +9196,11 @@
       <c r="G214" t="s">
         <v>311</v>
       </c>
-      <c r="I214" s="3" t="s">
+      <c r="J214" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>758</v>
       </c>
@@ -9184,11 +9219,11 @@
       <c r="G215" t="s">
         <v>310</v>
       </c>
-      <c r="I215" s="3" t="s">
+      <c r="J215" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>759</v>
       </c>
@@ -9207,11 +9242,11 @@
       <c r="G216" t="s">
         <v>311</v>
       </c>
-      <c r="I216" s="3" t="s">
+      <c r="J216" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>760</v>
       </c>
@@ -9233,14 +9268,14 @@
       <c r="G217" t="s">
         <v>314</v>
       </c>
-      <c r="H217" t="s">
+      <c r="I217" t="s">
         <v>313</v>
       </c>
-      <c r="I217" s="3" t="s">
+      <c r="J217" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>761</v>
       </c>
@@ -9262,14 +9297,14 @@
       <c r="G218" t="s">
         <v>315</v>
       </c>
-      <c r="H218" t="s">
+      <c r="I218" t="s">
         <v>312</v>
       </c>
-      <c r="I218" s="3" t="s">
+      <c r="J218" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>762</v>
       </c>
@@ -9291,11 +9326,14 @@
       <c r="G219" t="s">
         <v>319</v>
       </c>
-      <c r="I219" s="3" t="s">
+      <c r="H219" t="s">
+        <v>939</v>
+      </c>
+      <c r="J219" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>763</v>
       </c>
@@ -9318,13 +9356,16 @@
         <v>320</v>
       </c>
       <c r="H220" t="s">
+        <v>939</v>
+      </c>
+      <c r="I220" t="s">
         <v>281</v>
       </c>
-      <c r="I220" s="3" t="s">
+      <c r="J220" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>764</v>
       </c>
@@ -9346,11 +9387,14 @@
       <c r="G221" t="s">
         <v>321</v>
       </c>
-      <c r="I221" s="3" t="s">
+      <c r="H221" t="s">
+        <v>939</v>
+      </c>
+      <c r="J221" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>765</v>
       </c>
@@ -9372,11 +9416,14 @@
       <c r="G222" t="s">
         <v>322</v>
       </c>
-      <c r="I222" s="3" t="s">
+      <c r="H222" t="s">
+        <v>939</v>
+      </c>
+      <c r="J222" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>766</v>
       </c>
@@ -9399,13 +9446,16 @@
         <v>323</v>
       </c>
       <c r="H223" t="s">
+        <v>939</v>
+      </c>
+      <c r="I223" t="s">
         <v>281</v>
       </c>
-      <c r="I223" s="3" t="s">
+      <c r="J223" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>767</v>
       </c>
@@ -9427,11 +9477,14 @@
       <c r="G224" t="s">
         <v>324</v>
       </c>
-      <c r="I224" s="3" t="s">
+      <c r="H224" t="s">
+        <v>939</v>
+      </c>
+      <c r="J224" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>768</v>
       </c>
@@ -9453,11 +9506,14 @@
       <c r="G225" t="s">
         <v>325</v>
       </c>
-      <c r="I225" s="3" t="s">
+      <c r="H225" t="s">
+        <v>939</v>
+      </c>
+      <c r="J225" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>769</v>
       </c>
@@ -9479,11 +9535,14 @@
       <c r="G226" t="s">
         <v>326</v>
       </c>
-      <c r="I226" s="3" t="s">
+      <c r="H226" t="s">
+        <v>939</v>
+      </c>
+      <c r="J226" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>770</v>
       </c>
@@ -9505,11 +9564,14 @@
       <c r="G227" t="s">
         <v>327</v>
       </c>
-      <c r="I227" s="3" t="s">
+      <c r="H227" t="s">
+        <v>939</v>
+      </c>
+      <c r="J227" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>771</v>
       </c>
@@ -9532,13 +9594,16 @@
         <v>328</v>
       </c>
       <c r="H228" t="s">
+        <v>939</v>
+      </c>
+      <c r="I228" t="s">
         <v>281</v>
       </c>
-      <c r="I228" s="3" t="s">
+      <c r="J228" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>772</v>
       </c>
@@ -9560,11 +9625,14 @@
       <c r="G229" t="s">
         <v>329</v>
       </c>
-      <c r="I229" s="3" t="s">
+      <c r="H229" t="s">
+        <v>939</v>
+      </c>
+      <c r="J229" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>773</v>
       </c>
@@ -9587,13 +9655,16 @@
         <v>330</v>
       </c>
       <c r="H230" t="s">
+        <v>939</v>
+      </c>
+      <c r="I230" t="s">
         <v>281</v>
       </c>
-      <c r="I230" s="3" t="s">
+      <c r="J230" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>774</v>
       </c>
@@ -9615,11 +9686,14 @@
       <c r="G231" t="s">
         <v>331</v>
       </c>
-      <c r="I231" s="3" t="s">
+      <c r="H231" t="s">
+        <v>939</v>
+      </c>
+      <c r="J231" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>775</v>
       </c>
@@ -9642,13 +9716,16 @@
         <v>332</v>
       </c>
       <c r="H232" t="s">
+        <v>939</v>
+      </c>
+      <c r="I232" t="s">
         <v>281</v>
       </c>
-      <c r="I232" s="3" t="s">
+      <c r="J232" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>776</v>
       </c>
@@ -9670,11 +9747,14 @@
       <c r="G233" t="s">
         <v>333</v>
       </c>
-      <c r="I233" s="3" t="s">
+      <c r="H233" t="s">
+        <v>939</v>
+      </c>
+      <c r="J233" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>777</v>
       </c>
@@ -9696,11 +9776,14 @@
       <c r="G234" t="s">
         <v>334</v>
       </c>
-      <c r="I234" s="3" t="s">
+      <c r="H234" t="s">
+        <v>939</v>
+      </c>
+      <c r="J234" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>778</v>
       </c>
@@ -9723,13 +9806,16 @@
         <v>336</v>
       </c>
       <c r="H235" t="s">
+        <v>940</v>
+      </c>
+      <c r="I235" t="s">
         <v>337</v>
       </c>
-      <c r="I235" s="3" t="s">
+      <c r="J235" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>779</v>
       </c>
@@ -9751,14 +9837,14 @@
       <c r="G236" t="s">
         <v>338</v>
       </c>
-      <c r="H236" t="s">
+      <c r="I236" t="s">
         <v>339</v>
       </c>
-      <c r="I236" s="3" t="s">
+      <c r="J236" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>780</v>
       </c>
@@ -9780,14 +9866,14 @@
       <c r="G237" t="s">
         <v>340</v>
       </c>
-      <c r="H237" t="s">
+      <c r="I237" t="s">
         <v>341</v>
       </c>
-      <c r="I237" s="3" t="s">
+      <c r="J237" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>781</v>
       </c>
@@ -9809,14 +9895,14 @@
       <c r="G238" t="s">
         <v>342</v>
       </c>
-      <c r="H238" t="s">
+      <c r="I238" t="s">
         <v>343</v>
       </c>
-      <c r="I238" s="3" t="s">
+      <c r="J238" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>782</v>
       </c>
@@ -9838,14 +9924,14 @@
       <c r="G239" t="s">
         <v>344</v>
       </c>
-      <c r="H239" t="s">
+      <c r="I239" t="s">
         <v>345</v>
       </c>
-      <c r="I239" s="3" t="s">
+      <c r="J239" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>783</v>
       </c>
@@ -9867,11 +9953,11 @@
       <c r="G240" t="s">
         <v>347</v>
       </c>
-      <c r="I240" s="3" t="s">
+      <c r="J240" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>784</v>
       </c>
@@ -9893,11 +9979,11 @@
       <c r="G241" t="s">
         <v>336</v>
       </c>
-      <c r="I241" s="3" t="s">
+      <c r="J241" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>785</v>
       </c>
@@ -9919,11 +10005,11 @@
       <c r="G242" t="s">
         <v>340</v>
       </c>
-      <c r="I242" s="3" t="s">
+      <c r="J242" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>786</v>
       </c>
@@ -9945,11 +10031,11 @@
       <c r="G243" t="s">
         <v>342</v>
       </c>
-      <c r="I243" s="3" t="s">
+      <c r="J243" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>787</v>
       </c>
@@ -9971,11 +10057,11 @@
       <c r="G244" t="s">
         <v>348</v>
       </c>
-      <c r="I244" s="3" t="s">
+      <c r="J244" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>788</v>
       </c>
@@ -9997,11 +10083,11 @@
       <c r="G245" t="s">
         <v>349</v>
       </c>
-      <c r="I245" s="3" t="s">
+      <c r="J245" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>789</v>
       </c>
@@ -10023,11 +10109,11 @@
       <c r="G246" t="s">
         <v>350</v>
       </c>
-      <c r="I246" s="3" t="s">
+      <c r="J246" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>790</v>
       </c>
@@ -10049,11 +10135,11 @@
       <c r="G247" t="s">
         <v>351</v>
       </c>
-      <c r="I247" s="3" t="s">
+      <c r="J247" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>791</v>
       </c>
@@ -10075,11 +10161,11 @@
       <c r="G248" t="s">
         <v>352</v>
       </c>
-      <c r="I248" s="3" t="s">
+      <c r="J248" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>792</v>
       </c>
@@ -10101,11 +10187,11 @@
       <c r="G249" t="s">
         <v>354</v>
       </c>
-      <c r="I249" s="3" t="s">
+      <c r="J249" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>793</v>
       </c>
@@ -10127,11 +10213,11 @@
       <c r="G250" t="s">
         <v>355</v>
       </c>
-      <c r="I250" s="3" t="s">
+      <c r="J250" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>794</v>
       </c>
@@ -10153,11 +10239,11 @@
       <c r="G251" t="s">
         <v>356</v>
       </c>
-      <c r="I251" s="3" t="s">
+      <c r="J251" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>795</v>
       </c>
@@ -10179,11 +10265,11 @@
       <c r="G252" t="s">
         <v>357</v>
       </c>
-      <c r="I252" s="3" t="s">
+      <c r="J252" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>796</v>
       </c>
@@ -10205,11 +10291,11 @@
       <c r="G253" t="s">
         <v>358</v>
       </c>
-      <c r="I253" s="3" t="s">
+      <c r="J253" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>797</v>
       </c>
@@ -10231,11 +10317,11 @@
       <c r="G254" t="s">
         <v>359</v>
       </c>
-      <c r="I254" s="3" t="s">
+      <c r="J254" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>798</v>
       </c>
@@ -10257,11 +10343,11 @@
       <c r="G255" t="s">
         <v>360</v>
       </c>
-      <c r="I255" s="3" t="s">
+      <c r="J255" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>799</v>
       </c>
@@ -10283,11 +10369,11 @@
       <c r="G256" t="s">
         <v>338</v>
       </c>
-      <c r="I256" s="3" t="s">
+      <c r="J256" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>800</v>
       </c>
@@ -10309,11 +10395,11 @@
       <c r="G257" t="s">
         <v>361</v>
       </c>
-      <c r="I257" s="3" t="s">
+      <c r="J257" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>801</v>
       </c>
@@ -10335,11 +10421,11 @@
       <c r="G258" t="s">
         <v>362</v>
       </c>
-      <c r="I258" s="3" t="s">
+      <c r="J258" s="3" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>802</v>
       </c>
@@ -10361,11 +10447,11 @@
       <c r="G259" t="s">
         <v>364</v>
       </c>
-      <c r="I259" s="3" t="s">
+      <c r="J259" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>803</v>
       </c>
@@ -10387,11 +10473,11 @@
       <c r="G260" t="s">
         <v>365</v>
       </c>
-      <c r="I260" s="3" t="s">
+      <c r="J260" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>804</v>
       </c>
@@ -10413,11 +10499,11 @@
       <c r="G261" t="s">
         <v>366</v>
       </c>
-      <c r="I261" s="3" t="s">
+      <c r="J261" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>805</v>
       </c>
@@ -10439,11 +10525,11 @@
       <c r="G262" t="s">
         <v>367</v>
       </c>
-      <c r="I262" s="3" t="s">
+      <c r="J262" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>806</v>
       </c>
@@ -10465,11 +10551,11 @@
       <c r="G263" t="s">
         <v>368</v>
       </c>
-      <c r="I263" s="3" t="s">
+      <c r="J263" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>807</v>
       </c>
@@ -10491,11 +10577,11 @@
       <c r="G264" t="s">
         <v>369</v>
       </c>
-      <c r="I264" s="3" t="s">
+      <c r="J264" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>808</v>
       </c>
@@ -10517,11 +10603,11 @@
       <c r="G265" t="s">
         <v>370</v>
       </c>
-      <c r="I265" s="3" t="s">
+      <c r="J265" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>809</v>
       </c>
@@ -10543,11 +10629,11 @@
       <c r="G266" t="s">
         <v>371</v>
       </c>
-      <c r="I266" s="3" t="s">
+      <c r="J266" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>810</v>
       </c>
@@ -10569,11 +10655,11 @@
       <c r="G267" t="s">
         <v>372</v>
       </c>
-      <c r="I267" s="3" t="s">
+      <c r="J267" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>811</v>
       </c>
@@ -10595,11 +10681,11 @@
       <c r="G268" t="s">
         <v>373</v>
       </c>
-      <c r="I268" s="3" t="s">
+      <c r="J268" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>812</v>
       </c>
@@ -10621,11 +10707,11 @@
       <c r="G269" t="s">
         <v>374</v>
       </c>
-      <c r="I269" s="3" t="s">
+      <c r="J269" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>813</v>
       </c>
@@ -10647,11 +10733,11 @@
       <c r="G270" t="s">
         <v>375</v>
       </c>
-      <c r="I270" s="3" t="s">
+      <c r="J270" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>814</v>
       </c>
@@ -10673,11 +10759,11 @@
       <c r="G271" t="s">
         <v>376</v>
       </c>
-      <c r="I271" s="3" t="s">
+      <c r="J271" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>815</v>
       </c>
@@ -10699,11 +10785,11 @@
       <c r="G272" t="s">
         <v>377</v>
       </c>
-      <c r="I272" s="3" t="s">
+      <c r="J272" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>816</v>
       </c>
@@ -10725,11 +10811,11 @@
       <c r="G273" t="s">
         <v>344</v>
       </c>
-      <c r="I273" s="3" t="s">
+      <c r="J273" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>817</v>
       </c>
@@ -10751,11 +10837,11 @@
       <c r="G274" t="s">
         <v>378</v>
       </c>
-      <c r="I274" s="3" t="s">
+      <c r="J274" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>818</v>
       </c>
@@ -10777,11 +10863,11 @@
       <c r="G275" t="s">
         <v>379</v>
       </c>
-      <c r="I275" s="3" t="s">
+      <c r="J275" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>819</v>
       </c>
@@ -10803,11 +10889,11 @@
       <c r="G276" t="s">
         <v>381</v>
       </c>
-      <c r="I276" s="3" t="s">
+      <c r="J276" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>820</v>
       </c>
@@ -10829,11 +10915,11 @@
       <c r="G277" t="s">
         <v>382</v>
       </c>
-      <c r="I277" s="3" t="s">
+      <c r="J277" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>821</v>
       </c>
@@ -10855,11 +10941,11 @@
       <c r="G278" t="s">
         <v>383</v>
       </c>
-      <c r="I278" s="3" t="s">
+      <c r="J278" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>822</v>
       </c>
@@ -10881,11 +10967,11 @@
       <c r="G279" t="s">
         <v>385</v>
       </c>
-      <c r="I279" s="3" t="s">
+      <c r="J279" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>823</v>
       </c>
@@ -10907,11 +10993,11 @@
       <c r="G280" t="s">
         <v>386</v>
       </c>
-      <c r="I280" s="3" t="s">
+      <c r="J280" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>824</v>
       </c>
@@ -10933,11 +11019,11 @@
       <c r="G281" t="s">
         <v>387</v>
       </c>
-      <c r="I281" s="3" t="s">
+      <c r="J281" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>825</v>
       </c>
@@ -10959,11 +11045,11 @@
       <c r="G282" t="s">
         <v>388</v>
       </c>
-      <c r="I282" s="3" t="s">
+      <c r="J282" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>826</v>
       </c>
@@ -10985,11 +11071,11 @@
       <c r="G283" t="s">
         <v>389</v>
       </c>
-      <c r="I283" s="3" t="s">
+      <c r="J283" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>827</v>
       </c>
@@ -11011,11 +11097,11 @@
       <c r="G284" t="s">
         <v>390</v>
       </c>
-      <c r="I284" s="3" t="s">
+      <c r="J284" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>828</v>
       </c>
@@ -11037,11 +11123,11 @@
       <c r="G285" t="s">
         <v>391</v>
       </c>
-      <c r="I285" s="3" t="s">
+      <c r="J285" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>829</v>
       </c>
@@ -11063,11 +11149,11 @@
       <c r="G286" t="s">
         <v>392</v>
       </c>
-      <c r="I286" s="3" t="s">
+      <c r="J286" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>830</v>
       </c>
@@ -11089,11 +11175,11 @@
       <c r="G287" t="s">
         <v>393</v>
       </c>
-      <c r="I287" s="3" t="s">
+      <c r="J287" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>831</v>
       </c>
@@ -11115,11 +11201,11 @@
       <c r="G288" t="s">
         <v>394</v>
       </c>
-      <c r="I288" s="3" t="s">
+      <c r="J288" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>832</v>
       </c>
@@ -11141,11 +11227,11 @@
       <c r="G289" t="s">
         <v>395</v>
       </c>
-      <c r="I289" s="3" t="s">
+      <c r="J289" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>833</v>
       </c>
@@ -11167,11 +11253,11 @@
       <c r="G290" t="s">
         <v>396</v>
       </c>
-      <c r="I290" s="3" t="s">
+      <c r="J290" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>834</v>
       </c>
@@ -11193,11 +11279,11 @@
       <c r="G291" t="s">
         <v>397</v>
       </c>
-      <c r="I291" s="3" t="s">
+      <c r="J291" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>835</v>
       </c>
@@ -11219,11 +11305,11 @@
       <c r="G292" t="s">
         <v>399</v>
       </c>
-      <c r="I292" s="3" t="s">
+      <c r="J292" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>836</v>
       </c>
@@ -11245,11 +11331,11 @@
       <c r="G293" t="s">
         <v>400</v>
       </c>
-      <c r="I293" s="3" t="s">
+      <c r="J293" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>837</v>
       </c>
@@ -11271,11 +11357,11 @@
       <c r="G294" t="s">
         <v>401</v>
       </c>
-      <c r="I294" s="3" t="s">
+      <c r="J294" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>838</v>
       </c>
@@ -11297,11 +11383,11 @@
       <c r="G295" t="s">
         <v>402</v>
       </c>
-      <c r="I295" s="3" t="s">
+      <c r="J295" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>839</v>
       </c>
@@ -11323,11 +11409,11 @@
       <c r="G296" t="s">
         <v>403</v>
       </c>
-      <c r="I296" s="3" t="s">
+      <c r="J296" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>840</v>
       </c>
@@ -11347,11 +11433,11 @@
       <c r="G297" t="s">
         <v>404</v>
       </c>
-      <c r="I297" s="3" t="s">
+      <c r="J297" s="3" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>841</v>
       </c>
@@ -11370,11 +11456,11 @@
       <c r="G298" t="s">
         <v>406</v>
       </c>
-      <c r="I298" s="3" t="s">
+      <c r="J298" s="3" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>842</v>
       </c>
@@ -11393,11 +11479,11 @@
       <c r="G299" t="s">
         <v>407</v>
       </c>
-      <c r="I299" s="3" t="s">
+      <c r="J299" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>843</v>
       </c>
@@ -11416,11 +11502,11 @@
       <c r="G300" t="s">
         <v>408</v>
       </c>
-      <c r="I300" s="3" t="s">
+      <c r="J300" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>844</v>
       </c>
@@ -11439,11 +11525,11 @@
       <c r="G301" t="s">
         <v>409</v>
       </c>
-      <c r="I301" s="3" t="s">
+      <c r="J301" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>845</v>
       </c>
@@ -11462,11 +11548,11 @@
       <c r="G302" t="s">
         <v>410</v>
       </c>
-      <c r="I302" s="3" t="s">
+      <c r="J302" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>846</v>
       </c>
@@ -11485,11 +11571,11 @@
       <c r="G303" t="s">
         <v>411</v>
       </c>
-      <c r="I303" s="3" t="s">
+      <c r="J303" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>847</v>
       </c>
@@ -11508,11 +11594,11 @@
       <c r="G304" t="s">
         <v>412</v>
       </c>
-      <c r="I304" s="3" t="s">
+      <c r="J304" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>848</v>
       </c>
@@ -11531,11 +11617,11 @@
       <c r="G305" t="s">
         <v>413</v>
       </c>
-      <c r="I305" s="3" t="s">
+      <c r="J305" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>849</v>
       </c>
@@ -11554,11 +11640,11 @@
       <c r="G306" t="s">
         <v>414</v>
       </c>
-      <c r="I306" s="3" t="s">
+      <c r="J306" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>850</v>
       </c>
@@ -11577,11 +11663,11 @@
       <c r="G307" t="s">
         <v>415</v>
       </c>
-      <c r="I307" s="3" t="s">
+      <c r="J307" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>851</v>
       </c>
@@ -11600,11 +11686,11 @@
       <c r="G308" t="s">
         <v>416</v>
       </c>
-      <c r="I308" s="3" t="s">
+      <c r="J308" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>852</v>
       </c>
@@ -11623,11 +11709,11 @@
       <c r="G309" t="s">
         <v>417</v>
       </c>
-      <c r="I309" s="3" t="s">
+      <c r="J309" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>853</v>
       </c>
@@ -11646,11 +11732,11 @@
       <c r="G310" t="s">
         <v>418</v>
       </c>
-      <c r="I310" s="3" t="s">
+      <c r="J310" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>854</v>
       </c>
@@ -11669,11 +11755,11 @@
       <c r="G311" t="s">
         <v>419</v>
       </c>
-      <c r="I311" s="3" t="s">
+      <c r="J311" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>855</v>
       </c>
@@ -11692,11 +11778,11 @@
       <c r="G312" t="s">
         <v>420</v>
       </c>
-      <c r="I312" s="3" t="s">
+      <c r="J312" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>856</v>
       </c>
@@ -11715,11 +11801,11 @@
       <c r="G313" t="s">
         <v>421</v>
       </c>
-      <c r="I313" s="3" t="s">
+      <c r="J313" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>857</v>
       </c>
@@ -11738,11 +11824,11 @@
       <c r="G314" t="s">
         <v>422</v>
       </c>
-      <c r="I314" s="3" t="s">
+      <c r="J314" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>858</v>
       </c>
@@ -11761,11 +11847,11 @@
       <c r="G315" t="s">
         <v>423</v>
       </c>
-      <c r="I315" s="3" t="s">
+      <c r="J315" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>859</v>
       </c>
@@ -11784,11 +11870,11 @@
       <c r="G316" t="s">
         <v>424</v>
       </c>
-      <c r="I316" s="3" t="s">
+      <c r="J316" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>860</v>
       </c>
@@ -11807,11 +11893,11 @@
       <c r="G317" t="s">
         <v>425</v>
       </c>
-      <c r="I317" s="3" t="s">
+      <c r="J317" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>861</v>
       </c>
@@ -11830,11 +11916,11 @@
       <c r="G318" t="s">
         <v>426</v>
       </c>
-      <c r="I318" s="3" t="s">
+      <c r="J318" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>862</v>
       </c>
@@ -11853,11 +11939,11 @@
       <c r="G319" t="s">
         <v>427</v>
       </c>
-      <c r="I319" s="3" t="s">
+      <c r="J319" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>863</v>
       </c>
@@ -11876,11 +11962,11 @@
       <c r="G320" t="s">
         <v>428</v>
       </c>
-      <c r="I320" s="3" t="s">
+      <c r="J320" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>864</v>
       </c>
@@ -11899,11 +11985,11 @@
       <c r="G321" t="s">
         <v>429</v>
       </c>
-      <c r="I321" s="3" t="s">
+      <c r="J321" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>865</v>
       </c>
@@ -11922,11 +12008,11 @@
       <c r="G322" t="s">
         <v>430</v>
       </c>
-      <c r="I322" s="3" t="s">
+      <c r="J322" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>866</v>
       </c>
@@ -11945,11 +12031,11 @@
       <c r="G323" t="s">
         <v>431</v>
       </c>
-      <c r="I323" s="3" t="s">
+      <c r="J323" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>867</v>
       </c>
@@ -11968,11 +12054,11 @@
       <c r="G324" t="s">
         <v>432</v>
       </c>
-      <c r="I324" s="3" t="s">
+      <c r="J324" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>868</v>
       </c>
@@ -11991,11 +12077,11 @@
       <c r="G325" t="s">
         <v>433</v>
       </c>
-      <c r="I325" s="3" t="s">
+      <c r="J325" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>869</v>
       </c>
@@ -12014,11 +12100,11 @@
       <c r="G326" t="s">
         <v>434</v>
       </c>
-      <c r="I326" s="3" t="s">
+      <c r="J326" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>870</v>
       </c>
@@ -12037,11 +12123,11 @@
       <c r="G327" t="s">
         <v>435</v>
       </c>
-      <c r="I327" s="3" t="s">
+      <c r="J327" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>871</v>
       </c>
@@ -12060,11 +12146,11 @@
       <c r="G328" t="s">
         <v>436</v>
       </c>
-      <c r="I328" s="3" t="s">
+      <c r="J328" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>872</v>
       </c>
@@ -12083,11 +12169,11 @@
       <c r="G329" t="s">
         <v>437</v>
       </c>
-      <c r="I329" s="3" t="s">
+      <c r="J329" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>873</v>
       </c>
@@ -12106,11 +12192,11 @@
       <c r="G330" t="s">
         <v>438</v>
       </c>
-      <c r="I330" s="3" t="s">
+      <c r="J330" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>874</v>
       </c>
@@ -12129,11 +12215,11 @@
       <c r="G331" t="s">
         <v>439</v>
       </c>
-      <c r="I331" s="3" t="s">
+      <c r="J331" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>875</v>
       </c>
@@ -12152,11 +12238,11 @@
       <c r="G332" t="s">
         <v>440</v>
       </c>
-      <c r="I332" s="3" t="s">
+      <c r="J332" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>876</v>
       </c>
@@ -12175,11 +12261,11 @@
       <c r="G333" t="s">
         <v>441</v>
       </c>
-      <c r="I333" s="3" t="s">
+      <c r="J333" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>877</v>
       </c>
@@ -12198,11 +12284,11 @@
       <c r="G334" t="s">
         <v>442</v>
       </c>
-      <c r="I334" s="3" t="s">
+      <c r="J334" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>878</v>
       </c>
@@ -12221,11 +12307,11 @@
       <c r="G335" t="s">
         <v>443</v>
       </c>
-      <c r="I335" s="3" t="s">
+      <c r="J335" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>879</v>
       </c>
@@ -12244,11 +12330,11 @@
       <c r="G336" t="s">
         <v>444</v>
       </c>
-      <c r="I336" s="3" t="s">
+      <c r="J336" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>880</v>
       </c>
@@ -12267,11 +12353,11 @@
       <c r="G337" t="s">
         <v>445</v>
       </c>
-      <c r="I337" s="3" t="s">
+      <c r="J337" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>881</v>
       </c>
@@ -12290,11 +12376,11 @@
       <c r="G338" t="s">
         <v>446</v>
       </c>
-      <c r="I338" s="3" t="s">
+      <c r="J338" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>882</v>
       </c>
@@ -12313,11 +12399,11 @@
       <c r="G339" t="s">
         <v>447</v>
       </c>
-      <c r="I339" s="3" t="s">
+      <c r="J339" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>883</v>
       </c>
@@ -12336,11 +12422,11 @@
       <c r="G340" t="s">
         <v>448</v>
       </c>
-      <c r="I340" s="3" t="s">
+      <c r="J340" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>884</v>
       </c>
@@ -12359,11 +12445,11 @@
       <c r="G341" t="s">
         <v>449</v>
       </c>
-      <c r="I341" s="3" t="s">
+      <c r="J341" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>885</v>
       </c>
@@ -12382,11 +12468,11 @@
       <c r="G342" t="s">
         <v>450</v>
       </c>
-      <c r="I342" s="3" t="s">
+      <c r="J342" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>886</v>
       </c>
@@ -12405,11 +12491,11 @@
       <c r="G343" t="s">
         <v>451</v>
       </c>
-      <c r="I343" s="3" t="s">
+      <c r="J343" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>887</v>
       </c>
@@ -12428,11 +12514,11 @@
       <c r="G344" t="s">
         <v>452</v>
       </c>
-      <c r="I344" s="3" t="s">
+      <c r="J344" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>888</v>
       </c>
@@ -12451,11 +12537,11 @@
       <c r="G345" t="s">
         <v>453</v>
       </c>
-      <c r="I345" s="3" t="s">
+      <c r="J345" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>889</v>
       </c>
@@ -12474,11 +12560,11 @@
       <c r="G346" t="s">
         <v>454</v>
       </c>
-      <c r="I346" s="3" t="s">
+      <c r="J346" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>890</v>
       </c>
@@ -12497,11 +12583,11 @@
       <c r="G347" t="s">
         <v>455</v>
       </c>
-      <c r="I347" s="3" t="s">
+      <c r="J347" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>891</v>
       </c>
@@ -12520,11 +12606,11 @@
       <c r="G348" t="s">
         <v>456</v>
       </c>
-      <c r="I348" s="3" t="s">
+      <c r="J348" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>892</v>
       </c>
@@ -12543,11 +12629,11 @@
       <c r="G349" t="s">
         <v>457</v>
       </c>
-      <c r="I349" s="3" t="s">
+      <c r="J349" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>893</v>
       </c>
@@ -12566,11 +12652,11 @@
       <c r="G350" t="s">
         <v>458</v>
       </c>
-      <c r="I350" s="3" t="s">
+      <c r="J350" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>894</v>
       </c>
@@ -12589,11 +12675,11 @@
       <c r="G351" t="s">
         <v>459</v>
       </c>
-      <c r="I351" s="3" t="s">
+      <c r="J351" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>895</v>
       </c>
@@ -12612,11 +12698,11 @@
       <c r="G352" t="s">
         <v>460</v>
       </c>
-      <c r="I352" s="3" t="s">
+      <c r="J352" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>896</v>
       </c>
@@ -12635,11 +12721,11 @@
       <c r="G353" t="s">
         <v>461</v>
       </c>
-      <c r="I353" s="3" t="s">
+      <c r="J353" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>897</v>
       </c>
@@ -12658,11 +12744,11 @@
       <c r="G354" t="s">
         <v>462</v>
       </c>
-      <c r="I354" s="3" t="s">
+      <c r="J354" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>898</v>
       </c>
@@ -12681,14 +12767,14 @@
       <c r="G355" t="s">
         <v>465</v>
       </c>
-      <c r="H355" t="s">
+      <c r="I355" t="s">
         <v>464</v>
       </c>
-      <c r="I355" s="3" t="s">
+      <c r="J355" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>899</v>
       </c>
@@ -12707,14 +12793,14 @@
       <c r="G356" t="s">
         <v>466</v>
       </c>
-      <c r="H356" t="s">
+      <c r="I356" t="s">
         <v>312</v>
       </c>
-      <c r="I356" s="3" t="s">
+      <c r="J356" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>900</v>
       </c>
@@ -12733,14 +12819,14 @@
       <c r="G357" t="s">
         <v>467</v>
       </c>
-      <c r="H357" t="s">
+      <c r="I357" t="s">
         <v>312</v>
       </c>
-      <c r="I357" s="3" t="s">
+      <c r="J357" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>901</v>
       </c>
@@ -12759,14 +12845,14 @@
       <c r="G358" t="s">
         <v>468</v>
       </c>
-      <c r="H358" t="s">
+      <c r="I358" t="s">
         <v>312</v>
       </c>
-      <c r="I358" s="3" t="s">
+      <c r="J358" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>902</v>
       </c>
@@ -12785,14 +12871,14 @@
       <c r="G359" t="s">
         <v>469</v>
       </c>
-      <c r="H359" t="s">
+      <c r="I359" t="s">
         <v>312</v>
       </c>
-      <c r="I359" s="3" t="s">
+      <c r="J359" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>903</v>
       </c>
@@ -12811,14 +12897,14 @@
       <c r="G360" t="s">
         <v>470</v>
       </c>
-      <c r="H360" t="s">
+      <c r="I360" t="s">
         <v>312</v>
       </c>
-      <c r="I360" s="3" t="s">
+      <c r="J360" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>904</v>
       </c>
@@ -12837,11 +12923,14 @@
       <c r="G361" t="s">
         <v>476</v>
       </c>
-      <c r="I361" s="3" t="s">
+      <c r="H361" t="s">
+        <v>941</v>
+      </c>
+      <c r="J361" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>905</v>
       </c>
@@ -12860,11 +12949,11 @@
       <c r="G362" t="s">
         <v>478</v>
       </c>
-      <c r="I362" s="3" t="s">
+      <c r="J362" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>906</v>
       </c>
@@ -12883,11 +12972,11 @@
       <c r="G363" t="s">
         <v>479</v>
       </c>
-      <c r="I363" s="3" t="s">
+      <c r="J363" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>907</v>
       </c>
@@ -12906,11 +12995,11 @@
       <c r="G364" t="s">
         <v>481</v>
       </c>
-      <c r="I364" s="3" t="s">
+      <c r="J364" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>908</v>
       </c>
@@ -12929,11 +13018,11 @@
       <c r="G365" t="s">
         <v>482</v>
       </c>
-      <c r="I365" s="3" t="s">
+      <c r="J365" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>909</v>
       </c>
@@ -12952,11 +13041,11 @@
       <c r="G366" t="s">
         <v>483</v>
       </c>
-      <c r="I366" s="3" t="s">
+      <c r="J366" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>910</v>
       </c>
@@ -12975,11 +13064,11 @@
       <c r="G367" t="s">
         <v>484</v>
       </c>
-      <c r="I367" s="3" t="s">
+      <c r="J367" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>911</v>
       </c>
@@ -12998,11 +13087,11 @@
       <c r="G368" t="s">
         <v>485</v>
       </c>
-      <c r="I368" s="3" t="s">
+      <c r="J368" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>912</v>
       </c>
@@ -13021,11 +13110,11 @@
       <c r="G369" t="s">
         <v>486</v>
       </c>
-      <c r="I369" s="3" t="s">
+      <c r="J369" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>913</v>
       </c>
@@ -13044,11 +13133,11 @@
       <c r="G370" t="s">
         <v>487</v>
       </c>
-      <c r="I370" s="3" t="s">
+      <c r="J370" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>914</v>
       </c>
@@ -13067,11 +13156,11 @@
       <c r="G371" t="s">
         <v>488</v>
       </c>
-      <c r="I371" s="3" t="s">
+      <c r="J371" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>915</v>
       </c>
@@ -13090,11 +13179,11 @@
       <c r="G372" t="s">
         <v>489</v>
       </c>
-      <c r="I372" s="3" t="s">
+      <c r="J372" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>916</v>
       </c>
@@ -13113,11 +13202,11 @@
       <c r="G373" t="s">
         <v>490</v>
       </c>
-      <c r="I373" s="3" t="s">
+      <c r="J373" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>917</v>
       </c>
@@ -13136,11 +13225,11 @@
       <c r="G374" t="s">
         <v>491</v>
       </c>
-      <c r="I374" s="3" t="s">
+      <c r="J374" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>918</v>
       </c>
@@ -13159,11 +13248,11 @@
       <c r="G375" t="s">
         <v>492</v>
       </c>
-      <c r="I375" s="3" t="s">
+      <c r="J375" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>919</v>
       </c>
@@ -13182,11 +13271,11 @@
       <c r="G376" t="s">
         <v>493</v>
       </c>
-      <c r="I376" s="3" t="s">
+      <c r="J376" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>920</v>
       </c>
@@ -13205,11 +13294,11 @@
       <c r="G377" t="s">
         <v>494</v>
       </c>
-      <c r="I377" s="3" t="s">
+      <c r="J377" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>921</v>
       </c>
@@ -13228,11 +13317,11 @@
       <c r="G378" t="s">
         <v>495</v>
       </c>
-      <c r="I378" s="3" t="s">
+      <c r="J378" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>922</v>
       </c>
@@ -13251,11 +13340,11 @@
       <c r="G379" t="s">
         <v>496</v>
       </c>
-      <c r="I379" s="3" t="s">
+      <c r="J379" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>923</v>
       </c>
@@ -13274,11 +13363,11 @@
       <c r="G380" t="s">
         <v>497</v>
       </c>
-      <c r="I380" s="3" t="s">
+      <c r="J380" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>924</v>
       </c>
@@ -13297,11 +13386,11 @@
       <c r="G381" t="s">
         <v>498</v>
       </c>
-      <c r="I381" s="3" t="s">
+      <c r="J381" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>925</v>
       </c>
@@ -13320,11 +13409,11 @@
       <c r="G382" t="s">
         <v>499</v>
       </c>
-      <c r="I382" s="3" t="s">
+      <c r="J382" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>926</v>
       </c>
@@ -13343,11 +13432,11 @@
       <c r="G383" t="s">
         <v>500</v>
       </c>
-      <c r="I383" s="3" t="s">
+      <c r="J383" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>927</v>
       </c>
@@ -13366,11 +13455,11 @@
       <c r="G384" t="s">
         <v>501</v>
       </c>
-      <c r="I384" s="3" t="s">
+      <c r="J384" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>928</v>
       </c>
@@ -13389,11 +13478,11 @@
       <c r="G385" t="s">
         <v>502</v>
       </c>
-      <c r="I385" s="3" t="s">
+      <c r="J385" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>929</v>
       </c>
@@ -13412,11 +13501,11 @@
       <c r="G386" t="s">
         <v>503</v>
       </c>
-      <c r="I386" s="3" t="s">
+      <c r="J386" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>930</v>
       </c>
@@ -13435,11 +13524,11 @@
       <c r="G387" t="s">
         <v>504</v>
       </c>
-      <c r="I387" s="3" t="s">
+      <c r="J387" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>931</v>
       </c>
@@ -13458,7 +13547,7 @@
       <c r="G388" t="s">
         <v>505</v>
       </c>
-      <c r="I388" s="3" t="s">
+      <c r="J388" s="3" t="s">
         <v>225</v>
       </c>
     </row>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E164497C-1860-4549-A2BF-879C46FBFDA1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8E122-ED16-4225-9785-BBC3D7A005BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="22575" windowHeight="12270" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_data" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3033" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="942">
   <si>
     <t>institution</t>
   </si>
@@ -3257,19 +3258,19 @@
   <dimension ref="A1:P388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D361" sqref="D361"/>
+      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F341" sqref="F341"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>544</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>559</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>560</v>
       </c>
@@ -3383,7 +3384,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>561</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>562</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>563</v>
       </c>
@@ -3467,7 +3468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>564</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>565</v>
       </c>
@@ -3522,7 +3523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>566</v>
       </c>
@@ -3554,7 +3555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>567</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>569</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>568</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>570</v>
       </c>
@@ -3667,7 +3668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>571</v>
       </c>
@@ -3696,7 +3697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>572</v>
       </c>
@@ -3725,7 +3726,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>573</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>574</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>575</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>576</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>577</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>578</v>
       </c>
@@ -3908,7 +3909,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>579</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>580</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>581</v>
       </c>
@@ -3998,7 +3999,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>582</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>583</v>
       </c>
@@ -4056,7 +4057,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>584</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>585</v>
       </c>
@@ -4114,7 +4115,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>586</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>587</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>588</v>
       </c>
@@ -4201,7 +4202,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>589</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>590</v>
       </c>
@@ -4259,7 +4260,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>591</v>
       </c>
@@ -4288,7 +4289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>592</v>
       </c>
@@ -4317,7 +4318,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>593</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>594</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>595</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>596</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>597</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>598</v>
       </c>
@@ -4500,7 +4501,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>599</v>
       </c>
@@ -4529,7 +4530,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>600</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>601</v>
       </c>
@@ -4596,7 +4597,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>602</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>603</v>
       </c>
@@ -4654,7 +4655,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>604</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>605</v>
       </c>
@@ -4712,7 +4713,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>606</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>607</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>608</v>
       </c>
@@ -4799,7 +4800,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>609</v>
       </c>
@@ -4831,7 +4832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>610</v>
       </c>
@@ -4860,7 +4861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>611</v>
       </c>
@@ -4889,7 +4890,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>612</v>
       </c>
@@ -4918,7 +4919,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>613</v>
       </c>
@@ -4944,7 +4945,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>614</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>615</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>616</v>
       </c>
@@ -5028,7 +5029,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>617</v>
       </c>
@@ -5054,7 +5055,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>618</v>
       </c>
@@ -5083,7 +5084,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>619</v>
       </c>
@@ -5112,7 +5113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>620</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>621</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>622</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>623</v>
       </c>
@@ -5228,7 +5229,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>624</v>
       </c>
@@ -5257,7 +5258,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>625</v>
       </c>
@@ -5289,7 +5290,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>626</v>
       </c>
@@ -5318,7 +5319,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>627</v>
       </c>
@@ -5347,7 +5348,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>628</v>
       </c>
@@ -5373,7 +5374,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>629</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>630</v>
       </c>
@@ -5431,7 +5432,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>631</v>
       </c>
@@ -5460,7 +5461,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>632</v>
       </c>
@@ -5489,7 +5490,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>633</v>
       </c>
@@ -5515,7 +5516,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>634</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>635</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>636</v>
       </c>
@@ -5599,7 +5600,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>637</v>
       </c>
@@ -5628,7 +5629,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>638</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>639</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>640</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>641</v>
       </c>
@@ -5744,7 +5745,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>642</v>
       </c>
@@ -5773,7 +5774,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>643</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>644</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>645</v>
       </c>
@@ -5863,7 +5864,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>646</v>
       </c>
@@ -5892,7 +5893,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>647</v>
       </c>
@@ -5918,7 +5919,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>648</v>
       </c>
@@ -5947,7 +5948,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>649</v>
       </c>
@@ -5976,7 +5977,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>650</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>651</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>652</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>653</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>654</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>655</v>
       </c>
@@ -6150,7 +6151,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>656</v>
       </c>
@@ -6179,7 +6180,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>657</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>658</v>
       </c>
@@ -6238,7 +6239,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>659</v>
       </c>
@@ -6264,7 +6265,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>660</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>661</v>
       </c>
@@ -6316,7 +6317,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>662</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>663</v>
       </c>
@@ -6368,7 +6369,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>664</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>665</v>
       </c>
@@ -6420,7 +6421,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>666</v>
       </c>
@@ -6449,7 +6450,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>545</v>
       </c>
@@ -6475,7 +6476,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>546</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>547</v>
       </c>
@@ -6527,7 +6528,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>548</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>549</v>
       </c>
@@ -6585,7 +6586,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>550</v>
       </c>
@@ -6614,7 +6615,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>551</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>552</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>553</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>554</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>555</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>556</v>
       </c>
@@ -6770,7 +6771,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>557</v>
       </c>
@@ -6796,7 +6797,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>558</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>667</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>668</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>669</v>
       </c>
@@ -6900,7 +6901,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>670</v>
       </c>
@@ -6926,7 +6927,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>671</v>
       </c>
@@ -6955,7 +6956,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>672</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>673</v>
       </c>
@@ -7007,7 +7008,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>674</v>
       </c>
@@ -7033,7 +7034,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>675</v>
       </c>
@@ -7062,7 +7063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>676</v>
       </c>
@@ -7088,7 +7089,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>677</v>
       </c>
@@ -7117,7 +7118,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>678</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>679</v>
       </c>
@@ -7169,7 +7170,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>680</v>
       </c>
@@ -7195,7 +7196,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>681</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>682</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>683</v>
       </c>
@@ -7273,7 +7274,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>684</v>
       </c>
@@ -7302,7 +7303,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>685</v>
       </c>
@@ -7328,7 +7329,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>686</v>
       </c>
@@ -7354,7 +7355,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>687</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>688</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>689</v>
       </c>
@@ -7432,7 +7433,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>690</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>691</v>
       </c>
@@ -7484,7 +7485,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>692</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>693</v>
       </c>
@@ -7536,7 +7537,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>694</v>
       </c>
@@ -7565,7 +7566,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>695</v>
       </c>
@@ -7591,7 +7592,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>696</v>
       </c>
@@ -7617,7 +7618,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>697</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>698</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>699</v>
       </c>
@@ -7698,7 +7699,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>700</v>
       </c>
@@ -7727,7 +7728,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>701</v>
       </c>
@@ -7753,7 +7754,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>702</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>703</v>
       </c>
@@ -7805,7 +7806,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>704</v>
       </c>
@@ -7831,7 +7832,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>705</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>706</v>
       </c>
@@ -7883,7 +7884,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>707</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>708</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>709</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>710</v>
       </c>
@@ -7987,7 +7988,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>711</v>
       </c>
@@ -8013,7 +8014,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>712</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>713</v>
       </c>
@@ -8065,7 +8066,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>714</v>
       </c>
@@ -8091,7 +8092,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>715</v>
       </c>
@@ -8117,7 +8118,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>716</v>
       </c>
@@ -8143,7 +8144,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>717</v>
       </c>
@@ -8169,7 +8170,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>718</v>
       </c>
@@ -8195,7 +8196,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>719</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>720</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>721</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>722</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>723</v>
       </c>
@@ -8325,7 +8326,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>724</v>
       </c>
@@ -8351,7 +8352,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>725</v>
       </c>
@@ -8377,7 +8378,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>726</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>727</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>728</v>
       </c>
@@ -8455,7 +8456,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>729</v>
       </c>
@@ -8481,7 +8482,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>730</v>
       </c>
@@ -8507,7 +8508,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>731</v>
       </c>
@@ -8533,7 +8534,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>732</v>
       </c>
@@ -8559,7 +8560,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>733</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>734</v>
       </c>
@@ -8629,7 +8630,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>735</v>
       </c>
@@ -8658,7 +8659,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>736</v>
       </c>
@@ -8687,7 +8688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>737</v>
       </c>
@@ -8716,7 +8717,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>738</v>
       </c>
@@ -8745,7 +8746,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>739</v>
       </c>
@@ -8774,7 +8775,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>740</v>
       </c>
@@ -8800,7 +8801,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>741</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>742</v>
       </c>
@@ -8852,7 +8853,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>743</v>
       </c>
@@ -8878,7 +8879,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>744</v>
       </c>
@@ -8901,7 +8902,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>745</v>
       </c>
@@ -8924,7 +8925,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>746</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>747</v>
       </c>
@@ -8970,7 +8971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>748</v>
       </c>
@@ -8993,7 +8994,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>749</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>750</v>
       </c>
@@ -9039,7 +9040,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>751</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>752</v>
       </c>
@@ -9085,7 +9086,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>753</v>
       </c>
@@ -9108,7 +9109,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>754</v>
       </c>
@@ -9131,7 +9132,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>755</v>
       </c>
@@ -9154,7 +9155,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>756</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>757</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>758</v>
       </c>
@@ -9223,7 +9224,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>759</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>760</v>
       </c>
@@ -9275,7 +9276,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>761</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>762</v>
       </c>
@@ -9333,7 +9334,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>763</v>
       </c>
@@ -9365,7 +9366,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>764</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>765</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>766</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>767</v>
       </c>
@@ -9484,7 +9485,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>768</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>769</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>770</v>
       </c>
@@ -9571,7 +9572,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>771</v>
       </c>
@@ -9603,7 +9604,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>772</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>773</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>774</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>775</v>
       </c>
@@ -9725,7 +9726,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>776</v>
       </c>
@@ -9754,7 +9755,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>777</v>
       </c>
@@ -9783,7 +9784,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>778</v>
       </c>
@@ -9815,7 +9816,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>779</v>
       </c>
@@ -9844,7 +9845,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>780</v>
       </c>
@@ -9873,7 +9874,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>781</v>
       </c>
@@ -9902,7 +9903,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>782</v>
       </c>
@@ -9931,7 +9932,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>783</v>
       </c>
@@ -9957,7 +9958,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>784</v>
       </c>
@@ -9983,7 +9984,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>785</v>
       </c>
@@ -10009,7 +10010,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>786</v>
       </c>
@@ -10035,7 +10036,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>787</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>788</v>
       </c>
@@ -10087,7 +10088,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>789</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>790</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>791</v>
       </c>
@@ -10165,7 +10166,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>792</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>793</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>794</v>
       </c>
@@ -10243,7 +10244,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>795</v>
       </c>
@@ -10269,7 +10270,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>796</v>
       </c>
@@ -10295,7 +10296,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>797</v>
       </c>
@@ -10321,7 +10322,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>798</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>799</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>800</v>
       </c>
@@ -10399,7 +10400,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>801</v>
       </c>
@@ -10425,7 +10426,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>802</v>
       </c>
@@ -10451,7 +10452,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>803</v>
       </c>
@@ -10477,7 +10478,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>804</v>
       </c>
@@ -10503,7 +10504,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>805</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>806</v>
       </c>
@@ -10555,7 +10556,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>807</v>
       </c>
@@ -10581,7 +10582,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>808</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>809</v>
       </c>
@@ -10633,7 +10634,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>810</v>
       </c>
@@ -10659,7 +10660,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>811</v>
       </c>
@@ -10685,7 +10686,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>812</v>
       </c>
@@ -10711,7 +10712,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>813</v>
       </c>
@@ -10737,7 +10738,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>814</v>
       </c>
@@ -10763,7 +10764,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>815</v>
       </c>
@@ -10789,7 +10790,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>816</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>817</v>
       </c>
@@ -10841,7 +10842,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>818</v>
       </c>
@@ -10867,7 +10868,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>819</v>
       </c>
@@ -10893,7 +10894,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>820</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>821</v>
       </c>
@@ -10945,7 +10946,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>822</v>
       </c>
@@ -10971,7 +10972,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>823</v>
       </c>
@@ -10997,7 +10998,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>824</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>825</v>
       </c>
@@ -11049,7 +11050,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>826</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>827</v>
       </c>
@@ -11101,7 +11102,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>828</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>829</v>
       </c>
@@ -11153,7 +11154,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>830</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>831</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>832</v>
       </c>
@@ -11231,7 +11232,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>833</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>834</v>
       </c>
@@ -11283,7 +11284,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>835</v>
       </c>
@@ -11309,7 +11310,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>836</v>
       </c>
@@ -11335,7 +11336,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>837</v>
       </c>
@@ -11361,7 +11362,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>838</v>
       </c>
@@ -11387,7 +11388,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>839</v>
       </c>
@@ -11413,7 +11414,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>840</v>
       </c>
@@ -11429,7 +11430,9 @@
       <c r="E297" t="s">
         <v>472</v>
       </c>
-      <c r="F297" s="1"/>
+      <c r="F297" s="1">
+        <v>17444478</v>
+      </c>
       <c r="G297" t="s">
         <v>404</v>
       </c>
@@ -11437,7 +11440,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>841</v>
       </c>
@@ -11453,6 +11456,9 @@
       <c r="E298" t="s">
         <v>472</v>
       </c>
+      <c r="F298">
+        <v>33898806</v>
+      </c>
       <c r="G298" t="s">
         <v>406</v>
       </c>
@@ -11460,7 +11466,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>842</v>
       </c>
@@ -11476,6 +11482,9 @@
       <c r="E299" t="s">
         <v>472</v>
       </c>
+      <c r="F299" t="s">
+        <v>933</v>
+      </c>
       <c r="G299" t="s">
         <v>407</v>
       </c>
@@ -11483,7 +11492,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>843</v>
       </c>
@@ -11499,6 +11508,9 @@
       <c r="E300" t="s">
         <v>472</v>
       </c>
+      <c r="F300" t="s">
+        <v>933</v>
+      </c>
       <c r="G300" t="s">
         <v>408</v>
       </c>
@@ -11506,7 +11518,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>844</v>
       </c>
@@ -11522,6 +11534,9 @@
       <c r="E301" t="s">
         <v>472</v>
       </c>
+      <c r="F301">
+        <v>17554352</v>
+      </c>
       <c r="G301" t="s">
         <v>409</v>
       </c>
@@ -11529,7 +11544,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>845</v>
       </c>
@@ -11545,6 +11560,9 @@
       <c r="E302" t="s">
         <v>472</v>
       </c>
+      <c r="F302" t="s">
+        <v>933</v>
+      </c>
       <c r="G302" t="s">
         <v>410</v>
       </c>
@@ -11552,7 +11570,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>846</v>
       </c>
@@ -11568,6 +11586,9 @@
       <c r="E303" t="s">
         <v>472</v>
       </c>
+      <c r="F303" t="s">
+        <v>933</v>
+      </c>
       <c r="G303" t="s">
         <v>411</v>
       </c>
@@ -11575,7 +11596,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>847</v>
       </c>
@@ -11591,6 +11612,9 @@
       <c r="E304" t="s">
         <v>472</v>
       </c>
+      <c r="F304" t="s">
+        <v>933</v>
+      </c>
       <c r="G304" t="s">
         <v>412</v>
       </c>
@@ -11598,7 +11622,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>848</v>
       </c>
@@ -11614,6 +11638,9 @@
       <c r="E305" t="s">
         <v>472</v>
       </c>
+      <c r="F305" t="s">
+        <v>933</v>
+      </c>
       <c r="G305" t="s">
         <v>413</v>
       </c>
@@ -11621,7 +11648,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>849</v>
       </c>
@@ -11637,6 +11664,9 @@
       <c r="E306" t="s">
         <v>472</v>
       </c>
+      <c r="F306" t="s">
+        <v>933</v>
+      </c>
       <c r="G306" t="s">
         <v>414</v>
       </c>
@@ -11644,7 +11674,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>850</v>
       </c>
@@ -11660,6 +11690,9 @@
       <c r="E307" t="s">
         <v>472</v>
       </c>
+      <c r="F307">
+        <v>29344056</v>
+      </c>
       <c r="G307" t="s">
         <v>415</v>
       </c>
@@ -11667,7 +11700,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>851</v>
       </c>
@@ -11683,6 +11716,9 @@
       <c r="E308" t="s">
         <v>472</v>
       </c>
+      <c r="F308" t="s">
+        <v>933</v>
+      </c>
       <c r="G308" t="s">
         <v>416</v>
       </c>
@@ -11690,7 +11726,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>852</v>
       </c>
@@ -11706,6 +11742,9 @@
       <c r="E309" t="s">
         <v>472</v>
       </c>
+      <c r="F309" t="s">
+        <v>933</v>
+      </c>
       <c r="G309" t="s">
         <v>417</v>
       </c>
@@ -11713,7 +11752,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>853</v>
       </c>
@@ -11729,6 +11768,9 @@
       <c r="E310" t="s">
         <v>472</v>
       </c>
+      <c r="F310" t="s">
+        <v>933</v>
+      </c>
       <c r="G310" t="s">
         <v>418</v>
       </c>
@@ -11736,7 +11778,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>854</v>
       </c>
@@ -11752,6 +11794,9 @@
       <c r="E311" t="s">
         <v>472</v>
       </c>
+      <c r="F311" t="s">
+        <v>933</v>
+      </c>
       <c r="G311" t="s">
         <v>419</v>
       </c>
@@ -11759,7 +11804,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>855</v>
       </c>
@@ -11775,6 +11820,9 @@
       <c r="E312" t="s">
         <v>472</v>
       </c>
+      <c r="F312">
+        <v>47748745</v>
+      </c>
       <c r="G312" t="s">
         <v>420</v>
       </c>
@@ -11782,7 +11830,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>856</v>
       </c>
@@ -11798,6 +11846,9 @@
       <c r="E313" t="s">
         <v>472</v>
       </c>
+      <c r="F313" t="s">
+        <v>933</v>
+      </c>
       <c r="G313" t="s">
         <v>421</v>
       </c>
@@ -11805,7 +11856,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>857</v>
       </c>
@@ -11821,6 +11872,9 @@
       <c r="E314" t="s">
         <v>472</v>
       </c>
+      <c r="F314" t="s">
+        <v>933</v>
+      </c>
       <c r="G314" t="s">
         <v>422</v>
       </c>
@@ -11828,7 +11882,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>858</v>
       </c>
@@ -11844,6 +11898,9 @@
       <c r="E315" t="s">
         <v>472</v>
       </c>
+      <c r="F315" t="s">
+        <v>933</v>
+      </c>
       <c r="G315" t="s">
         <v>423</v>
       </c>
@@ -11851,7 +11908,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>859</v>
       </c>
@@ -11867,6 +11924,9 @@
       <c r="E316" t="s">
         <v>472</v>
       </c>
+      <c r="F316" t="s">
+        <v>933</v>
+      </c>
       <c r="G316" t="s">
         <v>424</v>
       </c>
@@ -11874,7 +11934,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>860</v>
       </c>
@@ -11890,6 +11950,9 @@
       <c r="E317" t="s">
         <v>472</v>
       </c>
+      <c r="F317">
+        <v>29371432</v>
+      </c>
       <c r="G317" t="s">
         <v>425</v>
       </c>
@@ -11897,7 +11960,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>861</v>
       </c>
@@ -11913,6 +11976,9 @@
       <c r="E318" t="s">
         <v>472</v>
       </c>
+      <c r="F318" t="s">
+        <v>933</v>
+      </c>
       <c r="G318" t="s">
         <v>426</v>
       </c>
@@ -11920,7 +11986,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>862</v>
       </c>
@@ -11936,6 +12002,9 @@
       <c r="E319" t="s">
         <v>472</v>
       </c>
+      <c r="F319">
+        <v>45577199</v>
+      </c>
       <c r="G319" t="s">
         <v>427</v>
       </c>
@@ -11943,7 +12012,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>863</v>
       </c>
@@ -11959,6 +12028,9 @@
       <c r="E320" t="s">
         <v>472</v>
       </c>
+      <c r="F320" t="s">
+        <v>933</v>
+      </c>
       <c r="G320" t="s">
         <v>428</v>
       </c>
@@ -11966,7 +12038,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>864</v>
       </c>
@@ -11982,6 +12054,9 @@
       <c r="E321" t="s">
         <v>472</v>
       </c>
+      <c r="F321" t="s">
+        <v>933</v>
+      </c>
       <c r="G321" t="s">
         <v>429</v>
       </c>
@@ -11989,7 +12064,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>865</v>
       </c>
@@ -12005,6 +12080,9 @@
       <c r="E322" t="s">
         <v>472</v>
       </c>
+      <c r="F322" t="s">
+        <v>933</v>
+      </c>
       <c r="G322" t="s">
         <v>430</v>
       </c>
@@ -12012,7 +12090,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>866</v>
       </c>
@@ -12028,6 +12106,9 @@
       <c r="E323" t="s">
         <v>472</v>
       </c>
+      <c r="F323" t="s">
+        <v>933</v>
+      </c>
       <c r="G323" t="s">
         <v>431</v>
       </c>
@@ -12035,7 +12116,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>867</v>
       </c>
@@ -12051,6 +12132,9 @@
       <c r="E324" t="s">
         <v>472</v>
       </c>
+      <c r="F324" t="s">
+        <v>933</v>
+      </c>
       <c r="G324" t="s">
         <v>432</v>
       </c>
@@ -12058,7 +12142,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>868</v>
       </c>
@@ -12074,6 +12158,9 @@
       <c r="E325" t="s">
         <v>472</v>
       </c>
+      <c r="F325">
+        <v>11959747</v>
+      </c>
       <c r="G325" t="s">
         <v>433</v>
       </c>
@@ -12081,7 +12168,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>869</v>
       </c>
@@ -12097,6 +12184,9 @@
       <c r="E326" t="s">
         <v>472</v>
       </c>
+      <c r="F326" t="s">
+        <v>933</v>
+      </c>
       <c r="G326" t="s">
         <v>434</v>
       </c>
@@ -12104,7 +12194,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>870</v>
       </c>
@@ -12120,6 +12210,9 @@
       <c r="E327" t="s">
         <v>472</v>
       </c>
+      <c r="F327" t="s">
+        <v>933</v>
+      </c>
       <c r="G327" t="s">
         <v>435</v>
       </c>
@@ -12127,7 +12220,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>871</v>
       </c>
@@ -12143,6 +12236,9 @@
       <c r="E328" t="s">
         <v>472</v>
       </c>
+      <c r="F328" t="s">
+        <v>933</v>
+      </c>
       <c r="G328" t="s">
         <v>436</v>
       </c>
@@ -12150,7 +12246,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>872</v>
       </c>
@@ -12166,6 +12262,9 @@
       <c r="E329" t="s">
         <v>472</v>
       </c>
+      <c r="F329" t="s">
+        <v>933</v>
+      </c>
       <c r="G329" t="s">
         <v>437</v>
       </c>
@@ -12173,7 +12272,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>873</v>
       </c>
@@ -12189,6 +12288,9 @@
       <c r="E330" t="s">
         <v>472</v>
       </c>
+      <c r="F330" t="s">
+        <v>933</v>
+      </c>
       <c r="G330" t="s">
         <v>438</v>
       </c>
@@ -12196,7 +12298,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>874</v>
       </c>
@@ -12212,6 +12314,9 @@
       <c r="E331" t="s">
         <v>472</v>
       </c>
+      <c r="F331" t="s">
+        <v>933</v>
+      </c>
       <c r="G331" t="s">
         <v>439</v>
       </c>
@@ -12219,7 +12324,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>875</v>
       </c>
@@ -12235,6 +12340,9 @@
       <c r="E332" t="s">
         <v>472</v>
       </c>
+      <c r="F332" t="s">
+        <v>933</v>
+      </c>
       <c r="G332" t="s">
         <v>440</v>
       </c>
@@ -12242,7 +12350,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>876</v>
       </c>
@@ -12258,6 +12366,9 @@
       <c r="E333" t="s">
         <v>472</v>
       </c>
+      <c r="F333" t="s">
+        <v>933</v>
+      </c>
       <c r="G333" t="s">
         <v>441</v>
       </c>
@@ -12265,7 +12376,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>877</v>
       </c>
@@ -12281,6 +12392,9 @@
       <c r="E334" t="s">
         <v>472</v>
       </c>
+      <c r="F334">
+        <v>47342790</v>
+      </c>
       <c r="G334" t="s">
         <v>442</v>
       </c>
@@ -12288,7 +12402,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>878</v>
       </c>
@@ -12304,6 +12418,9 @@
       <c r="E335" t="s">
         <v>472</v>
       </c>
+      <c r="F335" t="s">
+        <v>933</v>
+      </c>
       <c r="G335" t="s">
         <v>443</v>
       </c>
@@ -12311,7 +12428,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>879</v>
       </c>
@@ -12327,6 +12444,9 @@
       <c r="E336" t="s">
         <v>472</v>
       </c>
+      <c r="F336" t="s">
+        <v>933</v>
+      </c>
       <c r="G336" t="s">
         <v>444</v>
       </c>
@@ -12334,7 +12454,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>880</v>
       </c>
@@ -12350,6 +12470,9 @@
       <c r="E337" t="s">
         <v>472</v>
       </c>
+      <c r="F337" t="s">
+        <v>933</v>
+      </c>
       <c r="G337" t="s">
         <v>445</v>
       </c>
@@ -12357,7 +12480,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>881</v>
       </c>
@@ -12373,6 +12496,9 @@
       <c r="E338" t="s">
         <v>472</v>
       </c>
+      <c r="F338" t="s">
+        <v>933</v>
+      </c>
       <c r="G338" t="s">
         <v>446</v>
       </c>
@@ -12380,7 +12506,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>882</v>
       </c>
@@ -12396,6 +12522,9 @@
       <c r="E339" t="s">
         <v>472</v>
       </c>
+      <c r="F339">
+        <v>17343667</v>
+      </c>
       <c r="G339" t="s">
         <v>447</v>
       </c>
@@ -12403,7 +12532,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>883</v>
       </c>
@@ -12419,6 +12548,9 @@
       <c r="E340" t="s">
         <v>472</v>
       </c>
+      <c r="F340" t="s">
+        <v>933</v>
+      </c>
       <c r="G340" t="s">
         <v>448</v>
       </c>
@@ -12426,7 +12558,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>884</v>
       </c>
@@ -12449,7 +12581,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>885</v>
       </c>
@@ -12472,7 +12604,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>886</v>
       </c>
@@ -12495,7 +12627,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>887</v>
       </c>
@@ -12518,7 +12650,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>888</v>
       </c>
@@ -12541,7 +12673,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>889</v>
       </c>
@@ -12564,7 +12696,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>890</v>
       </c>
@@ -12587,7 +12719,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>891</v>
       </c>
@@ -12610,7 +12742,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>892</v>
       </c>
@@ -12633,7 +12765,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>893</v>
       </c>
@@ -12656,7 +12788,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>894</v>
       </c>
@@ -12679,7 +12811,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>895</v>
       </c>
@@ -12702,7 +12834,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>896</v>
       </c>
@@ -12725,7 +12857,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>897</v>
       </c>
@@ -12748,7 +12880,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>898</v>
       </c>
@@ -12774,7 +12906,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>899</v>
       </c>
@@ -12800,7 +12932,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>900</v>
       </c>
@@ -12826,7 +12958,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>901</v>
       </c>
@@ -12852,7 +12984,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>902</v>
       </c>
@@ -12878,7 +13010,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>903</v>
       </c>
@@ -12904,7 +13036,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>904</v>
       </c>
@@ -12930,7 +13062,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>905</v>
       </c>
@@ -12953,7 +13085,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>906</v>
       </c>
@@ -12976,7 +13108,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>907</v>
       </c>
@@ -12999,7 +13131,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>908</v>
       </c>
@@ -13022,7 +13154,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>909</v>
       </c>
@@ -13045,7 +13177,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>910</v>
       </c>
@@ -13068,7 +13200,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>911</v>
       </c>
@@ -13091,7 +13223,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>912</v>
       </c>
@@ -13114,7 +13246,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>913</v>
       </c>
@@ -13137,7 +13269,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>914</v>
       </c>
@@ -13160,7 +13292,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>915</v>
       </c>
@@ -13183,7 +13315,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>916</v>
       </c>
@@ -13206,7 +13338,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>917</v>
       </c>
@@ -13229,7 +13361,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>918</v>
       </c>
@@ -13252,7 +13384,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>919</v>
       </c>
@@ -13275,7 +13407,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>920</v>
       </c>
@@ -13298,7 +13430,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>921</v>
       </c>
@@ -13321,7 +13453,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>922</v>
       </c>
@@ -13344,7 +13476,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>923</v>
       </c>
@@ -13367,7 +13499,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>924</v>
       </c>
@@ -13390,7 +13522,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>925</v>
       </c>
@@ -13413,7 +13545,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>926</v>
       </c>
@@ -13436,7 +13568,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>927</v>
       </c>
@@ -13459,7 +13591,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>928</v>
       </c>
@@ -13482,7 +13614,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>929</v>
       </c>
@@ -13505,7 +13637,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>930</v>
       </c>
@@ -13528,7 +13660,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>931</v>
       </c>
@@ -13565,9 +13697,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>538</v>
       </c>
@@ -13578,7 +13710,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>507</v>
       </c>
@@ -13589,7 +13721,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
   </sheetData>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\R\tu-case-1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA8E122-ED16-4225-9785-BBC3D7A005BB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA104FD9-1E50-4E13-A195-7A34EEA12588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_data" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="946">
   <si>
     <t>institution</t>
   </si>
@@ -1471,9 +1470,6 @@
     <t>Rosanneke Emmen</t>
   </si>
   <si>
-    <t>Marlen Groenenveld</t>
-  </si>
-  <si>
     <t>Postdoctoral researchers</t>
   </si>
   <si>
@@ -2858,6 +2854,21 @@
   </si>
   <si>
     <t>j.mesman@luc.leidenuniv.nl</t>
+  </si>
+  <si>
+    <t>Marlen Groeneveld</t>
+  </si>
+  <si>
+    <t>7113418;7113420</t>
+  </si>
+  <si>
+    <t>29141698;29141697</t>
+  </si>
+  <si>
+    <t>15410740;15410741;15410742</t>
+  </si>
+  <si>
+    <t>35458748;35458722;35458149;35457985;35457973</t>
   </si>
 </sst>
 </file>
@@ -3258,21 +3269,21 @@
   <dimension ref="A1:P388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F341" sqref="F341"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.88671875" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3287,13 +3298,13 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="I1" t="s">
         <v>23</v>
@@ -3314,15 +3325,15 @@
         <v>272</v>
       </c>
       <c r="O1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -3343,7 +3354,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -3355,12 +3366,12 @@
         <v>15</v>
       </c>
       <c r="O2" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -3374,6 +3385,9 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>932</v>
+      </c>
       <c r="G3" t="s">
         <v>11</v>
       </c>
@@ -3384,9 +3398,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -3400,6 +3414,9 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>932</v>
+      </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
@@ -3410,9 +3427,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -3439,9 +3456,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -3468,9 +3485,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -3497,9 +3514,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -3513,6 +3530,9 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
+      <c r="F8" t="s">
+        <v>932</v>
+      </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
@@ -3523,9 +3543,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -3555,9 +3575,9 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -3584,9 +3604,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -3613,9 +3633,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
@@ -3628,6 +3648,9 @@
       </c>
       <c r="E12" t="s">
         <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>932</v>
       </c>
       <c r="G12" t="s">
         <v>84</v>
@@ -3639,9 +3662,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -3668,9 +3691,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
@@ -3697,9 +3720,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
@@ -3726,9 +3749,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
@@ -3755,9 +3778,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
@@ -3784,9 +3807,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -3816,12 +3839,12 @@
         <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -3848,9 +3871,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -3877,12 +3900,12 @@
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -3909,9 +3932,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -3938,12 +3961,12 @@
         <v>45</v>
       </c>
       <c r="P22" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
@@ -3970,9 +3993,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -3999,9 +4022,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -4028,9 +4051,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
@@ -4057,9 +4080,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
@@ -4086,9 +4109,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B28" t="s">
         <v>6</v>
@@ -4115,9 +4138,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -4144,9 +4167,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B30" t="s">
         <v>6</v>
@@ -4173,9 +4196,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B31" t="s">
         <v>6</v>
@@ -4202,9 +4225,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B32" t="s">
         <v>6</v>
@@ -4231,9 +4254,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B33" t="s">
         <v>6</v>
@@ -4260,9 +4283,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -4289,9 +4312,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
@@ -4318,9 +4341,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -4350,9 +4373,9 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -4382,9 +4405,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B38" t="s">
         <v>6</v>
@@ -4411,9 +4434,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B39" t="s">
         <v>6</v>
@@ -4440,12 +4463,12 @@
         <v>37</v>
       </c>
       <c r="P39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
@@ -4472,9 +4495,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B41" t="s">
         <v>6</v>
@@ -4501,9 +4524,9 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B42" t="s">
         <v>6</v>
@@ -4530,9 +4553,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -4553,7 +4576,7 @@
         <v>78</v>
       </c>
       <c r="H43" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I43" t="s">
         <v>77</v>
@@ -4565,12 +4588,12 @@
         <v>76</v>
       </c>
       <c r="O43" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B44" t="s">
         <v>6</v>
@@ -4597,9 +4620,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -4626,9 +4649,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
@@ -4655,9 +4678,9 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B47" t="s">
         <v>6</v>
@@ -4672,7 +4695,7 @@
         <v>33</v>
       </c>
       <c r="F47" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G47" t="s">
         <v>80</v>
@@ -4684,9 +4707,9 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B48" t="s">
         <v>6</v>
@@ -4713,9 +4736,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B49" t="s">
         <v>6</v>
@@ -4742,9 +4765,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B50" t="s">
         <v>6</v>
@@ -4771,9 +4794,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
@@ -4800,9 +4823,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B52" t="s">
         <v>6</v>
@@ -4832,9 +4855,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B53" t="s">
         <v>6</v>
@@ -4852,7 +4875,7 @@
         <v>24890069</v>
       </c>
       <c r="G53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I53" t="s">
         <v>111</v>
@@ -4861,9 +4884,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -4890,9 +4913,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B55" t="s">
         <v>6</v>
@@ -4910,7 +4933,7 @@
         <v>20036160</v>
       </c>
       <c r="G55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I55" t="s">
         <v>112</v>
@@ -4919,9 +4942,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B56" t="s">
         <v>6</v>
@@ -4945,9 +4968,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B57" t="s">
         <v>6</v>
@@ -4974,9 +4997,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B58" t="s">
         <v>6</v>
@@ -4989,6 +5012,9 @@
       </c>
       <c r="E58" t="s">
         <v>33</v>
+      </c>
+      <c r="F58">
+        <v>42278598</v>
       </c>
       <c r="G58" t="s">
         <v>119</v>
@@ -5000,9 +5026,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B59" t="s">
         <v>6</v>
@@ -5015,6 +5041,9 @@
       </c>
       <c r="E59" t="s">
         <v>33</v>
+      </c>
+      <c r="F59" t="s">
+        <v>932</v>
       </c>
       <c r="G59" t="s">
         <v>157</v>
@@ -5029,9 +5058,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B60" t="s">
         <v>6</v>
@@ -5044,6 +5073,9 @@
       </c>
       <c r="E60" t="s">
         <v>33</v>
+      </c>
+      <c r="F60">
+        <v>11537926</v>
       </c>
       <c r="G60" t="s">
         <v>120</v>
@@ -5055,9 +5087,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B61" t="s">
         <v>6</v>
@@ -5084,9 +5116,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B62" t="s">
         <v>6</v>
@@ -5113,9 +5145,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B63" t="s">
         <v>6</v>
@@ -5142,9 +5174,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B64" t="s">
         <v>6</v>
@@ -5171,9 +5203,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B65" t="s">
         <v>6</v>
@@ -5200,9 +5232,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B66" t="s">
         <v>6</v>
@@ -5229,9 +5261,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
@@ -5258,9 +5290,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -5287,12 +5319,12 @@
         <v>110</v>
       </c>
       <c r="P68" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B69" t="s">
         <v>6</v>
@@ -5307,7 +5339,7 @@
         <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G69" t="s">
         <v>129</v>
@@ -5319,9 +5351,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B70" t="s">
         <v>6</v>
@@ -5348,9 +5380,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B71" t="s">
         <v>6</v>
@@ -5363,6 +5395,9 @@
       </c>
       <c r="E71" t="s">
         <v>33</v>
+      </c>
+      <c r="F71" t="s">
+        <v>932</v>
       </c>
       <c r="G71" t="s">
         <v>131</v>
@@ -5374,9 +5409,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B72" t="s">
         <v>6</v>
@@ -5403,9 +5438,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
@@ -5432,9 +5467,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
@@ -5461,9 +5496,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -5490,9 +5525,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B76" t="s">
         <v>6</v>
@@ -5505,6 +5540,9 @@
       </c>
       <c r="E76" t="s">
         <v>33</v>
+      </c>
+      <c r="F76">
+        <v>28913266</v>
       </c>
       <c r="G76" t="s">
         <v>136</v>
@@ -5516,9 +5554,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B77" t="s">
         <v>6</v>
@@ -5531,6 +5569,9 @@
       </c>
       <c r="E77" t="s">
         <v>33</v>
+      </c>
+      <c r="F77" t="s">
+        <v>932</v>
       </c>
       <c r="G77" t="s">
         <v>137</v>
@@ -5542,9 +5583,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
@@ -5571,9 +5612,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B79" t="s">
         <v>6</v>
@@ -5600,9 +5641,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
@@ -5615,6 +5656,9 @@
       </c>
       <c r="E80" t="s">
         <v>33</v>
+      </c>
+      <c r="F80">
+        <v>8762171</v>
       </c>
       <c r="G80" t="s">
         <v>158</v>
@@ -5629,9 +5673,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B81" t="s">
         <v>6</v>
@@ -5644,6 +5688,9 @@
       </c>
       <c r="E81" t="s">
         <v>33</v>
+      </c>
+      <c r="F81">
+        <v>7587523</v>
       </c>
       <c r="G81" t="s">
         <v>140</v>
@@ -5655,9 +5702,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B82" t="s">
         <v>6</v>
@@ -5671,8 +5718,8 @@
       <c r="E82" t="s">
         <v>33</v>
       </c>
-      <c r="F82">
-        <v>15410740</v>
+      <c r="F82" t="s">
+        <v>944</v>
       </c>
       <c r="G82" t="s">
         <v>141</v>
@@ -5684,9 +5731,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
@@ -5713,9 +5760,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B84" t="s">
         <v>6</v>
@@ -5745,9 +5792,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B85" t="s">
         <v>6</v>
@@ -5774,9 +5821,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B86" t="s">
         <v>6</v>
@@ -5803,9 +5850,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B87" t="s">
         <v>6</v>
@@ -5832,9 +5879,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
@@ -5852,7 +5899,7 @@
         <v>14115988</v>
       </c>
       <c r="G88" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I88" t="s">
         <v>72</v>
@@ -5864,9 +5911,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B89" t="s">
         <v>6</v>
@@ -5893,9 +5940,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B90" t="s">
         <v>6</v>
@@ -5908,6 +5955,9 @@
       </c>
       <c r="E90" t="s">
         <v>33</v>
+      </c>
+      <c r="F90" t="s">
+        <v>945</v>
       </c>
       <c r="G90" t="s">
         <v>147</v>
@@ -5919,9 +5969,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B91" t="s">
         <v>6</v>
@@ -5948,9 +5998,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B92" t="s">
         <v>6</v>
@@ -5977,9 +6027,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B93" t="s">
         <v>6</v>
@@ -6006,9 +6056,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B94" t="s">
         <v>6</v>
@@ -6035,9 +6085,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B95" t="s">
         <v>6</v>
@@ -6067,9 +6117,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
@@ -6082,6 +6132,9 @@
       </c>
       <c r="E96" t="s">
         <v>33</v>
+      </c>
+      <c r="F96" t="s">
+        <v>932</v>
       </c>
       <c r="G96" t="s">
         <v>152</v>
@@ -6093,9 +6146,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B97" t="s">
         <v>6</v>
@@ -6122,9 +6175,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -6151,9 +6204,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
@@ -6180,9 +6233,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B100" t="s">
         <v>6</v>
@@ -6213,9 +6266,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B101" t="s">
         <v>6</v>
@@ -6228,6 +6281,9 @@
       </c>
       <c r="E101" t="s">
         <v>33</v>
+      </c>
+      <c r="F101" t="s">
+        <v>932</v>
       </c>
       <c r="G101" t="s">
         <v>162</v>
@@ -6239,9 +6295,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B102" t="s">
         <v>6</v>
@@ -6254,6 +6310,9 @@
       </c>
       <c r="E102" t="s">
         <v>33</v>
+      </c>
+      <c r="F102">
+        <v>10034732</v>
       </c>
       <c r="G102" t="s">
         <v>163</v>
@@ -6265,9 +6324,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B103" t="s">
         <v>6</v>
@@ -6280,6 +6339,9 @@
       </c>
       <c r="E103" t="s">
         <v>33</v>
+      </c>
+      <c r="F103" t="s">
+        <v>932</v>
       </c>
       <c r="G103" t="s">
         <v>164</v>
@@ -6291,9 +6353,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B104" t="s">
         <v>6</v>
@@ -6306,6 +6368,9 @@
       </c>
       <c r="E104" t="s">
         <v>33</v>
+      </c>
+      <c r="F104">
+        <v>39685910</v>
       </c>
       <c r="G104" t="s">
         <v>165</v>
@@ -6317,9 +6382,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B105" t="s">
         <v>6</v>
@@ -6343,9 +6408,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B106" t="s">
         <v>6</v>
@@ -6369,9 +6434,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B107" t="s">
         <v>6</v>
@@ -6395,9 +6460,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B108" t="s">
         <v>6</v>
@@ -6421,9 +6486,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B109" t="s">
         <v>6</v>
@@ -6450,9 +6515,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B110" t="s">
         <v>6</v>
@@ -6476,9 +6541,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B111" t="s">
         <v>6</v>
@@ -6502,9 +6567,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B112" t="s">
         <v>6</v>
@@ -6528,9 +6593,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B113" t="s">
         <v>6</v>
@@ -6557,9 +6622,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B114" t="s">
         <v>6</v>
@@ -6586,9 +6651,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -6615,9 +6680,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B116" t="s">
         <v>6</v>
@@ -6641,9 +6706,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B117" t="s">
         <v>6</v>
@@ -6667,9 +6732,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B118" t="s">
         <v>6</v>
@@ -6693,9 +6758,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B119" t="s">
         <v>6</v>
@@ -6719,9 +6784,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -6745,9 +6810,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B121" t="s">
         <v>6</v>
@@ -6771,9 +6836,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B122" t="s">
         <v>6</v>
@@ -6797,9 +6862,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B123" t="s">
         <v>6</v>
@@ -6823,9 +6888,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B124" t="s">
         <v>6</v>
@@ -6849,9 +6914,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B125" t="s">
         <v>6</v>
@@ -6875,9 +6940,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B126" t="s">
         <v>6</v>
@@ -6901,9 +6966,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B127" t="s">
         <v>6</v>
@@ -6927,9 +6992,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B128" t="s">
         <v>6</v>
@@ -6956,9 +7021,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B129" t="s">
         <v>6</v>
@@ -6982,9 +7047,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B130" t="s">
         <v>6</v>
@@ -7008,9 +7073,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -7034,9 +7099,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B132" t="s">
         <v>6</v>
@@ -7063,9 +7128,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B133" t="s">
         <v>6</v>
@@ -7089,9 +7154,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B134" t="s">
         <v>6</v>
@@ -7118,9 +7183,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B135" t="s">
         <v>6</v>
@@ -7144,9 +7209,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B136" t="s">
         <v>6</v>
@@ -7170,9 +7235,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B137" t="s">
         <v>6</v>
@@ -7196,9 +7261,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B138" t="s">
         <v>6</v>
@@ -7222,9 +7287,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -7248,9 +7313,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B140" t="s">
         <v>6</v>
@@ -7274,9 +7339,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B141" t="s">
         <v>6</v>
@@ -7303,9 +7368,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B142" t="s">
         <v>6</v>
@@ -7329,9 +7394,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B143" t="s">
         <v>6</v>
@@ -7355,9 +7420,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B144" t="s">
         <v>6</v>
@@ -7381,9 +7446,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B145" t="s">
         <v>6</v>
@@ -7407,9 +7472,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B146" t="s">
         <v>6</v>
@@ -7433,9 +7498,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -7459,9 +7524,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B148" t="s">
         <v>6</v>
@@ -7485,9 +7550,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B149" t="s">
         <v>6</v>
@@ -7511,9 +7576,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B150" t="s">
         <v>6</v>
@@ -7537,9 +7602,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B151" t="s">
         <v>6</v>
@@ -7566,9 +7631,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B152" t="s">
         <v>6</v>
@@ -7592,9 +7657,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B153" t="s">
         <v>6</v>
@@ -7618,9 +7683,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
@@ -7647,9 +7712,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B155" t="s">
         <v>6</v>
@@ -7673,9 +7738,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B156" t="s">
         <v>6</v>
@@ -7699,9 +7764,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B157" t="s">
         <v>6</v>
@@ -7728,9 +7793,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B158" t="s">
         <v>6</v>
@@ -7754,9 +7819,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B159" t="s">
         <v>6</v>
@@ -7780,9 +7845,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B160" t="s">
         <v>6</v>
@@ -7806,9 +7871,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
@@ -7832,9 +7897,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B162" t="s">
         <v>6</v>
@@ -7858,9 +7923,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -7884,9 +7949,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
@@ -7910,9 +7975,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
@@ -7936,9 +8001,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B166" t="s">
         <v>6</v>
@@ -7962,9 +8027,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B167" t="s">
         <v>6</v>
@@ -7988,9 +8053,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B168" t="s">
         <v>6</v>
@@ -8014,9 +8079,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B169" t="s">
         <v>6</v>
@@ -8040,9 +8105,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B170" t="s">
         <v>6</v>
@@ -8066,9 +8131,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B171" t="s">
         <v>6</v>
@@ -8092,9 +8157,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B172" t="s">
         <v>6</v>
@@ -8118,9 +8183,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B173" t="s">
         <v>6</v>
@@ -8144,9 +8209,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B174" t="s">
         <v>6</v>
@@ -8170,9 +8235,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -8196,9 +8261,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B176" t="s">
         <v>6</v>
@@ -8222,9 +8287,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -8248,9 +8313,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B178" t="s">
         <v>6</v>
@@ -8274,9 +8339,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B179" t="s">
         <v>6</v>
@@ -8300,9 +8365,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B180" t="s">
         <v>6</v>
@@ -8326,9 +8391,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
@@ -8352,9 +8417,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B182" t="s">
         <v>6</v>
@@ -8378,9 +8443,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B183" t="s">
         <v>6</v>
@@ -8404,9 +8469,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B184" t="s">
         <v>6</v>
@@ -8430,9 +8495,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B185" t="s">
         <v>6</v>
@@ -8456,9 +8521,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B186" t="s">
         <v>6</v>
@@ -8482,9 +8547,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B187" t="s">
         <v>6</v>
@@ -8508,9 +8573,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B188" t="s">
         <v>6</v>
@@ -8534,9 +8599,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B189" t="s">
         <v>6</v>
@@ -8560,9 +8625,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B190" t="s">
         <v>275</v>
@@ -8595,9 +8660,9 @@
         <v>274</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B191" t="s">
         <v>275</v>
@@ -8612,13 +8677,13 @@
         <v>277</v>
       </c>
       <c r="F191" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G191" t="s">
         <v>278</v>
       </c>
       <c r="H191" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="I191" t="s">
         <v>279</v>
@@ -8630,9 +8695,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B192" t="s">
         <v>275</v>
@@ -8659,9 +8724,9 @@
         <v>281</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B193" t="s">
         <v>275</v>
@@ -8688,9 +8753,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B194" t="s">
         <v>275</v>
@@ -8717,9 +8782,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B195" t="s">
         <v>275</v>
@@ -8746,9 +8811,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B196" t="s">
         <v>275</v>
@@ -8775,9 +8840,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B197" t="s">
         <v>275</v>
@@ -8801,9 +8866,9 @@
         <v>289</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B198" t="s">
         <v>275</v>
@@ -8827,9 +8892,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B199" t="s">
         <v>275</v>
@@ -8853,9 +8918,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B200" t="s">
         <v>275</v>
@@ -8879,9 +8944,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B201" t="s">
         <v>275</v>
@@ -8902,9 +8967,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B202" t="s">
         <v>275</v>
@@ -8925,9 +8990,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B203" t="s">
         <v>275</v>
@@ -8948,9 +9013,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B204" t="s">
         <v>275</v>
@@ -8971,9 +9036,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B205" t="s">
         <v>275</v>
@@ -8994,9 +9059,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B206" t="s">
         <v>275</v>
@@ -9017,9 +9082,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B207" t="s">
         <v>275</v>
@@ -9040,9 +9105,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B208" t="s">
         <v>275</v>
@@ -9063,9 +9128,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B209" t="s">
         <v>275</v>
@@ -9086,9 +9151,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B210" t="s">
         <v>275</v>
@@ -9109,9 +9174,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B211" t="s">
         <v>275</v>
@@ -9132,9 +9197,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B212" t="s">
         <v>275</v>
@@ -9155,9 +9220,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B213" t="s">
         <v>275</v>
@@ -9178,9 +9243,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B214" t="s">
         <v>275</v>
@@ -9201,9 +9266,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B215" t="s">
         <v>275</v>
@@ -9224,9 +9289,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B216" t="s">
         <v>275</v>
@@ -9247,9 +9312,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B217" t="s">
         <v>275</v>
@@ -9276,9 +9341,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B218" t="s">
         <v>275</v>
@@ -9305,9 +9370,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B219" t="s">
         <v>275</v>
@@ -9328,15 +9393,15 @@
         <v>319</v>
       </c>
       <c r="H219" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J219" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B220" t="s">
         <v>275</v>
@@ -9351,13 +9416,13 @@
         <v>316</v>
       </c>
       <c r="F220" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G220" t="s">
         <v>320</v>
       </c>
       <c r="H220" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I220" t="s">
         <v>281</v>
@@ -9366,9 +9431,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B221" t="s">
         <v>275</v>
@@ -9389,15 +9454,15 @@
         <v>321</v>
       </c>
       <c r="H221" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J221" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B222" t="s">
         <v>275</v>
@@ -9412,21 +9477,21 @@
         <v>316</v>
       </c>
       <c r="F222" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G222" t="s">
         <v>322</v>
       </c>
       <c r="H222" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J222" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B223" t="s">
         <v>275</v>
@@ -9447,7 +9512,7 @@
         <v>323</v>
       </c>
       <c r="H223" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I223" t="s">
         <v>281</v>
@@ -9456,9 +9521,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B224" t="s">
         <v>275</v>
@@ -9479,15 +9544,15 @@
         <v>324</v>
       </c>
       <c r="H224" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J224" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B225" t="s">
         <v>275</v>
@@ -9508,15 +9573,15 @@
         <v>325</v>
       </c>
       <c r="H225" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J225" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B226" t="s">
         <v>275</v>
@@ -9531,21 +9596,21 @@
         <v>316</v>
       </c>
       <c r="F226" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G226" t="s">
         <v>326</v>
       </c>
       <c r="H226" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J226" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B227" t="s">
         <v>275</v>
@@ -9560,21 +9625,21 @@
         <v>316</v>
       </c>
       <c r="F227" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G227" t="s">
         <v>327</v>
       </c>
       <c r="H227" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J227" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B228" t="s">
         <v>275</v>
@@ -9589,13 +9654,13 @@
         <v>316</v>
       </c>
       <c r="F228" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G228" t="s">
         <v>328</v>
       </c>
       <c r="H228" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I228" t="s">
         <v>281</v>
@@ -9604,9 +9669,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B229" t="s">
         <v>275</v>
@@ -9621,21 +9686,21 @@
         <v>316</v>
       </c>
       <c r="F229" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G229" t="s">
         <v>329</v>
       </c>
       <c r="H229" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J229" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B230" t="s">
         <v>275</v>
@@ -9650,13 +9715,13 @@
         <v>316</v>
       </c>
       <c r="F230" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G230" t="s">
         <v>330</v>
       </c>
       <c r="H230" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I230" t="s">
         <v>281</v>
@@ -9665,9 +9730,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B231" t="s">
         <v>275</v>
@@ -9682,21 +9747,21 @@
         <v>316</v>
       </c>
       <c r="F231" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G231" t="s">
         <v>331</v>
       </c>
       <c r="H231" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J231" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B232" t="s">
         <v>275</v>
@@ -9717,7 +9782,7 @@
         <v>332</v>
       </c>
       <c r="H232" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="I232" t="s">
         <v>281</v>
@@ -9726,9 +9791,9 @@
         <v>292</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B233" t="s">
         <v>275</v>
@@ -9749,15 +9814,15 @@
         <v>333</v>
       </c>
       <c r="H233" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J233" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B234" t="s">
         <v>275</v>
@@ -9772,21 +9837,21 @@
         <v>316</v>
       </c>
       <c r="F234" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G234" t="s">
         <v>334</v>
       </c>
       <c r="H234" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="J234" s="3" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B235" t="s">
         <v>471</v>
@@ -9807,7 +9872,7 @@
         <v>336</v>
       </c>
       <c r="H235" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="I235" t="s">
         <v>337</v>
@@ -9816,9 +9881,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B236" t="s">
         <v>471</v>
@@ -9833,7 +9898,7 @@
         <v>472</v>
       </c>
       <c r="F236" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G236" t="s">
         <v>338</v>
@@ -9845,9 +9910,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B237" t="s">
         <v>471</v>
@@ -9862,7 +9927,7 @@
         <v>472</v>
       </c>
       <c r="F237" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G237" t="s">
         <v>340</v>
@@ -9874,9 +9939,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B238" t="s">
         <v>471</v>
@@ -9903,9 +9968,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B239" t="s">
         <v>471</v>
@@ -9932,9 +9997,9 @@
         <v>335</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B240" t="s">
         <v>471</v>
@@ -9958,9 +10023,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B241" t="s">
         <v>471</v>
@@ -9984,9 +10049,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B242" t="s">
         <v>471</v>
@@ -10001,7 +10066,7 @@
         <v>472</v>
       </c>
       <c r="F242" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G242" t="s">
         <v>340</v>
@@ -10010,9 +10075,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B243" t="s">
         <v>471</v>
@@ -10036,9 +10101,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B244" t="s">
         <v>471</v>
@@ -10062,9 +10127,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B245" t="s">
         <v>471</v>
@@ -10079,7 +10144,7 @@
         <v>472</v>
       </c>
       <c r="F245" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G245" t="s">
         <v>349</v>
@@ -10088,9 +10153,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B246" t="s">
         <v>471</v>
@@ -10105,7 +10170,7 @@
         <v>472</v>
       </c>
       <c r="F246" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G246" t="s">
         <v>350</v>
@@ -10114,9 +10179,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B247" t="s">
         <v>471</v>
@@ -10131,7 +10196,7 @@
         <v>472</v>
       </c>
       <c r="F247" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G247" t="s">
         <v>351</v>
@@ -10140,9 +10205,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B248" t="s">
         <v>471</v>
@@ -10157,7 +10222,7 @@
         <v>472</v>
       </c>
       <c r="F248" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G248" t="s">
         <v>352</v>
@@ -10166,9 +10231,9 @@
         <v>346</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B249" t="s">
         <v>471</v>
@@ -10183,7 +10248,7 @@
         <v>472</v>
       </c>
       <c r="F249" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G249" t="s">
         <v>354</v>
@@ -10192,9 +10257,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B250" t="s">
         <v>471</v>
@@ -10209,7 +10274,7 @@
         <v>472</v>
       </c>
       <c r="F250" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G250" t="s">
         <v>355</v>
@@ -10218,9 +10283,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B251" t="s">
         <v>471</v>
@@ -10244,9 +10309,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B252" t="s">
         <v>471</v>
@@ -10270,9 +10335,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B253" t="s">
         <v>471</v>
@@ -10296,9 +10361,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B254" t="s">
         <v>471</v>
@@ -10322,9 +10387,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B255" t="s">
         <v>471</v>
@@ -10348,9 +10413,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B256" t="s">
         <v>471</v>
@@ -10365,7 +10430,7 @@
         <v>472</v>
       </c>
       <c r="F256" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G256" t="s">
         <v>338</v>
@@ -10374,9 +10439,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B257" t="s">
         <v>471</v>
@@ -10400,9 +10465,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B258" t="s">
         <v>471</v>
@@ -10417,7 +10482,7 @@
         <v>472</v>
       </c>
       <c r="F258" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G258" t="s">
         <v>362</v>
@@ -10426,9 +10491,9 @@
         <v>353</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B259" t="s">
         <v>471</v>
@@ -10452,9 +10517,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B260" t="s">
         <v>471</v>
@@ -10478,9 +10543,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B261" t="s">
         <v>471</v>
@@ -10504,9 +10569,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B262" t="s">
         <v>471</v>
@@ -10521,7 +10586,7 @@
         <v>472</v>
       </c>
       <c r="F262" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G262" t="s">
         <v>367</v>
@@ -10530,9 +10595,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B263" t="s">
         <v>471</v>
@@ -10547,7 +10612,7 @@
         <v>472</v>
       </c>
       <c r="F263" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G263" t="s">
         <v>368</v>
@@ -10556,9 +10621,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B264" t="s">
         <v>471</v>
@@ -10582,9 +10647,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B265" t="s">
         <v>471</v>
@@ -10608,9 +10673,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B266" t="s">
         <v>471</v>
@@ -10634,9 +10699,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B267" t="s">
         <v>471</v>
@@ -10660,9 +10725,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B268" t="s">
         <v>471</v>
@@ -10686,9 +10751,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B269" t="s">
         <v>471</v>
@@ -10703,7 +10768,7 @@
         <v>472</v>
       </c>
       <c r="F269" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G269" t="s">
         <v>374</v>
@@ -10712,9 +10777,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B270" t="s">
         <v>471</v>
@@ -10738,9 +10803,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B271" t="s">
         <v>471</v>
@@ -10764,9 +10829,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B272" t="s">
         <v>471</v>
@@ -10790,9 +10855,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B273" t="s">
         <v>471</v>
@@ -10816,9 +10881,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B274" t="s">
         <v>471</v>
@@ -10842,9 +10907,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B275" t="s">
         <v>471</v>
@@ -10868,9 +10933,9 @@
         <v>363</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B276" t="s">
         <v>471</v>
@@ -10885,7 +10950,7 @@
         <v>472</v>
       </c>
       <c r="F276" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G276" t="s">
         <v>381</v>
@@ -10894,9 +10959,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B277" t="s">
         <v>471</v>
@@ -10911,7 +10976,7 @@
         <v>472</v>
       </c>
       <c r="F277" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G277" t="s">
         <v>382</v>
@@ -10920,9 +10985,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B278" t="s">
         <v>471</v>
@@ -10946,9 +11011,9 @@
         <v>380</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B279" t="s">
         <v>471</v>
@@ -10972,9 +11037,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B280" t="s">
         <v>471</v>
@@ -10989,7 +11054,7 @@
         <v>472</v>
       </c>
       <c r="F280" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G280" t="s">
         <v>386</v>
@@ -10998,9 +11063,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B281" t="s">
         <v>471</v>
@@ -11024,9 +11089,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B282" t="s">
         <v>471</v>
@@ -11041,7 +11106,7 @@
         <v>472</v>
       </c>
       <c r="F282" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="G282" t="s">
         <v>388</v>
@@ -11050,9 +11115,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B283" t="s">
         <v>471</v>
@@ -11076,9 +11141,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B284" t="s">
         <v>471</v>
@@ -11102,9 +11167,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B285" t="s">
         <v>471</v>
@@ -11128,9 +11193,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B286" t="s">
         <v>471</v>
@@ -11154,9 +11219,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B287" t="s">
         <v>471</v>
@@ -11180,9 +11245,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B288" t="s">
         <v>471</v>
@@ -11206,9 +11271,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B289" t="s">
         <v>471</v>
@@ -11232,9 +11297,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B290" t="s">
         <v>471</v>
@@ -11249,7 +11314,7 @@
         <v>472</v>
       </c>
       <c r="F290" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="G290" t="s">
         <v>396</v>
@@ -11258,9 +11323,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B291" t="s">
         <v>471</v>
@@ -11284,9 +11349,9 @@
         <v>384</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B292" t="s">
         <v>471</v>
@@ -11310,9 +11375,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B293" t="s">
         <v>471</v>
@@ -11327,7 +11392,7 @@
         <v>472</v>
       </c>
       <c r="F293" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G293" t="s">
         <v>400</v>
@@ -11336,9 +11401,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B294" t="s">
         <v>471</v>
@@ -11353,7 +11418,7 @@
         <v>472</v>
       </c>
       <c r="F294" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G294" t="s">
         <v>401</v>
@@ -11362,9 +11427,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B295" t="s">
         <v>471</v>
@@ -11379,7 +11444,7 @@
         <v>472</v>
       </c>
       <c r="F295" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G295" t="s">
         <v>402</v>
@@ -11388,9 +11453,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B296" t="s">
         <v>471</v>
@@ -11405,7 +11470,7 @@
         <v>472</v>
       </c>
       <c r="F296" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G296" t="s">
         <v>403</v>
@@ -11414,9 +11479,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B297" t="s">
         <v>471</v>
@@ -11440,9 +11505,9 @@
         <v>398</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B298" t="s">
         <v>471</v>
@@ -11466,9 +11531,9 @@
         <v>405</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B299" t="s">
         <v>471</v>
@@ -11483,7 +11548,7 @@
         <v>472</v>
       </c>
       <c r="F299" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G299" t="s">
         <v>407</v>
@@ -11492,9 +11557,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B300" t="s">
         <v>471</v>
@@ -11509,7 +11574,7 @@
         <v>472</v>
       </c>
       <c r="F300" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G300" t="s">
         <v>408</v>
@@ -11518,9 +11583,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B301" t="s">
         <v>471</v>
@@ -11544,9 +11609,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B302" t="s">
         <v>471</v>
@@ -11561,7 +11626,7 @@
         <v>472</v>
       </c>
       <c r="F302" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G302" t="s">
         <v>410</v>
@@ -11570,9 +11635,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B303" t="s">
         <v>471</v>
@@ -11587,7 +11652,7 @@
         <v>472</v>
       </c>
       <c r="F303" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G303" t="s">
         <v>411</v>
@@ -11596,9 +11661,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B304" t="s">
         <v>471</v>
@@ -11613,7 +11678,7 @@
         <v>472</v>
       </c>
       <c r="F304" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G304" t="s">
         <v>412</v>
@@ -11622,9 +11687,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B305" t="s">
         <v>471</v>
@@ -11639,7 +11704,7 @@
         <v>472</v>
       </c>
       <c r="F305" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G305" t="s">
         <v>413</v>
@@ -11648,9 +11713,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B306" t="s">
         <v>471</v>
@@ -11665,7 +11730,7 @@
         <v>472</v>
       </c>
       <c r="F306" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G306" t="s">
         <v>414</v>
@@ -11674,9 +11739,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B307" t="s">
         <v>471</v>
@@ -11700,9 +11765,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B308" t="s">
         <v>471</v>
@@ -11717,7 +11782,7 @@
         <v>472</v>
       </c>
       <c r="F308" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G308" t="s">
         <v>416</v>
@@ -11726,9 +11791,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B309" t="s">
         <v>471</v>
@@ -11743,7 +11808,7 @@
         <v>472</v>
       </c>
       <c r="F309" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G309" t="s">
         <v>417</v>
@@ -11752,9 +11817,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B310" t="s">
         <v>471</v>
@@ -11769,7 +11834,7 @@
         <v>472</v>
       </c>
       <c r="F310" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G310" t="s">
         <v>418</v>
@@ -11778,9 +11843,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B311" t="s">
         <v>471</v>
@@ -11795,7 +11860,7 @@
         <v>472</v>
       </c>
       <c r="F311" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G311" t="s">
         <v>419</v>
@@ -11804,9 +11869,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B312" t="s">
         <v>471</v>
@@ -11830,9 +11895,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B313" t="s">
         <v>471</v>
@@ -11847,7 +11912,7 @@
         <v>472</v>
       </c>
       <c r="F313" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G313" t="s">
         <v>421</v>
@@ -11856,9 +11921,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B314" t="s">
         <v>471</v>
@@ -11873,7 +11938,7 @@
         <v>472</v>
       </c>
       <c r="F314" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G314" t="s">
         <v>422</v>
@@ -11882,9 +11947,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B315" t="s">
         <v>471</v>
@@ -11899,7 +11964,7 @@
         <v>472</v>
       </c>
       <c r="F315" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G315" t="s">
         <v>423</v>
@@ -11908,9 +11973,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B316" t="s">
         <v>471</v>
@@ -11925,7 +11990,7 @@
         <v>472</v>
       </c>
       <c r="F316" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G316" t="s">
         <v>424</v>
@@ -11934,9 +11999,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B317" t="s">
         <v>471</v>
@@ -11960,9 +12025,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B318" t="s">
         <v>471</v>
@@ -11977,7 +12042,7 @@
         <v>472</v>
       </c>
       <c r="F318" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G318" t="s">
         <v>426</v>
@@ -11986,9 +12051,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B319" t="s">
         <v>471</v>
@@ -12012,9 +12077,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B320" t="s">
         <v>471</v>
@@ -12029,7 +12094,7 @@
         <v>472</v>
       </c>
       <c r="F320" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G320" t="s">
         <v>428</v>
@@ -12038,9 +12103,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B321" t="s">
         <v>471</v>
@@ -12055,7 +12120,7 @@
         <v>472</v>
       </c>
       <c r="F321" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G321" t="s">
         <v>429</v>
@@ -12064,9 +12129,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B322" t="s">
         <v>471</v>
@@ -12081,7 +12146,7 @@
         <v>472</v>
       </c>
       <c r="F322" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G322" t="s">
         <v>430</v>
@@ -12090,9 +12155,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B323" t="s">
         <v>471</v>
@@ -12107,7 +12172,7 @@
         <v>472</v>
       </c>
       <c r="F323" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G323" t="s">
         <v>431</v>
@@ -12116,9 +12181,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B324" t="s">
         <v>471</v>
@@ -12133,7 +12198,7 @@
         <v>472</v>
       </c>
       <c r="F324" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G324" t="s">
         <v>432</v>
@@ -12142,9 +12207,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B325" t="s">
         <v>471</v>
@@ -12168,9 +12233,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B326" t="s">
         <v>471</v>
@@ -12185,7 +12250,7 @@
         <v>472</v>
       </c>
       <c r="F326" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G326" t="s">
         <v>434</v>
@@ -12194,9 +12259,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B327" t="s">
         <v>471</v>
@@ -12211,7 +12276,7 @@
         <v>472</v>
       </c>
       <c r="F327" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G327" t="s">
         <v>435</v>
@@ -12220,9 +12285,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B328" t="s">
         <v>471</v>
@@ -12237,7 +12302,7 @@
         <v>472</v>
       </c>
       <c r="F328" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G328" t="s">
         <v>436</v>
@@ -12246,9 +12311,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B329" t="s">
         <v>471</v>
@@ -12263,7 +12328,7 @@
         <v>472</v>
       </c>
       <c r="F329" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G329" t="s">
         <v>437</v>
@@ -12272,9 +12337,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B330" t="s">
         <v>471</v>
@@ -12289,7 +12354,7 @@
         <v>472</v>
       </c>
       <c r="F330" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G330" t="s">
         <v>438</v>
@@ -12298,9 +12363,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B331" t="s">
         <v>471</v>
@@ -12315,7 +12380,7 @@
         <v>472</v>
       </c>
       <c r="F331" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G331" t="s">
         <v>439</v>
@@ -12324,9 +12389,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B332" t="s">
         <v>471</v>
@@ -12341,7 +12406,7 @@
         <v>472</v>
       </c>
       <c r="F332" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G332" t="s">
         <v>440</v>
@@ -12350,9 +12415,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B333" t="s">
         <v>471</v>
@@ -12367,7 +12432,7 @@
         <v>472</v>
       </c>
       <c r="F333" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G333" t="s">
         <v>441</v>
@@ -12376,9 +12441,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B334" t="s">
         <v>471</v>
@@ -12402,9 +12467,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B335" t="s">
         <v>471</v>
@@ -12419,7 +12484,7 @@
         <v>472</v>
       </c>
       <c r="F335" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G335" t="s">
         <v>443</v>
@@ -12428,9 +12493,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B336" t="s">
         <v>471</v>
@@ -12445,7 +12510,7 @@
         <v>472</v>
       </c>
       <c r="F336" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G336" t="s">
         <v>444</v>
@@ -12454,9 +12519,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B337" t="s">
         <v>471</v>
@@ -12471,7 +12536,7 @@
         <v>472</v>
       </c>
       <c r="F337" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G337" t="s">
         <v>445</v>
@@ -12480,9 +12545,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B338" t="s">
         <v>471</v>
@@ -12497,7 +12562,7 @@
         <v>472</v>
       </c>
       <c r="F338" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G338" t="s">
         <v>446</v>
@@ -12506,9 +12571,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B339" t="s">
         <v>471</v>
@@ -12532,9 +12597,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B340" t="s">
         <v>471</v>
@@ -12549,7 +12614,7 @@
         <v>472</v>
       </c>
       <c r="F340" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="G340" t="s">
         <v>448</v>
@@ -12558,9 +12623,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B341" t="s">
         <v>471</v>
@@ -12574,6 +12639,9 @@
       <c r="E341" t="s">
         <v>472</v>
       </c>
+      <c r="F341">
+        <v>10603581</v>
+      </c>
       <c r="G341" t="s">
         <v>449</v>
       </c>
@@ -12581,9 +12649,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B342" t="s">
         <v>471</v>
@@ -12597,6 +12665,9 @@
       <c r="E342" t="s">
         <v>472</v>
       </c>
+      <c r="F342" t="s">
+        <v>932</v>
+      </c>
       <c r="G342" t="s">
         <v>450</v>
       </c>
@@ -12604,9 +12675,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B343" t="s">
         <v>471</v>
@@ -12620,6 +12691,9 @@
       <c r="E343" t="s">
         <v>472</v>
       </c>
+      <c r="F343" t="s">
+        <v>932</v>
+      </c>
       <c r="G343" t="s">
         <v>451</v>
       </c>
@@ -12627,9 +12701,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B344" t="s">
         <v>471</v>
@@ -12643,6 +12717,9 @@
       <c r="E344" t="s">
         <v>472</v>
       </c>
+      <c r="F344" t="s">
+        <v>932</v>
+      </c>
       <c r="G344" t="s">
         <v>452</v>
       </c>
@@ -12650,9 +12727,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B345" t="s">
         <v>471</v>
@@ -12666,6 +12743,9 @@
       <c r="E345" t="s">
         <v>472</v>
       </c>
+      <c r="F345" t="s">
+        <v>932</v>
+      </c>
       <c r="G345" t="s">
         <v>453</v>
       </c>
@@ -12673,9 +12753,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B346" t="s">
         <v>471</v>
@@ -12689,6 +12769,9 @@
       <c r="E346" t="s">
         <v>472</v>
       </c>
+      <c r="F346" t="s">
+        <v>932</v>
+      </c>
       <c r="G346" t="s">
         <v>454</v>
       </c>
@@ -12696,9 +12779,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B347" t="s">
         <v>471</v>
@@ -12712,6 +12795,9 @@
       <c r="E347" t="s">
         <v>472</v>
       </c>
+      <c r="F347" t="s">
+        <v>932</v>
+      </c>
       <c r="G347" t="s">
         <v>455</v>
       </c>
@@ -12719,9 +12805,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B348" t="s">
         <v>471</v>
@@ -12735,6 +12821,9 @@
       <c r="E348" t="s">
         <v>472</v>
       </c>
+      <c r="F348" t="s">
+        <v>932</v>
+      </c>
       <c r="G348" t="s">
         <v>456</v>
       </c>
@@ -12742,9 +12831,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B349" t="s">
         <v>471</v>
@@ -12758,6 +12847,9 @@
       <c r="E349" t="s">
         <v>472</v>
       </c>
+      <c r="F349" t="s">
+        <v>932</v>
+      </c>
       <c r="G349" t="s">
         <v>457</v>
       </c>
@@ -12765,9 +12857,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B350" t="s">
         <v>471</v>
@@ -12781,6 +12873,9 @@
       <c r="E350" t="s">
         <v>472</v>
       </c>
+      <c r="F350" t="s">
+        <v>932</v>
+      </c>
       <c r="G350" t="s">
         <v>458</v>
       </c>
@@ -12788,9 +12883,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B351" t="s">
         <v>471</v>
@@ -12804,6 +12899,9 @@
       <c r="E351" t="s">
         <v>472</v>
       </c>
+      <c r="F351" t="s">
+        <v>932</v>
+      </c>
       <c r="G351" t="s">
         <v>459</v>
       </c>
@@ -12811,9 +12909,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B352" t="s">
         <v>471</v>
@@ -12827,6 +12925,9 @@
       <c r="E352" t="s">
         <v>472</v>
       </c>
+      <c r="F352" t="s">
+        <v>932</v>
+      </c>
       <c r="G352" t="s">
         <v>460</v>
       </c>
@@ -12834,9 +12935,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B353" t="s">
         <v>471</v>
@@ -12850,6 +12951,9 @@
       <c r="E353" t="s">
         <v>472</v>
       </c>
+      <c r="F353" t="s">
+        <v>932</v>
+      </c>
       <c r="G353" t="s">
         <v>461</v>
       </c>
@@ -12857,9 +12961,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B354" t="s">
         <v>471</v>
@@ -12873,6 +12977,9 @@
       <c r="E354" t="s">
         <v>472</v>
       </c>
+      <c r="F354">
+        <v>19133580</v>
+      </c>
       <c r="G354" t="s">
         <v>462</v>
       </c>
@@ -12880,9 +12987,9 @@
         <v>295</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B355" t="s">
         <v>471</v>
@@ -12896,6 +13003,9 @@
       <c r="E355" t="s">
         <v>472</v>
       </c>
+      <c r="F355" t="s">
+        <v>932</v>
+      </c>
       <c r="G355" t="s">
         <v>465</v>
       </c>
@@ -12906,9 +13016,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B356" t="s">
         <v>471</v>
@@ -12922,6 +13032,9 @@
       <c r="E356" t="s">
         <v>472</v>
       </c>
+      <c r="F356" t="s">
+        <v>932</v>
+      </c>
       <c r="G356" t="s">
         <v>466</v>
       </c>
@@ -12932,9 +13045,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B357" t="s">
         <v>471</v>
@@ -12948,6 +13061,9 @@
       <c r="E357" t="s">
         <v>472</v>
       </c>
+      <c r="F357" t="s">
+        <v>932</v>
+      </c>
       <c r="G357" t="s">
         <v>467</v>
       </c>
@@ -12958,9 +13074,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B358" t="s">
         <v>471</v>
@@ -12974,6 +13090,9 @@
       <c r="E358" t="s">
         <v>472</v>
       </c>
+      <c r="F358" t="s">
+        <v>932</v>
+      </c>
       <c r="G358" t="s">
         <v>468</v>
       </c>
@@ -12984,9 +13103,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B359" t="s">
         <v>471</v>
@@ -13000,6 +13119,9 @@
       <c r="E359" t="s">
         <v>472</v>
       </c>
+      <c r="F359" t="s">
+        <v>932</v>
+      </c>
       <c r="G359" t="s">
         <v>469</v>
       </c>
@@ -13010,9 +13132,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B360" t="s">
         <v>471</v>
@@ -13026,6 +13148,9 @@
       <c r="E360" t="s">
         <v>472</v>
       </c>
+      <c r="F360" t="s">
+        <v>932</v>
+      </c>
       <c r="G360" t="s">
         <v>470</v>
       </c>
@@ -13036,9 +13161,9 @@
         <v>463</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B361" t="s">
         <v>471</v>
@@ -13052,19 +13177,22 @@
       <c r="E361" t="s">
         <v>475</v>
       </c>
+      <c r="F361">
+        <v>36871407</v>
+      </c>
       <c r="G361" t="s">
         <v>476</v>
       </c>
       <c r="H361" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J361" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B362" t="s">
         <v>471</v>
@@ -13078,6 +13206,9 @@
       <c r="E362" t="s">
         <v>475</v>
       </c>
+      <c r="F362">
+        <v>333740</v>
+      </c>
       <c r="G362" t="s">
         <v>478</v>
       </c>
@@ -13085,9 +13216,9 @@
         <v>477</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B363" t="s">
         <v>471</v>
@@ -13101,16 +13232,19 @@
       <c r="E363" t="s">
         <v>475</v>
       </c>
+      <c r="F363">
+        <v>9724845</v>
+      </c>
       <c r="G363" t="s">
-        <v>479</v>
+        <v>941</v>
       </c>
       <c r="J363" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B364" t="s">
         <v>471</v>
@@ -13124,16 +13258,19 @@
       <c r="E364" t="s">
         <v>475</v>
       </c>
+      <c r="F364">
+        <v>8106965</v>
+      </c>
       <c r="G364" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B365" t="s">
         <v>471</v>
@@ -13147,16 +13284,19 @@
       <c r="E365" t="s">
         <v>475</v>
       </c>
+      <c r="F365" t="s">
+        <v>932</v>
+      </c>
       <c r="G365" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B366" t="s">
         <v>471</v>
@@ -13170,16 +13310,19 @@
       <c r="E366" t="s">
         <v>475</v>
       </c>
+      <c r="F366" t="s">
+        <v>942</v>
+      </c>
       <c r="G366" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B367" t="s">
         <v>471</v>
@@ -13193,16 +13336,19 @@
       <c r="E367" t="s">
         <v>475</v>
       </c>
+      <c r="F367">
+        <v>35538177</v>
+      </c>
       <c r="G367" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B368" t="s">
         <v>471</v>
@@ -13216,16 +13362,19 @@
       <c r="E368" t="s">
         <v>475</v>
       </c>
+      <c r="F368" t="s">
+        <v>943</v>
+      </c>
       <c r="G368" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="J368" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B369" t="s">
         <v>471</v>
@@ -13239,16 +13388,19 @@
       <c r="E369" t="s">
         <v>475</v>
       </c>
+      <c r="F369" t="s">
+        <v>932</v>
+      </c>
       <c r="G369" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J369" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B370" t="s">
         <v>471</v>
@@ -13262,16 +13414,19 @@
       <c r="E370" t="s">
         <v>475</v>
       </c>
+      <c r="F370">
+        <v>33209862</v>
+      </c>
       <c r="G370" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J370" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B371" t="s">
         <v>471</v>
@@ -13285,16 +13440,19 @@
       <c r="E371" t="s">
         <v>475</v>
       </c>
+      <c r="F371" t="s">
+        <v>932</v>
+      </c>
       <c r="G371" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J371" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B372" t="s">
         <v>471</v>
@@ -13308,16 +13466,19 @@
       <c r="E372" t="s">
         <v>475</v>
       </c>
+      <c r="F372" t="s">
+        <v>932</v>
+      </c>
       <c r="G372" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J372" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B373" t="s">
         <v>471</v>
@@ -13331,16 +13492,19 @@
       <c r="E373" t="s">
         <v>475</v>
       </c>
+      <c r="F373" t="s">
+        <v>932</v>
+      </c>
       <c r="G373" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J373" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B374" t="s">
         <v>471</v>
@@ -13354,16 +13518,19 @@
       <c r="E374" t="s">
         <v>475</v>
       </c>
+      <c r="F374" t="s">
+        <v>932</v>
+      </c>
       <c r="G374" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J374" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B375" t="s">
         <v>471</v>
@@ -13377,16 +13544,19 @@
       <c r="E375" t="s">
         <v>475</v>
       </c>
+      <c r="F375">
+        <v>50356306</v>
+      </c>
       <c r="G375" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J375" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B376" t="s">
         <v>471</v>
@@ -13400,16 +13570,19 @@
       <c r="E376" t="s">
         <v>475</v>
       </c>
+      <c r="F376">
+        <v>25100281</v>
+      </c>
       <c r="G376" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J376" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B377" t="s">
         <v>471</v>
@@ -13423,16 +13596,19 @@
       <c r="E377" t="s">
         <v>475</v>
       </c>
+      <c r="F377">
+        <v>18371611</v>
+      </c>
       <c r="G377" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J377" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B378" t="s">
         <v>471</v>
@@ -13446,16 +13622,19 @@
       <c r="E378" t="s">
         <v>475</v>
       </c>
+      <c r="F378" t="s">
+        <v>932</v>
+      </c>
       <c r="G378" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J378" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B379" t="s">
         <v>471</v>
@@ -13469,16 +13648,19 @@
       <c r="E379" t="s">
         <v>475</v>
       </c>
+      <c r="F379" t="s">
+        <v>932</v>
+      </c>
       <c r="G379" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J379" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B380" t="s">
         <v>471</v>
@@ -13492,16 +13674,19 @@
       <c r="E380" t="s">
         <v>475</v>
       </c>
+      <c r="F380" t="s">
+        <v>932</v>
+      </c>
       <c r="G380" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J380" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B381" t="s">
         <v>471</v>
@@ -13515,16 +13700,19 @@
       <c r="E381" t="s">
         <v>475</v>
       </c>
+      <c r="F381" t="s">
+        <v>932</v>
+      </c>
       <c r="G381" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J381" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B382" t="s">
         <v>471</v>
@@ -13538,16 +13726,19 @@
       <c r="E382" t="s">
         <v>475</v>
       </c>
+      <c r="F382" t="s">
+        <v>932</v>
+      </c>
       <c r="G382" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B383" t="s">
         <v>471</v>
@@ -13561,16 +13752,19 @@
       <c r="E383" t="s">
         <v>475</v>
       </c>
+      <c r="F383" t="s">
+        <v>932</v>
+      </c>
       <c r="G383" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J383" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B384" t="s">
         <v>471</v>
@@ -13584,16 +13778,19 @@
       <c r="E384" t="s">
         <v>475</v>
       </c>
+      <c r="F384" t="s">
+        <v>932</v>
+      </c>
       <c r="G384" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="J384" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B385" t="s">
         <v>471</v>
@@ -13607,16 +13804,19 @@
       <c r="E385" t="s">
         <v>475</v>
       </c>
+      <c r="F385" t="s">
+        <v>932</v>
+      </c>
       <c r="G385" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="J385" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B386" t="s">
         <v>471</v>
@@ -13630,16 +13830,19 @@
       <c r="E386" t="s">
         <v>475</v>
       </c>
+      <c r="F386" t="s">
+        <v>932</v>
+      </c>
       <c r="G386" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J386" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B387" t="s">
         <v>471</v>
@@ -13653,16 +13856,19 @@
       <c r="E387" t="s">
         <v>475</v>
       </c>
+      <c r="F387" t="s">
+        <v>932</v>
+      </c>
       <c r="G387" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J387" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B388" t="s">
         <v>471</v>
@@ -13676,8 +13882,11 @@
       <c r="E388" t="s">
         <v>475</v>
       </c>
+      <c r="F388" t="s">
+        <v>932</v>
+      </c>
       <c r="G388" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J388" s="3" t="s">
         <v>225</v>
@@ -13697,31 +13906,31 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" t="s">
         <v>538</v>
       </c>
-      <c r="B1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
   </sheetData>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA104FD9-1E50-4E13-A195-7A34EEA12588}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80504099-C746-43EB-A9B5-DB3E99E63623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3116" uniqueCount="946">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="947">
   <si>
     <t>institution</t>
   </si>
@@ -2869,6 +2869,9 @@
   </si>
   <si>
     <t>35458748;35458722;35458149;35457985;35457973</t>
+  </si>
+  <si>
+    <t>43702728;43702725</t>
   </si>
 </sst>
 </file>
@@ -3269,8 +3272,8 @@
   <dimension ref="A1:P388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6398,6 +6401,9 @@
       <c r="E105" t="s">
         <v>33</v>
       </c>
+      <c r="F105" t="s">
+        <v>932</v>
+      </c>
       <c r="G105" t="s">
         <v>166</v>
       </c>
@@ -6424,6 +6430,9 @@
       <c r="E106" t="s">
         <v>33</v>
       </c>
+      <c r="F106">
+        <v>34830344</v>
+      </c>
       <c r="G106" t="s">
         <v>167</v>
       </c>
@@ -6450,6 +6459,9 @@
       <c r="E107" t="s">
         <v>33</v>
       </c>
+      <c r="F107">
+        <v>3153443</v>
+      </c>
       <c r="G107" t="s">
         <v>168</v>
       </c>
@@ -6476,6 +6488,9 @@
       <c r="E108" t="s">
         <v>33</v>
       </c>
+      <c r="F108">
+        <v>1382996</v>
+      </c>
       <c r="G108" t="s">
         <v>169</v>
       </c>
@@ -6502,6 +6517,9 @@
       <c r="E109" t="s">
         <v>33</v>
       </c>
+      <c r="F109" t="s">
+        <v>932</v>
+      </c>
       <c r="G109" t="s">
         <v>170</v>
       </c>
@@ -6531,6 +6549,9 @@
       <c r="E110" t="s">
         <v>33</v>
       </c>
+      <c r="F110" t="s">
+        <v>932</v>
+      </c>
       <c r="G110" t="s">
         <v>171</v>
       </c>
@@ -6557,6 +6578,9 @@
       <c r="E111" t="s">
         <v>33</v>
       </c>
+      <c r="F111">
+        <v>25539962</v>
+      </c>
       <c r="G111" t="s">
         <v>172</v>
       </c>
@@ -6583,6 +6607,9 @@
       <c r="E112" t="s">
         <v>33</v>
       </c>
+      <c r="F112">
+        <v>33829088</v>
+      </c>
       <c r="G112" t="s">
         <v>173</v>
       </c>
@@ -6609,6 +6636,9 @@
       <c r="E113" t="s">
         <v>33</v>
       </c>
+      <c r="F113">
+        <v>10092289</v>
+      </c>
       <c r="G113" t="s">
         <v>217</v>
       </c>
@@ -6638,6 +6668,9 @@
       <c r="E114" t="s">
         <v>33</v>
       </c>
+      <c r="F114" t="s">
+        <v>932</v>
+      </c>
       <c r="G114" t="s">
         <v>215</v>
       </c>
@@ -6667,6 +6700,9 @@
       <c r="E115" t="s">
         <v>33</v>
       </c>
+      <c r="F115">
+        <v>35983332</v>
+      </c>
       <c r="G115" t="s">
         <v>216</v>
       </c>
@@ -6696,6 +6732,9 @@
       <c r="E116" t="s">
         <v>33</v>
       </c>
+      <c r="F116" t="s">
+        <v>932</v>
+      </c>
       <c r="G116" t="s">
         <v>174</v>
       </c>
@@ -6722,6 +6761,9 @@
       <c r="E117" t="s">
         <v>33</v>
       </c>
+      <c r="F117" t="s">
+        <v>932</v>
+      </c>
       <c r="G117" t="s">
         <v>175</v>
       </c>
@@ -6748,6 +6790,9 @@
       <c r="E118" t="s">
         <v>33</v>
       </c>
+      <c r="F118" t="s">
+        <v>932</v>
+      </c>
       <c r="G118" t="s">
         <v>176</v>
       </c>
@@ -6774,6 +6819,9 @@
       <c r="E119" t="s">
         <v>33</v>
       </c>
+      <c r="F119">
+        <v>47228988</v>
+      </c>
       <c r="G119" t="s">
         <v>177</v>
       </c>
@@ -6799,6 +6847,9 @@
       </c>
       <c r="E120" t="s">
         <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>946</v>
       </c>
       <c r="G120" t="s">
         <v>178</v>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80504099-C746-43EB-A9B5-DB3E99E63623}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC0736-F369-46DE-B819-28196761F6F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="947">
   <si>
     <t>institution</t>
   </si>
@@ -3273,7 +3273,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F121" sqref="F121"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6877,6 +6877,9 @@
       <c r="E121" t="s">
         <v>33</v>
       </c>
+      <c r="F121" t="s">
+        <v>932</v>
+      </c>
       <c r="G121" t="s">
         <v>179</v>
       </c>
@@ -6903,6 +6906,9 @@
       <c r="E122" t="s">
         <v>33</v>
       </c>
+      <c r="F122" t="s">
+        <v>932</v>
+      </c>
       <c r="G122" t="s">
         <v>180</v>
       </c>
@@ -6929,6 +6935,9 @@
       <c r="E123" t="s">
         <v>33</v>
       </c>
+      <c r="F123" t="s">
+        <v>932</v>
+      </c>
       <c r="G123" t="s">
         <v>181</v>
       </c>
@@ -6954,6 +6963,9 @@
       </c>
       <c r="E124" t="s">
         <v>33</v>
+      </c>
+      <c r="F124" t="s">
+        <v>932</v>
       </c>
       <c r="G124" t="s">
         <v>182</v>

--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\R\tu-case-1\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E9C0A1-4A21-4FB3-8B06-214478D47A39}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1591C-8715-4507-97DA-F60DEB3B9CF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_data" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
+    <sheet name="poster_examples" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bio_data!$A$1:$R$387</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3330" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="1029">
   <si>
     <t>institution</t>
   </si>
@@ -3527,22 +3532,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7A9297-2EDB-42DD-9C55-FAFE6D99F2C2}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H201" sqref="H201"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:R376"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>542</v>
       </c>
@@ -3598,7 +3604,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>557</v>
       </c>
@@ -3636,7 +3642,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>558</v>
       </c>
@@ -3665,7 +3671,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>559</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>560</v>
       </c>
@@ -3723,7 +3729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>561</v>
       </c>
@@ -3752,7 +3758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>562</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>563</v>
       </c>
@@ -3810,7 +3816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>564</v>
       </c>
@@ -3842,7 +3848,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>565</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>567</v>
       </c>
@@ -3900,7 +3906,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>566</v>
       </c>
@@ -3929,7 +3935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>568</v>
       </c>
@@ -3958,7 +3964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>569</v>
       </c>
@@ -3987,7 +3993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>570</v>
       </c>
@@ -4016,7 +4022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>571</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>572</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>573</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>574</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>575</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>576</v>
       </c>
@@ -4199,7 +4205,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>577</v>
       </c>
@@ -4231,7 +4237,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>578</v>
       </c>
@@ -4260,7 +4266,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>579</v>
       </c>
@@ -4289,7 +4295,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>580</v>
       </c>
@@ -4318,7 +4324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>581</v>
       </c>
@@ -4347,7 +4353,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>582</v>
       </c>
@@ -4376,7 +4382,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>583</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>584</v>
       </c>
@@ -4434,7 +4440,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>585</v>
       </c>
@@ -4463,7 +4469,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>586</v>
       </c>
@@ -4492,7 +4498,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>587</v>
       </c>
@@ -4521,7 +4527,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>588</v>
       </c>
@@ -4550,7 +4556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>589</v>
       </c>
@@ -4579,7 +4585,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>590</v>
       </c>
@@ -4608,7 +4614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>591</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>592</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>593</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>594</v>
       </c>
@@ -4733,7 +4739,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>595</v>
       </c>
@@ -4762,7 +4768,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>596</v>
       </c>
@@ -4791,7 +4797,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>597</v>
       </c>
@@ -4820,7 +4826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>598</v>
       </c>
@@ -4858,7 +4864,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>599</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>600</v>
       </c>
@@ -4916,7 +4922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>601</v>
       </c>
@@ -4945,7 +4951,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>602</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>603</v>
       </c>
@@ -5003,7 +5009,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>604</v>
       </c>
@@ -5032,7 +5038,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>605</v>
       </c>
@@ -5061,7 +5067,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>606</v>
       </c>
@@ -5090,7 +5096,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>607</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>608</v>
       </c>
@@ -5151,7 +5157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>609</v>
       </c>
@@ -5180,7 +5186,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>610</v>
       </c>
@@ -5209,7 +5215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>611</v>
       </c>
@@ -5235,7 +5241,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>612</v>
       </c>
@@ -5264,7 +5270,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>613</v>
       </c>
@@ -5293,7 +5299,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>614</v>
       </c>
@@ -5325,7 +5331,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>615</v>
       </c>
@@ -5354,7 +5360,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>616</v>
       </c>
@@ -5383,7 +5389,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>617</v>
       </c>
@@ -5412,7 +5418,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>618</v>
       </c>
@@ -5441,7 +5447,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>619</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>620</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>621</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>622</v>
       </c>
@@ -5557,7 +5563,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>623</v>
       </c>
@@ -5589,7 +5595,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>624</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>625</v>
       </c>
@@ -5647,7 +5653,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>626</v>
       </c>
@@ -5676,7 +5682,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>627</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>628</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>629</v>
       </c>
@@ -5763,7 +5769,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>630</v>
       </c>
@@ -5792,7 +5798,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>631</v>
       </c>
@@ -5821,7 +5827,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>632</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>633</v>
       </c>
@@ -5879,7 +5885,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>634</v>
       </c>
@@ -5908,7 +5914,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>635</v>
       </c>
@@ -5940,7 +5946,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>636</v>
       </c>
@@ -5969,7 +5975,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>637</v>
       </c>
@@ -5998,7 +6004,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>638</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>639</v>
       </c>
@@ -6059,7 +6065,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>640</v>
       </c>
@@ -6088,7 +6094,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>641</v>
       </c>
@@ -6117,7 +6123,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>642</v>
       </c>
@@ -6146,7 +6152,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>643</v>
       </c>
@@ -6178,7 +6184,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>644</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>645</v>
       </c>
@@ -6236,7 +6242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>646</v>
       </c>
@@ -6265,7 +6271,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>647</v>
       </c>
@@ -6294,7 +6300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>648</v>
       </c>
@@ -6323,7 +6329,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>649</v>
       </c>
@@ -6352,7 +6358,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>650</v>
       </c>
@@ -6384,7 +6390,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>651</v>
       </c>
@@ -6413,7 +6419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>652</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>653</v>
       </c>
@@ -6471,7 +6477,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>654</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>655</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>656</v>
       </c>
@@ -6562,7 +6568,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>657</v>
       </c>
@@ -6591,7 +6597,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>658</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>659</v>
       </c>
@@ -6649,7 +6655,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>660</v>
       </c>
@@ -6678,7 +6684,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>661</v>
       </c>
@@ -6707,7 +6713,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>662</v>
       </c>
@@ -6736,7 +6742,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>663</v>
       </c>
@@ -6765,7 +6771,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>664</v>
       </c>
@@ -6797,7 +6803,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>543</v>
       </c>
@@ -6826,7 +6832,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>544</v>
       </c>
@@ -6855,7 +6861,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>545</v>
       </c>
@@ -6884,7 +6890,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>546</v>
       </c>
@@ -6916,7 +6922,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>547</v>
       </c>
@@ -6948,7 +6954,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>548</v>
       </c>
@@ -6980,7 +6986,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>549</v>
       </c>
@@ -7009,7 +7015,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>550</v>
       </c>
@@ -7038,7 +7044,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>551</v>
       </c>
@@ -7067,7 +7073,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>552</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>553</v>
       </c>
@@ -7125,7 +7131,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>554</v>
       </c>
@@ -7154,7 +7160,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>555</v>
       </c>
@@ -7183,7 +7189,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>556</v>
       </c>
@@ -7212,7 +7218,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>665</v>
       </c>
@@ -7241,7 +7247,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>666</v>
       </c>
@@ -7270,7 +7276,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>667</v>
       </c>
@@ -7299,7 +7305,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>668</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>669</v>
       </c>
@@ -7360,7 +7366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>670</v>
       </c>
@@ -7389,7 +7395,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>671</v>
       </c>
@@ -7418,7 +7424,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>672</v>
       </c>
@@ -7447,7 +7453,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>673</v>
       </c>
@@ -7479,7 +7485,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>674</v>
       </c>
@@ -7508,7 +7514,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>675</v>
       </c>
@@ -7549,7 +7555,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>676</v>
       </c>
@@ -7587,7 +7593,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>677</v>
       </c>
@@ -7625,7 +7631,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>678</v>
       </c>
@@ -7663,7 +7669,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>679</v>
       </c>
@@ -7701,7 +7707,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>680</v>
       </c>
@@ -7739,7 +7745,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>681</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>682</v>
       </c>
@@ -7818,7 +7824,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>683</v>
       </c>
@@ -7856,7 +7862,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>684</v>
       </c>
@@ -7891,7 +7897,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>685</v>
       </c>
@@ -7929,7 +7935,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>686</v>
       </c>
@@ -7967,7 +7973,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>687</v>
       </c>
@@ -8005,7 +8011,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>688</v>
       </c>
@@ -8043,7 +8049,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>689</v>
       </c>
@@ -8081,7 +8087,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>690</v>
       </c>
@@ -8119,7 +8125,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>691</v>
       </c>
@@ -8157,7 +8163,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>692</v>
       </c>
@@ -8198,7 +8204,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>693</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>694</v>
       </c>
@@ -8274,7 +8280,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>695</v>
       </c>
@@ -8315,7 +8321,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>696</v>
       </c>
@@ -8353,7 +8359,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>697</v>
       </c>
@@ -8391,7 +8397,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>698</v>
       </c>
@@ -8432,7 +8438,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>699</v>
       </c>
@@ -8470,7 +8476,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>700</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>701</v>
       </c>
@@ -8546,7 +8552,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>702</v>
       </c>
@@ -8584,7 +8590,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>703</v>
       </c>
@@ -8622,7 +8628,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>704</v>
       </c>
@@ -8660,7 +8666,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>705</v>
       </c>
@@ -8698,7 +8704,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>706</v>
       </c>
@@ -8736,7 +8742,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>707</v>
       </c>
@@ -8774,7 +8780,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>708</v>
       </c>
@@ -8812,7 +8818,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>709</v>
       </c>
@@ -8850,7 +8856,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>710</v>
       </c>
@@ -8888,7 +8894,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>711</v>
       </c>
@@ -8926,7 +8932,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>712</v>
       </c>
@@ -8964,7 +8970,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>713</v>
       </c>
@@ -9002,7 +9008,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>714</v>
       </c>
@@ -9043,7 +9049,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>715</v>
       </c>
@@ -9081,7 +9087,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>716</v>
       </c>
@@ -9119,7 +9125,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>717</v>
       </c>
@@ -9157,7 +9163,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>718</v>
       </c>
@@ -9195,7 +9201,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>719</v>
       </c>
@@ -9233,7 +9239,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>720</v>
       </c>
@@ -9271,7 +9277,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>721</v>
       </c>
@@ -9309,7 +9315,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>722</v>
       </c>
@@ -9347,7 +9353,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>723</v>
       </c>
@@ -9385,7 +9391,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>724</v>
       </c>
@@ -9423,7 +9429,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>725</v>
       </c>
@@ -9461,7 +9467,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>726</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>727</v>
       </c>
@@ -9537,7 +9543,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>728</v>
       </c>
@@ -9575,7 +9581,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>729</v>
       </c>
@@ -9613,7 +9619,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>730</v>
       </c>
@@ -9648,7 +9654,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>731</v>
       </c>
@@ -9683,7 +9689,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>732</v>
       </c>
@@ -9712,7 +9718,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>733</v>
       </c>
@@ -9741,7 +9747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>734</v>
       </c>
@@ -9770,7 +9776,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>735</v>
       </c>
@@ -9799,7 +9805,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>736</v>
       </c>
@@ -9828,7 +9834,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>737</v>
       </c>
@@ -9854,7 +9860,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>738</v>
       </c>
@@ -9880,7 +9886,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>739</v>
       </c>
@@ -9906,7 +9912,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>740</v>
       </c>
@@ -9932,7 +9938,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>741</v>
       </c>
@@ -9967,7 +9973,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>742</v>
       </c>
@@ -9990,7 +9996,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>743</v>
       </c>
@@ -10013,7 +10019,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>744</v>
       </c>
@@ -10036,7 +10042,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>745</v>
       </c>
@@ -10059,7 +10065,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>746</v>
       </c>
@@ -10082,7 +10088,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>747</v>
       </c>
@@ -10105,7 +10111,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>748</v>
       </c>
@@ -10128,7 +10134,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>749</v>
       </c>
@@ -10151,7 +10157,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>750</v>
       </c>
@@ -10174,7 +10180,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>751</v>
       </c>
@@ -10197,7 +10203,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>752</v>
       </c>
@@ -10220,7 +10226,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>753</v>
       </c>
@@ -10243,7 +10249,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>754</v>
       </c>
@@ -10266,7 +10272,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>755</v>
       </c>
@@ -10289,7 +10295,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>756</v>
       </c>
@@ -10312,7 +10318,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>757</v>
       </c>
@@ -10341,7 +10347,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>758</v>
       </c>
@@ -10370,7 +10376,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>759</v>
       </c>
@@ -10399,7 +10405,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>760</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>761</v>
       </c>
@@ -10460,7 +10466,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>762</v>
       </c>
@@ -10489,7 +10495,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>763</v>
       </c>
@@ -10521,7 +10527,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>764</v>
       </c>
@@ -10550,7 +10556,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>765</v>
       </c>
@@ -10579,7 +10585,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>766</v>
       </c>
@@ -10608,7 +10614,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>767</v>
       </c>
@@ -10637,7 +10643,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>768</v>
       </c>
@@ -10669,7 +10675,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>769</v>
       </c>
@@ -10698,7 +10704,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>770</v>
       </c>
@@ -10730,7 +10736,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>771</v>
       </c>
@@ -10759,7 +10765,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>772</v>
       </c>
@@ -10791,7 +10797,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>773</v>
       </c>
@@ -10820,7 +10826,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>774</v>
       </c>
@@ -10849,7 +10855,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>775</v>
       </c>
@@ -10881,7 +10887,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>776</v>
       </c>
@@ -10910,7 +10916,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>777</v>
       </c>
@@ -10939,7 +10945,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>778</v>
       </c>
@@ -10968,7 +10974,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>779</v>
       </c>
@@ -10997,7 +11003,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>780</v>
       </c>
@@ -11023,7 +11029,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>781</v>
       </c>
@@ -11049,7 +11055,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>782</v>
       </c>
@@ -11075,7 +11081,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>783</v>
       </c>
@@ -11101,7 +11107,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>784</v>
       </c>
@@ -11127,7 +11133,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>785</v>
       </c>
@@ -11153,7 +11159,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>786</v>
       </c>
@@ -11179,7 +11185,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>787</v>
       </c>
@@ -11205,7 +11211,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>788</v>
       </c>
@@ -11231,7 +11237,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>789</v>
       </c>
@@ -11257,7 +11263,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>790</v>
       </c>
@@ -11283,7 +11289,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>791</v>
       </c>
@@ -11309,7 +11315,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>792</v>
       </c>
@@ -11335,7 +11341,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>793</v>
       </c>
@@ -11361,7 +11367,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>794</v>
       </c>
@@ -11387,7 +11393,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>795</v>
       </c>
@@ -11413,7 +11419,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>796</v>
       </c>
@@ -11439,7 +11445,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>797</v>
       </c>
@@ -11465,7 +11471,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>798</v>
       </c>
@@ -11491,7 +11497,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>799</v>
       </c>
@@ -11517,7 +11523,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>800</v>
       </c>
@@ -11543,7 +11549,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>801</v>
       </c>
@@ -11569,7 +11575,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>802</v>
       </c>
@@ -11595,7 +11601,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>803</v>
       </c>
@@ -11621,7 +11627,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>804</v>
       </c>
@@ -11647,7 +11653,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>805</v>
       </c>
@@ -11673,7 +11679,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>806</v>
       </c>
@@ -11699,7 +11705,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>807</v>
       </c>
@@ -11725,7 +11731,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>808</v>
       </c>
@@ -11751,7 +11757,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>809</v>
       </c>
@@ -11777,7 +11783,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>810</v>
       </c>
@@ -11803,7 +11809,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>811</v>
       </c>
@@ -11829,7 +11835,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>812</v>
       </c>
@@ -11855,7 +11861,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>813</v>
       </c>
@@ -11881,7 +11887,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>814</v>
       </c>
@@ -11907,7 +11913,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>815</v>
       </c>
@@ -11933,7 +11939,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>816</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>817</v>
       </c>
@@ -11985,7 +11991,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>818</v>
       </c>
@@ -12011,7 +12017,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>819</v>
       </c>
@@ -12037,7 +12043,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>820</v>
       </c>
@@ -12063,7 +12069,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>821</v>
       </c>
@@ -12089,7 +12095,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>822</v>
       </c>
@@ -12115,7 +12121,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>823</v>
       </c>
@@ -12141,7 +12147,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>824</v>
       </c>
@@ -12167,7 +12173,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>825</v>
       </c>
@@ -12193,7 +12199,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>826</v>
       </c>
@@ -12219,7 +12225,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>827</v>
       </c>
@@ -12245,7 +12251,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>828</v>
       </c>
@@ -12271,7 +12277,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>829</v>
       </c>
@@ -12297,7 +12303,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>830</v>
       </c>
@@ -12323,7 +12329,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>831</v>
       </c>
@@ -12349,7 +12355,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>832</v>
       </c>
@@ -12375,7 +12381,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>833</v>
       </c>
@@ -12401,7 +12407,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>834</v>
       </c>
@@ -12427,7 +12433,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>835</v>
       </c>
@@ -12453,7 +12459,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>836</v>
       </c>
@@ -12479,7 +12485,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>837</v>
       </c>
@@ -12505,7 +12511,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>838</v>
       </c>
@@ -12531,7 +12537,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>839</v>
       </c>
@@ -12557,7 +12563,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>840</v>
       </c>
@@ -12583,7 +12589,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>841</v>
       </c>
@@ -12609,7 +12615,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>842</v>
       </c>
@@ -12635,7 +12641,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>843</v>
       </c>
@@ -12661,7 +12667,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>844</v>
       </c>
@@ -12687,7 +12693,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>845</v>
       </c>
@@ -12713,7 +12719,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>846</v>
       </c>
@@ -12739,7 +12745,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>847</v>
       </c>
@@ -12765,7 +12771,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>848</v>
       </c>
@@ -12791,7 +12797,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>849</v>
       </c>
@@ -12817,7 +12823,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>850</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>851</v>
       </c>
@@ -12869,7 +12875,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>852</v>
       </c>
@@ -12895,7 +12901,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>853</v>
       </c>
@@ -12921,7 +12927,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>854</v>
       </c>
@@ -12947,7 +12953,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>855</v>
       </c>
@@ -12973,7 +12979,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>856</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>857</v>
       </c>
@@ -13025,7 +13031,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>858</v>
       </c>
@@ -13051,7 +13057,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>859</v>
       </c>
@@ -13077,7 +13083,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>860</v>
       </c>
@@ -13103,7 +13109,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>861</v>
       </c>
@@ -13129,7 +13135,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>862</v>
       </c>
@@ -13155,7 +13161,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>863</v>
       </c>
@@ -13181,7 +13187,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>864</v>
       </c>
@@ -13207,7 +13213,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>865</v>
       </c>
@@ -13233,7 +13239,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>866</v>
       </c>
@@ -13259,7 +13265,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>867</v>
       </c>
@@ -13285,7 +13291,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>868</v>
       </c>
@@ -13311,7 +13317,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>869</v>
       </c>
@@ -13337,7 +13343,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>870</v>
       </c>
@@ -13363,7 +13369,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>871</v>
       </c>
@@ -13389,7 +13395,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>872</v>
       </c>
@@ -13415,7 +13421,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>873</v>
       </c>
@@ -13441,7 +13447,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>874</v>
       </c>
@@ -13467,7 +13473,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>875</v>
       </c>
@@ -13493,7 +13499,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>876</v>
       </c>
@@ -13519,7 +13525,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>877</v>
       </c>
@@ -13545,7 +13551,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>878</v>
       </c>
@@ -13571,7 +13577,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>879</v>
       </c>
@@ -13597,7 +13603,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>880</v>
       </c>
@@ -13623,7 +13629,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>881</v>
       </c>
@@ -13649,7 +13655,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>882</v>
       </c>
@@ -13675,7 +13681,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>883</v>
       </c>
@@ -13701,7 +13707,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>884</v>
       </c>
@@ -13727,7 +13733,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>885</v>
       </c>
@@ -13753,7 +13759,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>886</v>
       </c>
@@ -13779,7 +13785,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>887</v>
       </c>
@@ -13805,7 +13811,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>888</v>
       </c>
@@ -13831,7 +13837,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>889</v>
       </c>
@@ -13857,7 +13863,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>890</v>
       </c>
@@ -13883,7 +13889,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>891</v>
       </c>
@@ -13909,7 +13915,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>892</v>
       </c>
@@ -13935,7 +13941,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>893</v>
       </c>
@@ -13961,7 +13967,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>894</v>
       </c>
@@ -13987,7 +13993,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>895</v>
       </c>
@@ -14016,7 +14022,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>896</v>
       </c>
@@ -14045,7 +14051,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>897</v>
       </c>
@@ -14074,7 +14080,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>898</v>
       </c>
@@ -14103,7 +14109,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>899</v>
       </c>
@@ -14132,7 +14138,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>900</v>
       </c>
@@ -14161,7 +14167,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>901</v>
       </c>
@@ -14190,7 +14196,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>902</v>
       </c>
@@ -14216,7 +14222,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>903</v>
       </c>
@@ -14242,7 +14248,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>904</v>
       </c>
@@ -14268,7 +14274,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>905</v>
       </c>
@@ -14294,7 +14300,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>906</v>
       </c>
@@ -14320,7 +14326,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>907</v>
       </c>
@@ -14346,7 +14352,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>908</v>
       </c>
@@ -14372,7 +14378,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>909</v>
       </c>
@@ -14398,7 +14404,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>910</v>
       </c>
@@ -14424,7 +14430,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>911</v>
       </c>
@@ -14450,7 +14456,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>912</v>
       </c>
@@ -14476,7 +14482,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>913</v>
       </c>
@@ -14502,7 +14508,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>914</v>
       </c>
@@ -14528,7 +14534,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>915</v>
       </c>
@@ -14554,7 +14560,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>916</v>
       </c>
@@ -14580,7 +14586,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>917</v>
       </c>
@@ -14606,7 +14612,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>918</v>
       </c>
@@ -14632,7 +14638,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>919</v>
       </c>
@@ -14658,7 +14664,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>920</v>
       </c>
@@ -14684,7 +14690,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>921</v>
       </c>
@@ -14710,7 +14716,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>922</v>
       </c>
@@ -14736,7 +14742,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>923</v>
       </c>
@@ -14762,7 +14768,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>924</v>
       </c>
@@ -14788,7 +14794,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>925</v>
       </c>
@@ -14814,7 +14820,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>926</v>
       </c>
@@ -14840,7 +14846,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>927</v>
       </c>
@@ -14866,7 +14872,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>928</v>
       </c>
@@ -14893,6 +14899,89 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R387" xr:uid="{2FCFB6BC-4CA9-4F5B-A3FE-2070F35BC9B2}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Social Sciences and Humanities"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="10603581"/>
+        <filter val="11437613"/>
+        <filter val="11959747"/>
+        <filter val="12587609;12587611;12587606"/>
+        <filter val="13692131"/>
+        <filter val="13712719;13712718"/>
+        <filter val="13742361"/>
+        <filter val="13948010;13948009"/>
+        <filter val="14500378"/>
+        <filter val="16624485"/>
+        <filter val="16983346"/>
+        <filter val="17343667"/>
+        <filter val="17444478"/>
+        <filter val="17554352"/>
+        <filter val="18234320"/>
+        <filter val="18371611"/>
+        <filter val="19041624;19041864"/>
+        <filter val="19043192;19043194"/>
+        <filter val="19133580"/>
+        <filter val="19325628"/>
+        <filter val="19866764"/>
+        <filter val="20130196"/>
+        <filter val="22626126"/>
+        <filter val="23921773"/>
+        <filter val="24635618;24635973"/>
+        <filter val="24681715"/>
+        <filter val="25100281"/>
+        <filter val="2854669"/>
+        <filter val="29003178"/>
+        <filter val="2901"/>
+        <filter val="29141698;29141697"/>
+        <filter val="29344056"/>
+        <filter val="29371432"/>
+        <filter val="30434714"/>
+        <filter val="32966855"/>
+        <filter val="33209862"/>
+        <filter val="333740"/>
+        <filter val="33449014"/>
+        <filter val="33898806"/>
+        <filter val="33916285"/>
+        <filter val="34506521"/>
+        <filter val="34586176"/>
+        <filter val="35411041"/>
+        <filter val="35538177"/>
+        <filter val="36789409"/>
+        <filter val="36871407"/>
+        <filter val="3838893"/>
+        <filter val="39757127"/>
+        <filter val="40046625;40046628"/>
+        <filter val="40851367"/>
+        <filter val="40973442;40973443"/>
+        <filter val="41017620"/>
+        <filter val="41201274"/>
+        <filter val="414336"/>
+        <filter val="45577199"/>
+        <filter val="45717564;45717623;45717662"/>
+        <filter val="47342790"/>
+        <filter val="47434469;47434467;47434470;47434468"/>
+        <filter val="47748745"/>
+        <filter val="50356306"/>
+        <filter val="50373155"/>
+        <filter val="51114439"/>
+        <filter val="51330433;51330438"/>
+        <filter val="5521084"/>
+        <filter val="6318608"/>
+        <filter val="7113418;7113420"/>
+        <filter val="7443016"/>
+        <filter val="8106965"/>
+        <filter val="8216129;8216131"/>
+        <filter val="8458971"/>
+        <filter val="8634446;8636593;8637313"/>
+        <filter val="9724845"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="N134" r:id="rId1" xr:uid="{5376E815-CA1F-4D3D-9FE3-8C7487C3688B}"/>
     <hyperlink ref="N135" r:id="rId2" xr:uid="{1789C6AA-13A2-4181-B460-7EEE5CAF2397}"/>
@@ -14919,9 +15008,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>536</v>
       </c>
@@ -14932,7 +15021,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>505</v>
       </c>
@@ -14943,11 +15032,1104 @@
         <v>538</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6369285-517D-4CF3-BBE7-78D5A0310167}">
+  <dimension ref="A1:C98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B2">
+        <v>13692131</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B3">
+        <v>24635618</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>777</v>
+      </c>
+      <c r="B4">
+        <v>24635973</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>778</v>
+      </c>
+      <c r="B5">
+        <v>6318608</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>779</v>
+      </c>
+      <c r="B6">
+        <v>16624485</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>780</v>
+      </c>
+      <c r="B7">
+        <v>7443016</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>781</v>
+      </c>
+      <c r="B8">
+        <v>13692131</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>782</v>
+      </c>
+      <c r="B9">
+        <v>24635618</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>782</v>
+      </c>
+      <c r="B10">
+        <v>24635973</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>783</v>
+      </c>
+      <c r="B11">
+        <v>6318608</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>784</v>
+      </c>
+      <c r="B12">
+        <v>3838893</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>785</v>
+      </c>
+      <c r="B13">
+        <v>8634446</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B14">
+        <v>8636593</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>785</v>
+      </c>
+      <c r="B15">
+        <v>8637313</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>786</v>
+      </c>
+      <c r="B16">
+        <v>13712719</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>786</v>
+      </c>
+      <c r="B17">
+        <v>13712718</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>788</v>
+      </c>
+      <c r="B18">
+        <v>13948010</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>788</v>
+      </c>
+      <c r="B19">
+        <v>13948009</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>789</v>
+      </c>
+      <c r="B20">
+        <v>40046625</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>789</v>
+      </c>
+      <c r="B21">
+        <v>40046628</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>790</v>
+      </c>
+      <c r="B22">
+        <v>19043192</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>790</v>
+      </c>
+      <c r="B23">
+        <v>19043194</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>791</v>
+      </c>
+      <c r="B24">
+        <v>23921773</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>792</v>
+      </c>
+      <c r="B25">
+        <v>11437613</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>793</v>
+      </c>
+      <c r="B26">
+        <v>33449014</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>794</v>
+      </c>
+      <c r="B27">
+        <v>33916285</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>795</v>
+      </c>
+      <c r="B28">
+        <v>24681715</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>797</v>
+      </c>
+      <c r="B29">
+        <v>29003178</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>798</v>
+      </c>
+      <c r="B30">
+        <v>45717564</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>798</v>
+      </c>
+      <c r="B31">
+        <v>45717623</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>798</v>
+      </c>
+      <c r="B32">
+        <v>45717662</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>799</v>
+      </c>
+      <c r="B33">
+        <v>41201274</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>800</v>
+      </c>
+      <c r="B34">
+        <v>2901</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>801</v>
+      </c>
+      <c r="B35">
+        <v>19866764</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>802</v>
+      </c>
+      <c r="B36">
+        <v>8216129</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>802</v>
+      </c>
+      <c r="B37">
+        <v>8216131</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>804</v>
+      </c>
+      <c r="B38">
+        <v>50373155</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>805</v>
+      </c>
+      <c r="B39">
+        <v>14500378</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>806</v>
+      </c>
+      <c r="B40">
+        <v>18234320</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>807</v>
+      </c>
+      <c r="B41">
+        <v>36789409</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>808</v>
+      </c>
+      <c r="B42">
+        <v>32966855</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>809</v>
+      </c>
+      <c r="B43">
+        <v>12587609</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>809</v>
+      </c>
+      <c r="B44">
+        <v>12587611</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>809</v>
+      </c>
+      <c r="B45">
+        <v>12587606</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>810</v>
+      </c>
+      <c r="B46">
+        <v>5521084</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>811</v>
+      </c>
+      <c r="B47">
+        <v>20130196</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>812</v>
+      </c>
+      <c r="B48">
+        <v>8458971</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>813</v>
+      </c>
+      <c r="B49">
+        <v>16624485</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>814</v>
+      </c>
+      <c r="B50">
+        <v>41017620</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>815</v>
+      </c>
+      <c r="B51">
+        <v>19325628</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>816</v>
+      </c>
+      <c r="B52">
+        <v>51330433</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>816</v>
+      </c>
+      <c r="B53">
+        <v>51330438</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>817</v>
+      </c>
+      <c r="B54">
+        <v>19041624</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>817</v>
+      </c>
+      <c r="B55">
+        <v>19041864</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>818</v>
+      </c>
+      <c r="B56">
+        <v>414336</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>819</v>
+      </c>
+      <c r="B57">
+        <v>2854669</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>821</v>
+      </c>
+      <c r="B58">
+        <v>16983346</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>822</v>
+      </c>
+      <c r="B59">
+        <v>47434469</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>822</v>
+      </c>
+      <c r="B60">
+        <v>47434467</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>822</v>
+      </c>
+      <c r="B61">
+        <v>47434470</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>822</v>
+      </c>
+      <c r="B62">
+        <v>47434468</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>823</v>
+      </c>
+      <c r="B63">
+        <v>40851367</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>824</v>
+      </c>
+      <c r="B64">
+        <v>34506521</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>825</v>
+      </c>
+      <c r="B65">
+        <v>30434714</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>826</v>
+      </c>
+      <c r="B66">
+        <v>34586176</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>827</v>
+      </c>
+      <c r="B67">
+        <v>35411041</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>828</v>
+      </c>
+      <c r="B68">
+        <v>22626126</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>829</v>
+      </c>
+      <c r="B69">
+        <v>13742361</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>830</v>
+      </c>
+      <c r="B70">
+        <v>40973442</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>830</v>
+      </c>
+      <c r="B71">
+        <v>40973443</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>831</v>
+      </c>
+      <c r="B72">
+        <v>39757127</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>832</v>
+      </c>
+      <c r="B73">
+        <v>51114439</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>837</v>
+      </c>
+      <c r="B74" s="1">
+        <v>17444478</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>838</v>
+      </c>
+      <c r="B75">
+        <v>33898806</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>841</v>
+      </c>
+      <c r="B76">
+        <v>17554352</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>847</v>
+      </c>
+      <c r="B77">
+        <v>29344056</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>852</v>
+      </c>
+      <c r="B78">
+        <v>47748745</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>857</v>
+      </c>
+      <c r="B79">
+        <v>29371432</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>859</v>
+      </c>
+      <c r="B80">
+        <v>45577199</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>865</v>
+      </c>
+      <c r="B81">
+        <v>11959747</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>874</v>
+      </c>
+      <c r="B82">
+        <v>47342790</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>879</v>
+      </c>
+      <c r="B83">
+        <v>17343667</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>881</v>
+      </c>
+      <c r="B84">
+        <v>10603581</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>894</v>
+      </c>
+      <c r="B85">
+        <v>19133580</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>901</v>
+      </c>
+      <c r="B86">
+        <v>36871407</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>902</v>
+      </c>
+      <c r="B87">
+        <v>333740</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>903</v>
+      </c>
+      <c r="B88">
+        <v>9724845</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>904</v>
+      </c>
+      <c r="B89">
+        <v>8106965</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>906</v>
+      </c>
+      <c r="B90">
+        <v>7113418</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>906</v>
+      </c>
+      <c r="B91">
+        <v>7113420</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>907</v>
+      </c>
+      <c r="B92">
+        <v>35538177</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>908</v>
+      </c>
+      <c r="B93">
+        <v>29141698</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>908</v>
+      </c>
+      <c r="B94">
+        <v>29141697</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>910</v>
+      </c>
+      <c r="B95">
+        <v>33209862</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>915</v>
+      </c>
+      <c r="B96">
+        <v>50356306</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>916</v>
+      </c>
+      <c r="B97">
+        <v>25100281</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>917</v>
+      </c>
+      <c r="B98">
+        <v>18371611</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/data_cases.xlsx
+++ b/data/data_cases.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\R\tu-case-1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78C1591C-8715-4507-97DA-F60DEB3B9CF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AE1F35-958F-4B6C-82E0-C74E68899DCF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{B60B1D78-A8D8-4951-BCE0-7EB73145C67A}"/>
   </bookViews>
   <sheets>
     <sheet name="bio_data" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
     <sheet name="poster_examples" sheetId="3" r:id="rId3"/>
+    <sheet name="poster_data" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">bio_data!$A$1:$R$387</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">poster_data!$A$1:$N$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3527" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3622" uniqueCount="1042">
   <si>
     <t>institution</t>
   </si>
@@ -3123,6 +3125,45 @@
   </si>
   <si>
     <t>https://pure.tudelft.nl/portal/en/persons/sjp-callens(83741046-08ed-41f4-8255-cef348cef6cf)/publications.html</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>first_year</t>
+  </si>
+  <si>
+    <t>last_year</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>oa_p</t>
+  </si>
+  <si>
+    <t>news_m</t>
+  </si>
+  <si>
+    <t>pol_m</t>
+  </si>
+  <si>
+    <t>p_w_young</t>
+  </si>
+  <si>
+    <t>co_aut</t>
+  </si>
+  <si>
+    <t>fund_p</t>
+  </si>
+  <si>
+    <t>pp_oa</t>
+  </si>
+  <si>
+    <t>pp_w_young</t>
+  </si>
+  <si>
+    <t>pp_fund</t>
   </si>
 </sst>
 </file>
@@ -15045,8 +15086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6369285-517D-4CF3-BBE7-78D5A0310167}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16132,4 +16173,3632 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CF9108-9A5A-4C07-B425-6634E1D8C76A}">
+  <dimension ref="A1:N82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>901</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>2018</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>21</v>
+      </c>
+      <c r="G2">
+        <v>65</v>
+      </c>
+      <c r="H2">
+        <v>57</v>
+      </c>
+      <c r="I2">
+        <v>41</v>
+      </c>
+      <c r="J2">
+        <v>90</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="M2">
+        <v>0.27272727272727298</v>
+      </c>
+      <c r="N2">
+        <v>0.246753246753247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>777</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3">
+        <v>60</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>27</v>
+      </c>
+      <c r="J3">
+        <v>65</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M3">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N3">
+        <v>6.6666666666666693E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>782</v>
+      </c>
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>2017</v>
+      </c>
+      <c r="E4">
+        <v>60</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>27</v>
+      </c>
+      <c r="J4">
+        <v>65</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N4">
+        <v>6.6666666666666693E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>1992</v>
+      </c>
+      <c r="D5">
+        <v>2017</v>
+      </c>
+      <c r="E5">
+        <v>84</v>
+      </c>
+      <c r="F5">
+        <v>19</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>67</v>
+      </c>
+      <c r="J5">
+        <v>105</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="L5">
+        <v>0.226190476190476</v>
+      </c>
+      <c r="M5">
+        <v>0.226190476190476</v>
+      </c>
+      <c r="N5">
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>775</v>
+      </c>
+      <c r="B6">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2005</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>49</v>
+      </c>
+      <c r="K6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>0.32692307692307698</v>
+      </c>
+      <c r="M6">
+        <v>0.32692307692307698</v>
+      </c>
+      <c r="N6">
+        <v>0.30769230769230799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B7">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>2005</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7">
+        <v>52</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>18</v>
+      </c>
+      <c r="I7">
+        <v>12</v>
+      </c>
+      <c r="J7">
+        <v>49</v>
+      </c>
+      <c r="K7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <v>0.32692307692307698</v>
+      </c>
+      <c r="M7">
+        <v>0.32692307692307698</v>
+      </c>
+      <c r="N7">
+        <v>0.30769230769230799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2009</v>
+      </c>
+      <c r="D8">
+        <v>2018</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>18</v>
+      </c>
+      <c r="J8">
+        <v>32</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+      <c r="L8">
+        <v>0.77272727272727304</v>
+      </c>
+      <c r="M8">
+        <v>0.77272727272727304</v>
+      </c>
+      <c r="N8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>792</v>
+      </c>
+      <c r="B9">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>1991</v>
+      </c>
+      <c r="D9">
+        <v>2017</v>
+      </c>
+      <c r="E9">
+        <v>31</v>
+      </c>
+      <c r="F9">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>22</v>
+      </c>
+      <c r="J9">
+        <v>55</v>
+      </c>
+      <c r="K9">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="M9">
+        <v>0.45161290322580599</v>
+      </c>
+      <c r="N9">
+        <v>0.54838709677419395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>794</v>
+      </c>
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>1997</v>
+      </c>
+      <c r="D10">
+        <v>2017</v>
+      </c>
+      <c r="E10">
+        <v>54</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <v>46</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>0.240740740740741</v>
+      </c>
+      <c r="M10">
+        <v>0.240740740740741</v>
+      </c>
+      <c r="N10">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>809</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2008</v>
+      </c>
+      <c r="D11">
+        <v>2018</v>
+      </c>
+      <c r="E11">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="M11">
+        <v>0.42857142857142899</v>
+      </c>
+      <c r="N11">
+        <v>0.17857142857142899</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>816</v>
+      </c>
+      <c r="B12">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1998</v>
+      </c>
+      <c r="D12">
+        <v>2017</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
+      </c>
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>29</v>
+      </c>
+      <c r="J12">
+        <v>59</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>0.32432432432432401</v>
+      </c>
+      <c r="M12">
+        <v>0.32432432432432401</v>
+      </c>
+      <c r="N12">
+        <v>0.21621621621621601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>816</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>2017</v>
+      </c>
+      <c r="D13">
+        <v>2017</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>29</v>
+      </c>
+      <c r="J13">
+        <v>59</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>0.32432432432432401</v>
+      </c>
+      <c r="M13">
+        <v>0.32432432432432401</v>
+      </c>
+      <c r="N13">
+        <v>0.21621621621621601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>798</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>2009</v>
+      </c>
+      <c r="D14">
+        <v>2018</v>
+      </c>
+      <c r="E14">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>9</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>7</v>
+      </c>
+      <c r="I14">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="M14">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="N14">
+        <v>0.54545454545454497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>798</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>2010</v>
+      </c>
+      <c r="D15">
+        <v>2017</v>
+      </c>
+      <c r="E15">
+        <v>22</v>
+      </c>
+      <c r="F15">
+        <v>9</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>41</v>
+      </c>
+      <c r="K15">
+        <v>12</v>
+      </c>
+      <c r="L15">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="M15">
+        <v>0.40909090909090901</v>
+      </c>
+      <c r="N15">
+        <v>0.54545454545454497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>778</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>2008</v>
+      </c>
+      <c r="D16">
+        <v>2017</v>
+      </c>
+      <c r="E16">
+        <v>17</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="M16">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="N16">
+        <v>5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>783</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>2008</v>
+      </c>
+      <c r="D17">
+        <v>2017</v>
+      </c>
+      <c r="E17">
+        <v>17</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>28</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="M17">
+        <v>0.47058823529411797</v>
+      </c>
+      <c r="N17">
+        <v>5.8823529411764698E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>789</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>2002</v>
+      </c>
+      <c r="D18">
+        <v>2017</v>
+      </c>
+      <c r="E18">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>34</v>
+      </c>
+      <c r="J18">
+        <v>55</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>0.16326530612244899</v>
+      </c>
+      <c r="M18">
+        <v>0.16326530612244899</v>
+      </c>
+      <c r="N18">
+        <v>8.1632653061224497E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>791</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>2002</v>
+      </c>
+      <c r="D19">
+        <v>2017</v>
+      </c>
+      <c r="E19">
+        <v>27</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>43</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.296296296296296</v>
+      </c>
+      <c r="M19">
+        <v>0.296296296296296</v>
+      </c>
+      <c r="N19">
+        <v>3.7037037037037E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>795</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>2009</v>
+      </c>
+      <c r="D20">
+        <v>2018</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="M20">
+        <v>0.61538461538461497</v>
+      </c>
+      <c r="N20">
+        <v>0.230769230769231</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>785</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>2000</v>
+      </c>
+      <c r="D21">
+        <v>2018</v>
+      </c>
+      <c r="E21">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>32</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>797</v>
+      </c>
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>2009</v>
+      </c>
+      <c r="D22">
+        <v>2017</v>
+      </c>
+      <c r="E22">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>7</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>29</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.30434782608695699</v>
+      </c>
+      <c r="M22">
+        <v>0.30434782608695699</v>
+      </c>
+      <c r="N22">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>786</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>2003</v>
+      </c>
+      <c r="D23">
+        <v>2018</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>47</v>
+      </c>
+      <c r="J23">
+        <v>80</v>
+      </c>
+      <c r="K23">
+        <v>7</v>
+      </c>
+      <c r="L23">
+        <v>0.15</v>
+      </c>
+      <c r="M23">
+        <v>0.15</v>
+      </c>
+      <c r="N23">
+        <v>0.17499999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>788</v>
+      </c>
+      <c r="B24">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>1982</v>
+      </c>
+      <c r="D24">
+        <v>2017</v>
+      </c>
+      <c r="E24">
+        <v>28</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>28</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="M24">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>788</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2013</v>
+      </c>
+      <c r="D25">
+        <v>2013</v>
+      </c>
+      <c r="E25">
+        <v>28</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+      <c r="J25">
+        <v>28</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="M25">
+        <v>0.214285714285714</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>815</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>2012</v>
+      </c>
+      <c r="D26">
+        <v>2017</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>11</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="M26">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N26">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>903</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>2010</v>
+      </c>
+      <c r="D27">
+        <v>2018</v>
+      </c>
+      <c r="E27">
+        <v>24</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>15</v>
+      </c>
+      <c r="I27">
+        <v>6</v>
+      </c>
+      <c r="J27">
+        <v>14</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="M27">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="N27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>904</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>2011</v>
+      </c>
+      <c r="D28">
+        <v>2017</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>5</v>
+      </c>
+      <c r="J28">
+        <v>14</v>
+      </c>
+      <c r="K28">
+        <v>11</v>
+      </c>
+      <c r="L28">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="M28">
+        <v>0.29411764705882398</v>
+      </c>
+      <c r="N28">
+        <v>0.64705882352941202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>790</v>
+      </c>
+      <c r="B29">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>2011</v>
+      </c>
+      <c r="D29">
+        <v>2017</v>
+      </c>
+      <c r="E29">
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+      <c r="J29">
+        <v>29</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="M29">
+        <v>0.45454545454545497</v>
+      </c>
+      <c r="N29">
+        <v>0.27272727272727298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>804</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>2013</v>
+      </c>
+      <c r="D30">
+        <v>2018</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="M30">
+        <v>0.55555555555555602</v>
+      </c>
+      <c r="N30">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>817</v>
+      </c>
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>2001</v>
+      </c>
+      <c r="D31">
+        <v>2018</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <v>38</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>0.25</v>
+      </c>
+      <c r="M31">
+        <v>0.25</v>
+      </c>
+      <c r="N31">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>805</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <v>2009</v>
+      </c>
+      <c r="D32">
+        <v>2018</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>14</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="M32">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="N32">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>822</v>
+      </c>
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>1994</v>
+      </c>
+      <c r="D33">
+        <v>2017</v>
+      </c>
+      <c r="E33">
+        <v>11</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>25</v>
+      </c>
+      <c r="J33">
+        <v>33</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="M33">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="N33">
+        <v>0.18181818181818199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>822</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>2005</v>
+      </c>
+      <c r="D34">
+        <v>2017</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>25</v>
+      </c>
+      <c r="J34">
+        <v>33</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="M34">
+        <v>0.36363636363636398</v>
+      </c>
+      <c r="N34">
+        <v>0.18181818181818199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>907</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>2014</v>
+      </c>
+      <c r="D35">
+        <v>2017</v>
+      </c>
+      <c r="E35">
+        <v>12</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>7</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>0.25</v>
+      </c>
+      <c r="M35">
+        <v>0.25</v>
+      </c>
+      <c r="N35">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>908</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>2005</v>
+      </c>
+      <c r="D36">
+        <v>2016</v>
+      </c>
+      <c r="E36">
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>8</v>
+      </c>
+      <c r="J36">
+        <v>26</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="M36">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="N36">
+        <v>9.5238095238095205E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>908</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>2015</v>
+      </c>
+      <c r="D37">
+        <v>2015</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>8</v>
+      </c>
+      <c r="J37">
+        <v>26</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="M37">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="N37">
+        <v>9.5238095238095205E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>793</v>
+      </c>
+      <c r="B38">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>2000</v>
+      </c>
+      <c r="D38">
+        <v>2015</v>
+      </c>
+      <c r="E38">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>7</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>24</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0.13043478260869601</v>
+      </c>
+      <c r="M38">
+        <v>0.13043478260869601</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>800</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>2012</v>
+      </c>
+      <c r="D39">
+        <v>2018</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>2</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>7</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>0.3</v>
+      </c>
+      <c r="M39">
+        <v>0.3</v>
+      </c>
+      <c r="N39">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>810</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2016</v>
+      </c>
+      <c r="D40">
+        <v>2017</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>3</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0.6</v>
+      </c>
+      <c r="M40">
+        <v>0.6</v>
+      </c>
+      <c r="N40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>824</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>1997</v>
+      </c>
+      <c r="D41">
+        <v>2007</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41">
+        <v>14</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M41">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>852</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>2016</v>
+      </c>
+      <c r="D42">
+        <v>2017</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>881</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2016</v>
+      </c>
+      <c r="D43">
+        <v>2017</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>5</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="L43">
+        <v>0.75</v>
+      </c>
+      <c r="M43">
+        <v>0.75</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>808</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>2014</v>
+      </c>
+      <c r="D44">
+        <v>2017</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>6</v>
+      </c>
+      <c r="J44">
+        <v>11</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+      <c r="L44">
+        <v>0.5</v>
+      </c>
+      <c r="M44">
+        <v>0.5</v>
+      </c>
+      <c r="N44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>811</v>
+      </c>
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>2011</v>
+      </c>
+      <c r="D45">
+        <v>2017</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>8</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="M45">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="N45">
+        <v>0.11111111111111099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>814</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>2009</v>
+      </c>
+      <c r="D46">
+        <v>2018</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>17</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>0.25</v>
+      </c>
+      <c r="M46">
+        <v>0.25</v>
+      </c>
+      <c r="N46">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>825</v>
+      </c>
+      <c r="B47">
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <v>2012</v>
+      </c>
+      <c r="D47">
+        <v>2018</v>
+      </c>
+      <c r="E47">
+        <v>24</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>9</v>
+      </c>
+      <c r="I47">
+        <v>8</v>
+      </c>
+      <c r="J47">
+        <v>33</v>
+      </c>
+      <c r="K47">
+        <v>13</v>
+      </c>
+      <c r="L47">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="M47">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="N47">
+        <v>0.54166666666666696</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>831</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>2014</v>
+      </c>
+      <c r="D48">
+        <v>2017</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+      <c r="K48">
+        <v>2</v>
+      </c>
+      <c r="L48">
+        <v>0.5</v>
+      </c>
+      <c r="M48">
+        <v>0.5</v>
+      </c>
+      <c r="N48">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>837</v>
+      </c>
+      <c r="B49">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>2012</v>
+      </c>
+      <c r="D49">
+        <v>2016</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>902</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2012</v>
+      </c>
+      <c r="D50">
+        <v>2016</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>18</v>
+      </c>
+      <c r="J50">
+        <v>33</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0.125</v>
+      </c>
+      <c r="M50">
+        <v>0.125</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>906</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>2004</v>
+      </c>
+      <c r="D51">
+        <v>2018</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+      <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>5</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M51">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>915</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>2016</v>
+      </c>
+      <c r="D52">
+        <v>2016</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>14</v>
+      </c>
+      <c r="J52">
+        <v>27</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>784</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>2007</v>
+      </c>
+      <c r="D53">
+        <v>2007</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>5</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>802</v>
+      </c>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>2008</v>
+      </c>
+      <c r="D54">
+        <v>2015</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M54">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N54">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>806</v>
+      </c>
+      <c r="B55">
+        <v>11</v>
+      </c>
+      <c r="C55">
+        <v>2006</v>
+      </c>
+      <c r="D55">
+        <v>2017</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>11</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="M55">
+        <v>0.14285714285714299</v>
+      </c>
+      <c r="N55">
+        <v>0.42857142857142899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>807</v>
+      </c>
+      <c r="B56">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>2004</v>
+      </c>
+      <c r="D56">
+        <v>2017</v>
+      </c>
+      <c r="E56">
+        <v>9</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>8</v>
+      </c>
+      <c r="I56">
+        <v>9</v>
+      </c>
+      <c r="J56">
+        <v>17</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="M56">
+        <v>0.11111111111111099</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>812</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>2006</v>
+      </c>
+      <c r="D57">
+        <v>2018</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>9</v>
+      </c>
+      <c r="J57">
+        <v>29</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="M57">
+        <v>7.69230769230769E-2</v>
+      </c>
+      <c r="N57">
+        <v>7.69230769230769E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>819</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>2017</v>
+      </c>
+      <c r="D58">
+        <v>2017</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>4</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>823</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>2018</v>
+      </c>
+      <c r="D59">
+        <v>2018</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>4</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>830</v>
+      </c>
+      <c r="B60">
+        <v>32</v>
+      </c>
+      <c r="C60">
+        <v>1985</v>
+      </c>
+      <c r="D60">
+        <v>2017</v>
+      </c>
+      <c r="E60">
+        <v>10</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>9</v>
+      </c>
+      <c r="J60">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>4</v>
+      </c>
+      <c r="L60">
+        <v>0.1</v>
+      </c>
+      <c r="M60">
+        <v>0.1</v>
+      </c>
+      <c r="N60">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>838</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <v>2012</v>
+      </c>
+      <c r="D61">
+        <v>2016</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0.25</v>
+      </c>
+      <c r="M61">
+        <v>0.25</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>859</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>2013</v>
+      </c>
+      <c r="D62">
+        <v>2016</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>4</v>
+      </c>
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="M62">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>865</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>2017</v>
+      </c>
+      <c r="D63">
+        <v>2017</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>879</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>2017</v>
+      </c>
+      <c r="D64">
+        <v>2017</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>4</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>894</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>2017</v>
+      </c>
+      <c r="D65">
+        <v>2017</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>910</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>2017</v>
+      </c>
+      <c r="D66">
+        <v>2017</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>916</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>2013</v>
+      </c>
+      <c r="D67">
+        <v>2013</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>3</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>917</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>2016</v>
+      </c>
+      <c r="D68">
+        <v>2016</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>8</v>
+      </c>
+      <c r="J68">
+        <v>8</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>779</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>2017</v>
+      </c>
+      <c r="D69">
+        <v>2017</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>801</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>2013</v>
+      </c>
+      <c r="D70">
+        <v>2018</v>
+      </c>
+      <c r="E70">
+        <v>5</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>8</v>
+      </c>
+      <c r="J70">
+        <v>14</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>813</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>2017</v>
+      </c>
+      <c r="D71">
+        <v>2017</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>818</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>2013</v>
+      </c>
+      <c r="D72">
+        <v>2013</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>821</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>2014</v>
+      </c>
+      <c r="D73">
+        <v>2017</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0.66666666666666696</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>826</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>2010</v>
+      </c>
+      <c r="D74">
+        <v>2017</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>5</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>827</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>2013</v>
+      </c>
+      <c r="D75">
+        <v>2013</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>828</v>
+      </c>
+      <c r="B76">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>2009</v>
+      </c>
+      <c r="D76">
+        <v>2015</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>829</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>2015</v>
+      </c>
+      <c r="D77">
+        <v>2017</v>
+      </c>
+      <c r="E77">
+        <v>5</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>832</v>
+      </c>
+      <c r="B78">
+        <v>21</v>
+      </c>
+      <c r="C78">
+        <v>1994</v>
+      </c>
+      <c r="D78">
+        <v>2015</v>
+      </c>
+      <c r="E78">
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>14</v>
+      </c>
+      <c r="I78">
+        <v>13</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>841</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>2017</v>
+      </c>
+      <c r="D79">
+        <v>2017</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>847</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <v>2014</v>
+      </c>
+      <c r="D80">
+        <v>2014</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>857</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>2015</v>
+      </c>
+      <c r="D81">
+        <v>2015</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>874</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>2016</v>
+      </c>
+      <c r="D82">
+        <v>2017</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>5</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N82" xr:uid="{196043E1-9538-40EE-9DCE-346E5046AE40}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N82">
+      <sortCondition descending="1" ref="F1:F82"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>